--- a/data/messy_uc.xlsx
+++ b/data/messy_uc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pileggis\Documents\gh-personal\rmedicine-data-cleaning-2023\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterhiggins/Documents/RCode/rmedicine-data-cleaning-2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ACF04BD-4DF5-4739-AC0C-E72CA30B60EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFB4FD1-A5BC-4246-A283-935F70A86EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C3B41A98-E045-B641-B5DC-D433CA053FBE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21600" windowHeight="37900" activeTab="2" xr2:uid="{C3B41A98-E045-B641-B5DC-D433CA053FBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Explainer" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="352">
   <si>
     <t>Your well-meaning research assistant/med student has extracted data from the medical record into Excel</t>
   </si>
@@ -1012,6 +1012,87 @@
   </si>
   <si>
     <t>with the endpoints of Mayo Endoscopic Score (MES), and QOL scores like coping score, bowel symptom score, and emotional score</t>
+  </si>
+  <si>
+    <t>273K/microL</t>
+  </si>
+  <si>
+    <t>414K/microL</t>
+  </si>
+  <si>
+    <t>323K/microL</t>
+  </si>
+  <si>
+    <t>389K/microL</t>
+  </si>
+  <si>
+    <t>411K/microL</t>
+  </si>
+  <si>
+    <t>427K/microL</t>
+  </si>
+  <si>
+    <t>249K/microL</t>
+  </si>
+  <si>
+    <t>197K/microL</t>
+  </si>
+  <si>
+    <t>204K/microL</t>
+  </si>
+  <si>
+    <t>305K/microL</t>
+  </si>
+  <si>
+    <t>347K/microL</t>
+  </si>
+  <si>
+    <t>402K/microL</t>
+  </si>
+  <si>
+    <t>432K/microL</t>
+  </si>
+  <si>
+    <t>288K/microL</t>
+  </si>
+  <si>
+    <t>177K/microL</t>
+  </si>
+  <si>
+    <t>290K/microL</t>
+  </si>
+  <si>
+    <t>312K/microL</t>
+  </si>
+  <si>
+    <t>399K/microL</t>
+  </si>
+  <si>
+    <t>423K/microL</t>
+  </si>
+  <si>
+    <t>258K/microL</t>
+  </si>
+  <si>
+    <t>115K/microL</t>
+  </si>
+  <si>
+    <t>1550K/microL</t>
+  </si>
+  <si>
+    <t>37K/microL</t>
+  </si>
+  <si>
+    <t>188K/microL</t>
+  </si>
+  <si>
+    <t>456K/microL</t>
+  </si>
+  <si>
+    <t>356K/microL</t>
+  </si>
+  <si>
+    <t>291K/microL</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1103,11 +1184,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1118,7 +1198,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1439,29 +1518,29 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>314</v>
       </c>
@@ -1479,13 +1558,13 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1499,7 +1578,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1513,7 +1592,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1524,7 +1603,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1538,7 +1617,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1549,7 +1628,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1560,7 +1639,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1574,7 +1653,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1588,7 +1667,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1602,7 +1681,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1616,7 +1695,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1633,7 +1712,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1650,7 +1729,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1667,7 +1746,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1684,7 +1763,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1701,7 +1780,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1718,7 +1797,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1732,7 +1811,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1746,7 +1825,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1760,7 +1839,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1774,7 +1853,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1788,7 +1867,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1802,7 +1881,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1816,7 +1895,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1830,7 +1909,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1847,7 +1926,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1864,7 +1943,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1881,7 +1960,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1898,7 +1977,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1915,7 +1994,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1932,7 +2011,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1946,7 +2025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1960,7 +2039,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1974,7 +2053,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1998,11 +2077,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2E3CCE-D9A6-4043-B4E6-790885873B0A}">
   <dimension ref="A1:AL38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -2012,22 +2091,22 @@
     <col min="37" max="37" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2127,27 +2206,27 @@
       <c r="AH7" t="s">
         <v>39</v>
       </c>
-      <c r="AI7" s="7" t="s">
+      <c r="AI7" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="AJ7" s="7" t="s">
+      <c r="AJ7" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="AK7" s="7" t="s">
+      <c r="AK7" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="AL7" s="7" t="s">
+      <c r="AL7" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="8">
         <v>44208</v>
       </c>
       <c r="D8" t="s">
@@ -2156,10 +2235,10 @@
       <c r="E8" t="s">
         <v>278</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>38359</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="4"/>
       <c r="H8" t="s">
         <v>136</v>
       </c>
@@ -2169,35 +2248,35 @@
       <c r="J8">
         <v>3</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <f ca="1">J8*25 + 5* RAND()</f>
-        <v>78.060595641717555</v>
-      </c>
-      <c r="L8" s="9">
+        <v>76.752328986670321</v>
+      </c>
+      <c r="L8" s="8">
         <f ca="1">J8* 25 + 6* RAND()</f>
-        <v>78.291647155471509</v>
-      </c>
-      <c r="M8" s="9">
+        <v>75.961387131445022</v>
+      </c>
+      <c r="M8" s="8">
         <f ca="1" xml:space="preserve"> J8*26 + 5 * RAND()</f>
-        <v>80.317638454453856</v>
-      </c>
-      <c r="N8" s="9">
+        <v>80.97914593817346</v>
+      </c>
+      <c r="N8" s="8">
         <f ca="1" xml:space="preserve"> J8 *14 + 10* RAND()</f>
-        <v>50.156924946227377</v>
-      </c>
-      <c r="O8" s="9">
+        <v>45.790671182036412</v>
+      </c>
+      <c r="O8" s="8">
         <f ca="1" xml:space="preserve"> J8 *22 + 15* RAND()</f>
-        <v>71.234173716721401</v>
-      </c>
-      <c r="P8" s="9">
+        <v>76.532259264609223</v>
+      </c>
+      <c r="P8" s="8">
         <f ca="1">J8 * 28 + 4* RAND()</f>
-        <v>85.930330716622578</v>
+        <v>85.637667382876018</v>
       </c>
       <c r="Q8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="R8">
-        <v>273</v>
+      <c r="R8" t="s">
+        <v>325</v>
       </c>
       <c r="S8">
         <v>137</v>
@@ -2217,67 +2296,66 @@
       <c r="X8">
         <v>0</v>
       </c>
-      <c r="Y8" s="9">
+      <c r="Y8" s="8">
         <f ca="1" xml:space="preserve"> K8-22*(J8-X8)</f>
-        <v>12.060595641717555</v>
-      </c>
-      <c r="Z8" s="9">
+        <v>10.752328986670321</v>
+      </c>
+      <c r="Z8" s="8">
         <f ca="1" xml:space="preserve"> L8-20*(J8-X8)</f>
-        <v>18.291647155471509</v>
-      </c>
-      <c r="AA8" s="9">
+        <v>15.961387131445022</v>
+      </c>
+      <c r="AA8" s="8">
         <f ca="1" xml:space="preserve"> M8-24*(J8-X8)</f>
-        <v>8.3176384544538564</v>
-      </c>
-      <c r="AB8" s="9">
+        <v>8.9791459381734597</v>
+      </c>
+      <c r="AB8" s="8">
         <f ca="1" xml:space="preserve"> N8-9*(J8-X8)</f>
-        <v>23.156924946227377</v>
-      </c>
-      <c r="AC8" s="9">
+        <v>18.790671182036412</v>
+      </c>
+      <c r="AC8" s="8">
         <f ca="1" xml:space="preserve"> O8-14*(J8-X8)+ 6*RAND()</f>
-        <v>30.275122309944972</v>
-      </c>
-      <c r="AD8" s="9">
+        <v>37.599311111322251</v>
+      </c>
+      <c r="AD8" s="8">
         <f ca="1" xml:space="preserve"> P8-27*(J8-X8)+ 3*RAND()</f>
-        <v>6.4360061166151254</v>
-      </c>
-      <c r="AE8" s="8">
+        <v>6.1602411976853428</v>
+      </c>
+      <c r="AE8" s="7">
         <f ca="1">IF(B8 ="upa", Q8 +1.5* RAND()*0.8, Q8 +1.5* RAND())</f>
-        <v>9.2114411895195403</v>
-      </c>
-      <c r="AF8" s="9">
-        <f ca="1" xml:space="preserve">  R8 -70 * RAND()</f>
-        <v>228.61314994784877</v>
-      </c>
-      <c r="AG8" s="9">
+        <v>8.7671052376987539</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>201</v>
+      </c>
+      <c r="AG8" s="8">
         <f ca="1" xml:space="preserve"> S8 + 0.5* RAND()</f>
-        <v>137.42474152097225</v>
-      </c>
-      <c r="AH8" s="8">
+        <v>137.43980106296667</v>
+      </c>
+      <c r="AH8" s="7">
         <f ca="1">T8 + 0.3* RAND()</f>
-        <v>3.8977736560335448</v>
-      </c>
-      <c r="AI8" s="6" t="s">
+        <v>3.7533806366658795</v>
+      </c>
+      <c r="AI8" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="AJ8" s="6" t="s">
+      <c r="AJ8" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="AK8" s="6" t="s">
+      <c r="AK8" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AL8" s="6">
+      <c r="AL8" s="5">
         <v>96074</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="8">
         <v>44215</v>
       </c>
       <c r="D9" t="s">
@@ -2286,10 +2364,10 @@
       <c r="E9" t="s">
         <v>278</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>13618</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="4"/>
       <c r="H9" t="s">
         <v>137</v>
       </c>
@@ -2299,35 +2377,35 @@
       <c r="J9">
         <v>2</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <f t="shared" ref="K9:K38" ca="1" si="0">J9*25 + 5* RAND()</f>
-        <v>54.2782453633016</v>
-      </c>
-      <c r="L9" s="9">
+        <v>54.762925600617621</v>
+      </c>
+      <c r="L9" s="8">
         <f t="shared" ref="L9:L38" ca="1" si="1">J9* 25 + 6* RAND()</f>
-        <v>51.968519702605548</v>
-      </c>
-      <c r="M9" s="9">
+        <v>53.903638025524103</v>
+      </c>
+      <c r="M9" s="8">
         <f t="shared" ref="M9:M38" ca="1" si="2" xml:space="preserve"> J9*26 + 5 * RAND()</f>
-        <v>53.252937195205909</v>
-      </c>
-      <c r="N9" s="9">
+        <v>52.620294148474223</v>
+      </c>
+      <c r="N9" s="8">
         <f t="shared" ref="N9:N38" ca="1" si="3" xml:space="preserve"> J9 *14 + 10* RAND()</f>
-        <v>35.566214248048205</v>
-      </c>
-      <c r="O9" s="9">
+        <v>29.52532422974468</v>
+      </c>
+      <c r="O9" s="8">
         <f t="shared" ref="O9:O38" ca="1" si="4" xml:space="preserve"> J9 *22 + 15* RAND()</f>
-        <v>47.813815762822202</v>
-      </c>
-      <c r="P9" s="9">
+        <v>47.20611985487006</v>
+      </c>
+      <c r="P9" s="8">
         <f t="shared" ref="P9:P38" ca="1" si="5">J9 * 28 + 4* RAND()</f>
-        <v>59.097473424325571</v>
+        <v>56.786930044864469</v>
       </c>
       <c r="Q9">
         <v>10.1</v>
       </c>
-      <c r="R9">
-        <v>414</v>
+      <c r="R9" t="s">
+        <v>326</v>
       </c>
       <c r="S9">
         <v>142</v>
@@ -2347,67 +2425,66 @@
       <c r="X9">
         <v>1</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="Y9" s="8">
         <f t="shared" ref="Y9:Y38" ca="1" si="6" xml:space="preserve"> K9-22*(J9-X9)</f>
-        <v>32.2782453633016</v>
-      </c>
-      <c r="Z9" s="9">
+        <v>32.762925600617621</v>
+      </c>
+      <c r="Z9" s="8">
         <f t="shared" ref="Z9:Z38" ca="1" si="7" xml:space="preserve"> L9-20*(J9-X9)</f>
-        <v>31.968519702605548</v>
-      </c>
-      <c r="AA9" s="9">
+        <v>33.903638025524103</v>
+      </c>
+      <c r="AA9" s="8">
         <f t="shared" ref="AA9:AA38" ca="1" si="8" xml:space="preserve"> M9-24*(J9-X9)</f>
-        <v>29.252937195205909</v>
-      </c>
-      <c r="AB9" s="9">
+        <v>28.620294148474223</v>
+      </c>
+      <c r="AB9" s="8">
         <f t="shared" ref="AB9:AB38" ca="1" si="9" xml:space="preserve"> N9-9*(J9-X9)</f>
-        <v>26.566214248048205</v>
-      </c>
-      <c r="AC9" s="9">
+        <v>20.52532422974468</v>
+      </c>
+      <c r="AC9" s="8">
         <f t="shared" ref="AC9:AC38" ca="1" si="10" xml:space="preserve"> O9-14*(J9-X9)+ 6*RAND()</f>
-        <v>37.118259536333433</v>
-      </c>
-      <c r="AD9" s="9">
+        <v>38.351769832070474</v>
+      </c>
+      <c r="AD9" s="8">
         <f t="shared" ref="AD9:AD38" ca="1" si="11" xml:space="preserve"> P9-27*(J9-X9)+ 3*RAND()</f>
-        <v>33.737080898872357</v>
-      </c>
-      <c r="AE9" s="8">
+        <v>30.431701710090419</v>
+      </c>
+      <c r="AE9" s="7">
         <f t="shared" ref="AE9:AE38" ca="1" si="12">IF(B9 ="upa", Q9 +1.5* RAND()*0.8, Q9 +1.5* RAND())</f>
-        <v>10.415670779421086</v>
-      </c>
-      <c r="AF9" s="9">
-        <f t="shared" ref="AF9:AF38" ca="1" si="13" xml:space="preserve">  R9 -70 * RAND()</f>
-        <v>346.13164172435853</v>
-      </c>
-      <c r="AG9" s="9">
-        <f t="shared" ref="AG9:AG38" ca="1" si="14" xml:space="preserve"> S9 + 0.5* RAND()</f>
-        <v>142.4210725949803</v>
-      </c>
-      <c r="AH9" s="8">
-        <f t="shared" ref="AH9:AH38" ca="1" si="15">T9 + 0.3* RAND()</f>
-        <v>4.2659506024161367</v>
-      </c>
-      <c r="AI9" s="6" t="s">
+        <v>10.821687316157517</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>340</v>
+      </c>
+      <c r="AG9" s="8">
+        <f t="shared" ref="AG9:AG38" ca="1" si="13" xml:space="preserve"> S9 + 0.5* RAND()</f>
+        <v>142.23751803540637</v>
+      </c>
+      <c r="AH9" s="7">
+        <f t="shared" ref="AH9:AH38" ca="1" si="14">T9 + 0.3* RAND()</f>
+        <v>4.3380459653250707</v>
+      </c>
+      <c r="AI9" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="AJ9" s="6" t="s">
+      <c r="AJ9" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="AK9" s="6" t="s">
+      <c r="AK9" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="AL9" s="6">
+      <c r="AL9" s="5">
         <v>11264</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="8">
         <v>44230</v>
       </c>
       <c r="D10" t="s">
@@ -2416,10 +2493,10 @@
       <c r="E10" t="s">
         <v>279</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>16959</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="4"/>
       <c r="H10" t="s">
         <v>138</v>
       </c>
@@ -2429,35 +2506,35 @@
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>26.512702432840044</v>
-      </c>
-      <c r="L10" s="9">
+        <v>26.479559943757469</v>
+      </c>
+      <c r="L10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>28.502202634185267</v>
-      </c>
-      <c r="M10" s="9">
+        <v>25.47453411493785</v>
+      </c>
+      <c r="M10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>28.563849390567249</v>
-      </c>
-      <c r="N10" s="9">
+        <v>26.397374773112755</v>
+      </c>
+      <c r="N10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>21.989042443097997</v>
-      </c>
-      <c r="O10" s="9">
+        <v>18.605420774580466</v>
+      </c>
+      <c r="O10" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>35.356235729922233</v>
-      </c>
-      <c r="P10" s="9">
+        <v>36.191034166917191</v>
+      </c>
+      <c r="P10" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>30.752335602902075</v>
+        <v>30.409435853509514</v>
       </c>
       <c r="Q10">
         <v>5.5</v>
       </c>
-      <c r="R10">
-        <v>323</v>
+      <c r="R10" t="s">
+        <v>327</v>
       </c>
       <c r="S10">
         <v>140</v>
@@ -2477,66 +2554,65 @@
       <c r="X10">
         <v>1</v>
       </c>
-      <c r="Y10" s="9">
+      <c r="Y10" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>26.512702432840044</v>
-      </c>
-      <c r="Z10" s="9">
+        <v>26.479559943757469</v>
+      </c>
+      <c r="Z10" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>28.502202634185267</v>
-      </c>
-      <c r="AA10" s="9">
+        <v>25.47453411493785</v>
+      </c>
+      <c r="AA10" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>28.563849390567249</v>
-      </c>
-      <c r="AB10" s="9">
+        <v>26.397374773112755</v>
+      </c>
+      <c r="AB10" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>21.989042443097997</v>
-      </c>
-      <c r="AC10" s="9">
+        <v>18.605420774580466</v>
+      </c>
+      <c r="AC10" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>37.075744162542499</v>
-      </c>
-      <c r="AD10" s="9">
+        <v>38.554916491393953</v>
+      </c>
+      <c r="AD10" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>32.25146222452932</v>
-      </c>
-      <c r="AE10" s="8">
+        <v>33.268545815948379</v>
+      </c>
+      <c r="AE10" s="7">
         <v>3</v>
       </c>
-      <c r="AF10" s="9">
+      <c r="AF10" s="8">
+        <v>256</v>
+      </c>
+      <c r="AG10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>305.44946275615786</v>
-      </c>
-      <c r="AG10" s="9">
+        <v>140.00957054908491</v>
+      </c>
+      <c r="AH10" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>140.16036728156558</v>
-      </c>
-      <c r="AH10" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>4.317938516136099</v>
-      </c>
-      <c r="AI10" s="6" t="s">
+        <v>4.4821475388048215</v>
+      </c>
+      <c r="AI10" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="AJ10" s="6" t="s">
+      <c r="AJ10" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="AK10" s="6" t="s">
+      <c r="AK10" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="AL10" s="6">
+      <c r="AL10" s="5">
         <v>57246</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="8">
         <v>44245</v>
       </c>
       <c r="D11" t="s">
@@ -2545,10 +2621,10 @@
       <c r="E11" t="s">
         <v>278</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>23206</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="4"/>
       <c r="H11" t="s">
         <v>139</v>
       </c>
@@ -2558,35 +2634,35 @@
       <c r="J11">
         <v>3</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.44432932673368</v>
-      </c>
-      <c r="L11" s="9">
+        <v>76.33435626377269</v>
+      </c>
+      <c r="L11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>75.19314501439294</v>
-      </c>
-      <c r="M11" s="9">
+        <v>80.304923796567081</v>
+      </c>
+      <c r="M11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.173140715114286</v>
-      </c>
-      <c r="N11" s="9">
+        <v>79.176762566079887</v>
+      </c>
+      <c r="N11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>50.288238280051857</v>
-      </c>
-      <c r="O11" s="9">
+        <v>48.792379512010363</v>
+      </c>
+      <c r="O11" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>70.298506515737458</v>
-      </c>
-      <c r="P11" s="9">
+        <v>75.083923111333803</v>
+      </c>
+      <c r="P11" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.427990408357914</v>
+        <v>86.307327572414763</v>
       </c>
       <c r="Q11">
         <v>4.7</v>
       </c>
-      <c r="R11">
-        <v>389</v>
+      <c r="R11" t="s">
+        <v>328</v>
       </c>
       <c r="S11">
         <v>139</v>
@@ -2606,67 +2682,66 @@
       <c r="X11">
         <v>1</v>
       </c>
-      <c r="Y11" s="9">
+      <c r="Y11" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>35.44432932673368</v>
-      </c>
-      <c r="Z11" s="9">
+        <v>32.33435626377269</v>
+      </c>
+      <c r="Z11" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>35.19314501439294</v>
-      </c>
-      <c r="AA11" s="9">
+        <v>40.304923796567081</v>
+      </c>
+      <c r="AA11" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>30.173140715114286</v>
-      </c>
-      <c r="AB11" s="9">
+        <v>31.176762566079887</v>
+      </c>
+      <c r="AB11" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>32.288238280051857</v>
-      </c>
-      <c r="AC11" s="9">
+        <v>30.792379512010363</v>
+      </c>
+      <c r="AC11" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>44.923425798503175</v>
-      </c>
-      <c r="AD11" s="9">
+        <v>50.160241148711833</v>
+      </c>
+      <c r="AD11" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>34.862045422153116</v>
-      </c>
-      <c r="AE11" s="8">
+        <v>33.862267398987846</v>
+      </c>
+      <c r="AE11" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>4.9051521512719427</v>
-      </c>
-      <c r="AF11" s="9">
+        <v>5.1386650393489894</v>
+      </c>
+      <c r="AF11" s="8">
+        <v>327</v>
+      </c>
+      <c r="AG11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>341.8998456490595</v>
-      </c>
-      <c r="AG11" s="9">
+        <v>139.14752070056286</v>
+      </c>
+      <c r="AH11" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>139.47304399658739</v>
-      </c>
-      <c r="AH11" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>3.7607871161419899</v>
-      </c>
-      <c r="AI11" s="6" t="s">
+        <v>3.5040682130225389</v>
+      </c>
+      <c r="AI11" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="AJ11" s="6" t="s">
+      <c r="AJ11" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="AK11" s="6" t="s">
+      <c r="AK11" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="AL11" s="6">
+      <c r="AL11" s="5">
         <v>31457</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="8">
         <v>44255</v>
       </c>
       <c r="D12" t="s">
@@ -2675,10 +2750,10 @@
       <c r="E12" t="s">
         <v>280</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>28622</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="4"/>
       <c r="H12" t="s">
         <v>140</v>
       </c>
@@ -2688,35 +2763,35 @@
       <c r="J12">
         <v>3</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.550399283824845</v>
-      </c>
-      <c r="L12" s="9">
+        <v>76.201826265523522</v>
+      </c>
+      <c r="L12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>76.441928961904537</v>
-      </c>
-      <c r="M12" s="9">
+        <v>77.265562256130721</v>
+      </c>
+      <c r="M12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.829052644661871</v>
-      </c>
-      <c r="N12" s="9">
+        <v>81.726397083921825</v>
+      </c>
+      <c r="N12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>45.717763036319994</v>
-      </c>
-      <c r="O12" s="9">
+        <v>45.825449543824028</v>
+      </c>
+      <c r="O12" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>75.360856234040725</v>
-      </c>
-      <c r="P12" s="9">
+        <v>73.918506323771823</v>
+      </c>
+      <c r="P12" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.267091700355166</v>
+        <v>84.211479372061589</v>
       </c>
       <c r="Q12">
         <v>8.9</v>
       </c>
-      <c r="R12">
-        <v>411</v>
+      <c r="R12" t="s">
+        <v>329</v>
       </c>
       <c r="S12">
         <v>144</v>
@@ -2736,66 +2811,65 @@
       <c r="X12">
         <v>2</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="Y12" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>57.550399283824845</v>
-      </c>
-      <c r="Z12" s="9">
+        <v>54.201826265523522</v>
+      </c>
+      <c r="Z12" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>56.441928961904537</v>
-      </c>
-      <c r="AA12" s="9">
+        <v>57.265562256130721</v>
+      </c>
+      <c r="AA12" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>54.829052644661871</v>
-      </c>
-      <c r="AB12" s="9">
+        <v>57.726397083921825</v>
+      </c>
+      <c r="AB12" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>36.717763036319994</v>
-      </c>
-      <c r="AC12" s="9">
+        <v>36.825449543824028</v>
+      </c>
+      <c r="AC12" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>63.228299525683681</v>
-      </c>
-      <c r="AD12" s="9">
+        <v>65.571325347787607</v>
+      </c>
+      <c r="AD12" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>62.035647072886896</v>
-      </c>
-      <c r="AE12" s="8">
+        <v>60.187569452971935</v>
+      </c>
+      <c r="AE12" s="7">
         <v>4.8</v>
       </c>
-      <c r="AF12" s="9">
+      <c r="AF12" s="8">
+        <v>432</v>
+      </c>
+      <c r="AG12" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>386.07883687919207</v>
-      </c>
-      <c r="AG12" s="9">
+        <v>144.13269799242084</v>
+      </c>
+      <c r="AH12" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>144.02799360667734</v>
-      </c>
-      <c r="AH12" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>4.1045226525806875</v>
-      </c>
-      <c r="AI12" s="6" t="s">
+        <v>4.2626127190982617</v>
+      </c>
+      <c r="AI12" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="AJ12" s="6" t="s">
+      <c r="AJ12" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="AK12" s="6" t="s">
+      <c r="AK12" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="AL12" s="6">
+      <c r="AL12" s="5">
         <v>30711</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="8">
         <v>44259</v>
       </c>
       <c r="D13" t="s">
@@ -2804,10 +2878,10 @@
       <c r="E13" t="s">
         <v>281</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>33697</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="4"/>
       <c r="H13" t="s">
         <v>141</v>
       </c>
@@ -2817,35 +2891,35 @@
       <c r="J13">
         <v>2</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>50.478876229871801</v>
-      </c>
-      <c r="L13" s="9">
+        <v>50.201036351485854</v>
+      </c>
+      <c r="L13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>54.334537309451335</v>
-      </c>
-      <c r="M13" s="9">
+        <v>55.146478680361916</v>
+      </c>
+      <c r="M13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>54.42979704049398</v>
-      </c>
-      <c r="N13" s="9">
+        <v>54.551465467363457</v>
+      </c>
+      <c r="N13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>35.711237262819949</v>
-      </c>
-      <c r="O13" s="9">
+        <v>31.31784007441626</v>
+      </c>
+      <c r="O13" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>53.72587338086106</v>
-      </c>
-      <c r="P13" s="9">
+        <v>45.616137810750438</v>
+      </c>
+      <c r="P13" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>58.437701697636669</v>
+        <v>56.225867158749665</v>
       </c>
       <c r="Q13">
         <v>9.3000000000000007</v>
       </c>
-      <c r="R13">
-        <v>427</v>
+      <c r="R13" t="s">
+        <v>330</v>
       </c>
       <c r="S13">
         <v>145</v>
@@ -2865,67 +2939,66 @@
       <c r="X13">
         <v>1</v>
       </c>
-      <c r="Y13" s="9">
+      <c r="Y13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>28.478876229871801</v>
-      </c>
-      <c r="Z13" s="9">
+        <v>28.201036351485854</v>
+      </c>
+      <c r="Z13" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>34.334537309451335</v>
-      </c>
-      <c r="AA13" s="9">
+        <v>35.146478680361916</v>
+      </c>
+      <c r="AA13" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>30.42979704049398</v>
-      </c>
-      <c r="AB13" s="9">
+        <v>30.551465467363457</v>
+      </c>
+      <c r="AB13" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>26.711237262819949</v>
-      </c>
-      <c r="AC13" s="9">
+        <v>22.31784007441626</v>
+      </c>
+      <c r="AC13" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>41.86435199805284</v>
-      </c>
-      <c r="AD13" s="9">
+        <v>33.451032786628161</v>
+      </c>
+      <c r="AD13" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>32.228235645883984</v>
-      </c>
-      <c r="AE13" s="8">
+        <v>31.700368580893883</v>
+      </c>
+      <c r="AE13" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>10.361294578165385</v>
-      </c>
-      <c r="AF13" s="9">
+        <v>9.5332694045400874</v>
+      </c>
+      <c r="AF13" s="8">
+        <v>348</v>
+      </c>
+      <c r="AG13" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>391.91603404380982</v>
-      </c>
-      <c r="AG13" s="9">
+        <v>145.32933746710265</v>
+      </c>
+      <c r="AH13" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>145.41372816150934</v>
-      </c>
-      <c r="AH13" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>4.550622223598948</v>
-      </c>
-      <c r="AI13" s="6" t="s">
+        <v>4.6946160666024088</v>
+      </c>
+      <c r="AI13" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AJ13" s="6" t="s">
+      <c r="AJ13" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="AK13" s="6" t="s">
+      <c r="AK13" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="AL13" s="6">
+      <c r="AL13" s="5">
         <v>52722</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="8">
         <v>44264</v>
       </c>
       <c r="D14" t="s">
@@ -2934,10 +3007,10 @@
       <c r="E14" t="s">
         <v>282</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>20323</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="4"/>
       <c r="H14" t="s">
         <v>142</v>
       </c>
@@ -2947,35 +3020,35 @@
       <c r="J14">
         <v>3</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.834717141880347</v>
-      </c>
-      <c r="L14" s="9">
+        <v>76.701273930144666</v>
+      </c>
+      <c r="L14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>77.486860341843197</v>
-      </c>
-      <c r="M14" s="9">
+        <v>78.368093986396872</v>
+      </c>
+      <c r="M14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.239245967203857</v>
-      </c>
-      <c r="N14" s="9">
+        <v>80.362641516420965</v>
+      </c>
+      <c r="N14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>47.317680256883257</v>
-      </c>
-      <c r="O14" s="9">
+        <v>51.212073437893828</v>
+      </c>
+      <c r="O14" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>80.396723177061489</v>
-      </c>
-      <c r="P14" s="9">
+        <v>77.182832476155411</v>
+      </c>
+      <c r="P14" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.639858824689526</v>
+        <v>85.743591046271831</v>
       </c>
       <c r="Q14">
         <v>5.6</v>
       </c>
-      <c r="R14">
-        <v>249</v>
+      <c r="R14" t="s">
+        <v>331</v>
       </c>
       <c r="S14">
         <v>142</v>
@@ -2995,67 +3068,66 @@
       <c r="X14">
         <v>2</v>
       </c>
-      <c r="Y14" s="9">
+      <c r="Y14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>53.834717141880347</v>
-      </c>
-      <c r="Z14" s="9">
+        <v>54.701273930144666</v>
+      </c>
+      <c r="Z14" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>57.486860341843197</v>
-      </c>
-      <c r="AA14" s="9">
+        <v>58.368093986396872</v>
+      </c>
+      <c r="AA14" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>58.239245967203857</v>
-      </c>
-      <c r="AB14" s="9">
+        <v>56.362641516420965</v>
+      </c>
+      <c r="AB14" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>38.317680256883257</v>
-      </c>
-      <c r="AC14" s="9">
+        <v>42.212073437893828</v>
+      </c>
+      <c r="AC14" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>67.32031128387257</v>
-      </c>
-      <c r="AD14" s="9">
+        <v>63.50933803159878</v>
+      </c>
+      <c r="AD14" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>62.180400928330862</v>
-      </c>
-      <c r="AE14" s="8">
+        <v>59.180444091647736</v>
+      </c>
+      <c r="AE14" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>6.7898442823854506</v>
-      </c>
-      <c r="AF14" s="9">
+        <v>6.0341342837436809</v>
+      </c>
+      <c r="AF14" s="8">
+        <v>181</v>
+      </c>
+      <c r="AG14" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>200.05828378899838</v>
-      </c>
-      <c r="AG14" s="9">
+        <v>142.01376899958834</v>
+      </c>
+      <c r="AH14" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>142.1300970390908</v>
-      </c>
-      <c r="AH14" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>3.8134732117457668</v>
-      </c>
-      <c r="AI14" s="6" t="s">
+        <v>3.629701816692442</v>
+      </c>
+      <c r="AI14" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="AJ14" s="6" t="s">
+      <c r="AJ14" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="AK14" s="6" t="s">
+      <c r="AK14" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AL14" s="6">
+      <c r="AL14" s="5">
         <v>48086</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="8">
         <v>44999</v>
       </c>
       <c r="D15" t="s">
@@ -3064,10 +3136,10 @@
       <c r="E15" t="s">
         <v>283</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>27283</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="4"/>
       <c r="H15" t="s">
         <v>143</v>
       </c>
@@ -3077,35 +3149,35 @@
       <c r="J15">
         <v>3</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.003558858950356</v>
-      </c>
-      <c r="L15" s="9">
+        <v>75.251428421064062</v>
+      </c>
+      <c r="L15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>75.186744133903574</v>
-      </c>
-      <c r="M15" s="9">
+        <v>79.140209916358344</v>
+      </c>
+      <c r="M15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.623275990857849</v>
-      </c>
-      <c r="N15" s="9">
+        <v>80.569714506311627</v>
+      </c>
+      <c r="N15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>46.321221616359537</v>
-      </c>
-      <c r="O15" s="9">
+        <v>48.569867314318543</v>
+      </c>
+      <c r="O15" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>68.111841303142967</v>
-      </c>
-      <c r="P15" s="9">
+        <v>72.441742468974098</v>
+      </c>
+      <c r="P15" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.543493970515669</v>
+        <v>86.543075444180602</v>
       </c>
       <c r="Q15">
         <v>9.6999999999999993</v>
       </c>
-      <c r="R15">
-        <v>197</v>
+      <c r="R15" t="s">
+        <v>332</v>
       </c>
       <c r="S15">
         <v>138</v>
@@ -3125,66 +3197,65 @@
       <c r="X15">
         <v>2</v>
       </c>
-      <c r="Y15" s="9">
+      <c r="Y15" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>57.003558858950356</v>
-      </c>
-      <c r="Z15" s="9">
+        <v>53.251428421064062</v>
+      </c>
+      <c r="Z15" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>55.186744133903574</v>
-      </c>
-      <c r="AA15" s="9">
+        <v>59.140209916358344</v>
+      </c>
+      <c r="AA15" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>54.623275990857849</v>
-      </c>
-      <c r="AB15" s="9">
+        <v>56.569714506311627</v>
+      </c>
+      <c r="AB15" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>37.321221616359537</v>
-      </c>
-      <c r="AC15" s="9">
+        <v>39.569867314318543</v>
+      </c>
+      <c r="AC15" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>59.876061196366294</v>
-      </c>
-      <c r="AD15" s="9">
+        <v>64.343989541290298</v>
+      </c>
+      <c r="AD15" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>61.157031696809575</v>
-      </c>
-      <c r="AE15" s="8">
+        <v>60.957083871659869</v>
+      </c>
+      <c r="AE15" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AF15" s="9">
+      <c r="AF15" s="8">
+        <v>128</v>
+      </c>
+      <c r="AG15" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>173.15621219170893</v>
-      </c>
-      <c r="AG15" s="9">
+        <v>138.23491951601642</v>
+      </c>
+      <c r="AH15" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>138.20659141046113</v>
-      </c>
-      <c r="AH15" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>4.5281202322900924</v>
-      </c>
-      <c r="AI15" s="6" t="s">
+        <v>4.6118698504400193</v>
+      </c>
+      <c r="AI15" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="AJ15" s="6" t="s">
+      <c r="AJ15" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="AK15" s="6" t="s">
+      <c r="AK15" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="AL15" s="6">
+      <c r="AL15" s="5">
         <v>50784</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="8">
         <v>44276</v>
       </c>
       <c r="D16" t="s">
@@ -3193,10 +3264,10 @@
       <c r="E16" t="s">
         <v>278</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>31000</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="4"/>
       <c r="H16" t="s">
         <v>144</v>
       </c>
@@ -3206,35 +3277,35 @@
       <c r="J16">
         <v>2</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>51.831924737552399</v>
-      </c>
-      <c r="L16" s="9">
+        <v>52.064572744454544</v>
+      </c>
+      <c r="L16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>53.389470437444601</v>
-      </c>
-      <c r="M16" s="9">
+        <v>52.129639996653651</v>
+      </c>
+      <c r="M16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>53.850691316813673</v>
-      </c>
-      <c r="N16" s="9">
+        <v>54.149332505731657</v>
+      </c>
+      <c r="N16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>33.450924189561583</v>
-      </c>
-      <c r="O16" s="9">
+        <v>30.186469874977586</v>
+      </c>
+      <c r="O16" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>50.685307541668692</v>
-      </c>
-      <c r="P16" s="9">
+        <v>48.471640834105266</v>
+      </c>
+      <c r="P16" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>56.352592590454627</v>
+        <v>58.908259742791273</v>
       </c>
       <c r="Q16">
         <v>8.3000000000000007</v>
       </c>
-      <c r="R16">
-        <v>204</v>
+      <c r="R16" t="s">
+        <v>333</v>
       </c>
       <c r="S16">
         <v>140</v>
@@ -3254,67 +3325,66 @@
       <c r="X16">
         <v>0</v>
       </c>
-      <c r="Y16" s="9">
+      <c r="Y16" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>7.8319247375523986</v>
-      </c>
-      <c r="Z16" s="9">
+        <v>8.0645727444545443</v>
+      </c>
+      <c r="Z16" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>13.389470437444601</v>
-      </c>
-      <c r="AA16" s="9">
+        <v>12.129639996653651</v>
+      </c>
+      <c r="AA16" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>5.8506913168136734</v>
-      </c>
-      <c r="AB16" s="9">
+        <v>6.1493325057316568</v>
+      </c>
+      <c r="AB16" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>15.450924189561583</v>
-      </c>
-      <c r="AC16" s="9">
+        <v>12.186469874977586</v>
+      </c>
+      <c r="AC16" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>23.18900885212669</v>
-      </c>
-      <c r="AD16" s="9">
+        <v>21.208889417377435</v>
+      </c>
+      <c r="AD16" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>4.0331832122737801</v>
-      </c>
-      <c r="AE16" s="8">
+        <v>7.2845156988204316</v>
+      </c>
+      <c r="AE16" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8.9243911359782757</v>
-      </c>
-      <c r="AF16" s="9">
+        <v>8.7394902107286754</v>
+      </c>
+      <c r="AF16" s="8">
+        <v>135</v>
+      </c>
+      <c r="AG16" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>176.68970518381624</v>
-      </c>
-      <c r="AG16" s="9">
+        <v>140.31406046503048</v>
+      </c>
+      <c r="AH16" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>140.27816953646752</v>
-      </c>
-      <c r="AH16" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>4.4956174077738869</v>
-      </c>
-      <c r="AI16" s="6" t="s">
+        <v>4.4363886153842031</v>
+      </c>
+      <c r="AI16" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="AJ16" s="6" t="s">
+      <c r="AJ16" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="AK16" s="6" t="s">
+      <c r="AK16" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="AL16" s="6">
+      <c r="AL16" s="5">
         <v>64711</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="8">
         <v>44278</v>
       </c>
       <c r="D17" t="s">
@@ -3323,10 +3393,10 @@
       <c r="E17" t="s">
         <v>278</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>26653</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
       <c r="H17" t="s">
         <v>140</v>
       </c>
@@ -3336,35 +3406,35 @@
       <c r="J17">
         <v>3</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.175021975275527</v>
-      </c>
-      <c r="L17" s="9">
+        <v>79.839036589894107</v>
+      </c>
+      <c r="L17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>76.218295210287266</v>
-      </c>
-      <c r="M17" s="9">
+        <v>75.61796262879848</v>
+      </c>
+      <c r="M17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.688540190811707</v>
-      </c>
-      <c r="N17" s="9">
+        <v>78.859450504972301</v>
+      </c>
+      <c r="N17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>49.920775088178168</v>
-      </c>
-      <c r="O17" s="9">
+        <v>49.63826459047079</v>
+      </c>
+      <c r="O17" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>69.432263703182386</v>
-      </c>
-      <c r="P17" s="9">
+        <v>75.615707003612243</v>
+      </c>
+      <c r="P17" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.786715968377507</v>
+        <v>86.583339511161171</v>
       </c>
       <c r="Q17">
         <v>7.6</v>
       </c>
-      <c r="R17">
-        <v>305</v>
+      <c r="R17" t="s">
+        <v>334</v>
       </c>
       <c r="S17">
         <v>137</v>
@@ -3384,66 +3454,65 @@
       <c r="X17">
         <v>1</v>
       </c>
-      <c r="Y17" s="9">
+      <c r="Y17" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>32.175021975275527</v>
-      </c>
-      <c r="Z17" s="9">
+        <v>35.839036589894107</v>
+      </c>
+      <c r="Z17" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>36.218295210287266</v>
-      </c>
-      <c r="AA17" s="9">
+        <v>35.61796262879848</v>
+      </c>
+      <c r="AA17" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>32.688540190811707</v>
-      </c>
-      <c r="AB17" s="9">
+        <v>30.859450504972301</v>
+      </c>
+      <c r="AB17" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>31.920775088178168</v>
-      </c>
-      <c r="AC17" s="9">
+        <v>31.63826459047079</v>
+      </c>
+      <c r="AC17" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>41.504922743680069</v>
-      </c>
-      <c r="AD17" s="9">
+        <v>50.679174853088178</v>
+      </c>
+      <c r="AD17" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>33.4153520183431</v>
-      </c>
-      <c r="AE17" s="8">
+        <v>33.249219969514364</v>
+      </c>
+      <c r="AE17" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AF17" s="9">
+      <c r="AF17" s="8">
+        <v>238</v>
+      </c>
+      <c r="AG17" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>254.23714043294282</v>
-      </c>
-      <c r="AG17" s="9">
+        <v>137.48222587393226</v>
+      </c>
+      <c r="AH17" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>137.18442299527217</v>
-      </c>
-      <c r="AH17" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>4.0845786944194948</v>
-      </c>
-      <c r="AI17" s="6" t="s">
+        <v>3.9206680572158183</v>
+      </c>
+      <c r="AI17" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="AJ17" s="6" t="s">
+      <c r="AJ17" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="AK17" s="6" t="s">
+      <c r="AK17" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="AL17" s="6">
+      <c r="AL17" s="5">
         <v>33707</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="8">
         <v>44297</v>
       </c>
       <c r="D18" t="s">
@@ -3452,10 +3521,10 @@
       <c r="E18" t="s">
         <v>284</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>34617</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
       <c r="H18" t="s">
         <v>145</v>
       </c>
@@ -3465,35 +3534,35 @@
       <c r="J18">
         <v>3</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>78.949244508426446</v>
-      </c>
-      <c r="L18" s="9">
+        <v>75.453988573810491</v>
+      </c>
+      <c r="L18" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>80.795720851542328</v>
-      </c>
-      <c r="M18" s="9">
+        <v>80.112600578253151</v>
+      </c>
+      <c r="M18" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.734671716462628</v>
-      </c>
-      <c r="N18" s="9">
+        <v>81.25259624686187</v>
+      </c>
+      <c r="N18" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>51.134501611956196</v>
-      </c>
-      <c r="O18" s="9">
+        <v>42.983336498422481</v>
+      </c>
+      <c r="O18" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>72.537670581774933</v>
-      </c>
-      <c r="P18" s="9">
+        <v>68.570627856325629</v>
+      </c>
+      <c r="P18" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.393170986857982</v>
+        <v>86.91993860546836</v>
       </c>
       <c r="Q18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="R18">
-        <v>347</v>
+      <c r="R18" t="s">
+        <v>335</v>
       </c>
       <c r="S18">
         <v>143</v>
@@ -3513,67 +3582,66 @@
       <c r="X18">
         <v>0</v>
       </c>
-      <c r="Y18" s="9">
+      <c r="Y18" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>12.949244508426446</v>
-      </c>
-      <c r="Z18" s="9">
+        <v>9.4539885738104914</v>
+      </c>
+      <c r="Z18" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>20.795720851542328</v>
-      </c>
-      <c r="AA18" s="9">
+        <v>20.112600578253151</v>
+      </c>
+      <c r="AA18" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>9.7346717164626284</v>
-      </c>
-      <c r="AB18" s="9">
+        <v>9.2525962468618701</v>
+      </c>
+      <c r="AB18" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>24.134501611956196</v>
-      </c>
-      <c r="AC18" s="9">
+        <v>15.983336498422481</v>
+      </c>
+      <c r="AC18" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>30.592724281914979</v>
-      </c>
-      <c r="AD18" s="9">
+        <v>28.368324421986486</v>
+      </c>
+      <c r="AD18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>7.092885415218797</v>
-      </c>
-      <c r="AE18" s="8">
+        <v>8.6845565503631565</v>
+      </c>
+      <c r="AE18" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9.2782701207381262</v>
-      </c>
-      <c r="AF18" s="9">
+        <v>10.374726887470887</v>
+      </c>
+      <c r="AF18" s="8">
+        <v>288</v>
+      </c>
+      <c r="AG18" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>293.96802582379939</v>
-      </c>
-      <c r="AG18" s="9">
+        <v>143.08852667082749</v>
+      </c>
+      <c r="AH18" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>143.07098149089597</v>
-      </c>
-      <c r="AH18" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>3.6685790077203153</v>
-      </c>
-      <c r="AI18" s="6" t="s">
+        <v>3.8769300049727464</v>
+      </c>
+      <c r="AI18" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="AJ18" s="6" t="s">
+      <c r="AJ18" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="AK18" s="6" t="s">
+      <c r="AK18" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="AL18" s="6">
+      <c r="AL18" s="5">
         <v>69601</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="8">
         <v>44308</v>
       </c>
       <c r="D19" t="s">
@@ -3582,10 +3650,10 @@
       <c r="E19" t="s">
         <v>278</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>34290</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
       <c r="H19" t="s">
         <v>146</v>
       </c>
@@ -3595,35 +3663,35 @@
       <c r="J19">
         <v>3</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.089410157925826</v>
-      </c>
-      <c r="L19" s="9">
+        <v>76.311441919938275</v>
+      </c>
+      <c r="L19" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>77.929703594394795</v>
-      </c>
-      <c r="M19" s="9">
+        <v>80.24794894636949</v>
+      </c>
+      <c r="M19" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.597767434520946</v>
-      </c>
-      <c r="N19" s="9">
+        <v>79.858519426390416</v>
+      </c>
+      <c r="N19" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>51.446691130630597</v>
-      </c>
-      <c r="O19" s="9">
+        <v>43.864731899536153</v>
+      </c>
+      <c r="O19" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>72.743624554073079</v>
-      </c>
-      <c r="P19" s="9">
+        <v>69.207236224003879</v>
+      </c>
+      <c r="P19" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.655813992403083</v>
+        <v>87.777281421210375</v>
       </c>
       <c r="Q19">
         <v>11.5</v>
       </c>
-      <c r="R19">
-        <v>402</v>
+      <c r="R19" t="s">
+        <v>336</v>
       </c>
       <c r="S19">
         <v>136</v>
@@ -3643,67 +3711,66 @@
       <c r="X19">
         <v>1</v>
       </c>
-      <c r="Y19" s="9">
+      <c r="Y19" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>32.089410157925826</v>
-      </c>
-      <c r="Z19" s="9">
+        <v>32.311441919938275</v>
+      </c>
+      <c r="Z19" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>37.929703594394795</v>
-      </c>
-      <c r="AA19" s="9">
+        <v>40.24794894636949</v>
+      </c>
+      <c r="AA19" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>34.597767434520946</v>
-      </c>
-      <c r="AB19" s="9">
+        <v>31.858519426390416</v>
+      </c>
+      <c r="AB19" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>33.446691130630597</v>
-      </c>
-      <c r="AC19" s="9">
+        <v>25.864731899536153</v>
+      </c>
+      <c r="AC19" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>46.630283339296213</v>
-      </c>
-      <c r="AD19" s="9">
+        <v>45.670361597718852</v>
+      </c>
+      <c r="AD19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>34.388433968009664</v>
-      </c>
-      <c r="AE19" s="8">
+        <v>34.723839786214533</v>
+      </c>
+      <c r="AE19" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>11.654514003756855</v>
-      </c>
-      <c r="AF19" s="9">
+        <v>12.826471362909901</v>
+      </c>
+      <c r="AF19" s="8">
+        <v>339</v>
+      </c>
+      <c r="AG19" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>332.27060477967802</v>
-      </c>
-      <c r="AG19" s="9">
+        <v>136.09123814389417</v>
+      </c>
+      <c r="AH19" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>136.01922314156076</v>
-      </c>
-      <c r="AH19" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>3.5773920676635393</v>
-      </c>
-      <c r="AI19" s="6" t="s">
+        <v>3.6905118769308918</v>
+      </c>
+      <c r="AI19" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="AJ19" s="6" t="s">
+      <c r="AJ19" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="AK19" s="6" t="s">
+      <c r="AK19" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="AL19" s="6">
+      <c r="AL19" s="5">
         <v>53356</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="8">
         <v>44313</v>
       </c>
       <c r="D20" t="s">
@@ -3712,10 +3779,10 @@
       <c r="E20" t="s">
         <v>278</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>17590</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
       <c r="H20" t="s">
         <v>147</v>
       </c>
@@ -3725,35 +3792,35 @@
       <c r="J20">
         <v>3</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.730413273278472</v>
-      </c>
-      <c r="L20" s="9">
+        <v>75.518913417132538</v>
+      </c>
+      <c r="L20" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>80.278009616292792</v>
-      </c>
-      <c r="M20" s="9">
+        <v>75.391736942664991</v>
+      </c>
+      <c r="M20" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.063184285717384</v>
-      </c>
-      <c r="N20" s="9">
+        <v>82.122569079480186</v>
+      </c>
+      <c r="N20" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>50.334399418352945</v>
-      </c>
-      <c r="O20" s="9">
+        <v>44.398134911379557</v>
+      </c>
+      <c r="O20" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>77.291524656711687</v>
-      </c>
-      <c r="P20" s="9">
+        <v>78.610379806709062</v>
+      </c>
+      <c r="P20" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.531591308928213</v>
+        <v>84.109414827344452</v>
       </c>
       <c r="Q20">
         <v>10.199999999999999</v>
       </c>
-      <c r="R20">
-        <v>389</v>
+      <c r="R20" t="s">
+        <v>328</v>
       </c>
       <c r="S20">
         <v>135</v>
@@ -3773,67 +3840,66 @@
       <c r="X20">
         <v>1</v>
       </c>
-      <c r="Y20" s="9">
+      <c r="Y20" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>31.730413273278472</v>
-      </c>
-      <c r="Z20" s="9">
+        <v>31.518913417132538</v>
+      </c>
+      <c r="Z20" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>40.278009616292792</v>
-      </c>
-      <c r="AA20" s="9">
+        <v>35.391736942664991</v>
+      </c>
+      <c r="AA20" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>30.063184285717384</v>
-      </c>
-      <c r="AB20" s="9">
+        <v>34.122569079480186</v>
+      </c>
+      <c r="AB20" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>32.334399418352945</v>
-      </c>
-      <c r="AC20" s="9">
+        <v>26.398134911379557</v>
+      </c>
+      <c r="AC20" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>50.615682540772333</v>
-      </c>
-      <c r="AD20" s="9">
+        <v>52.156857394124785</v>
+      </c>
+      <c r="AD20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>33.277148027849741</v>
-      </c>
-      <c r="AE20" s="8">
+        <v>32.54507185333231</v>
+      </c>
+      <c r="AE20" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>10.285410015679336</v>
-      </c>
-      <c r="AF20" s="9">
+        <v>10.47132832112951</v>
+      </c>
+      <c r="AF20" s="8">
+        <v>321</v>
+      </c>
+      <c r="AG20" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>366.95376837289399</v>
-      </c>
-      <c r="AG20" s="9">
+        <v>135.42713899777661</v>
+      </c>
+      <c r="AH20" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>135.44306901819249</v>
-      </c>
-      <c r="AH20" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>3.9044308355843014</v>
-      </c>
-      <c r="AI20" s="6" t="s">
+        <v>4.0629577364278173</v>
+      </c>
+      <c r="AI20" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="AJ20" s="6" t="s">
+      <c r="AJ20" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="AK20" s="6" t="s">
+      <c r="AK20" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="AL20" s="6">
+      <c r="AL20" s="5">
         <v>32865</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="8">
         <v>44318</v>
       </c>
       <c r="D21" t="s">
@@ -3842,10 +3908,10 @@
       <c r="E21" t="s">
         <v>279</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>24219</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
       <c r="H21" t="s">
         <v>148</v>
       </c>
@@ -3855,35 +3921,35 @@
       <c r="J21">
         <v>3</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>77.901169972956993</v>
-      </c>
-      <c r="L21" s="9">
+        <v>79.013499534638186</v>
+      </c>
+      <c r="L21" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>77.957194601712985</v>
-      </c>
-      <c r="M21" s="9">
+        <v>76.122955639340574</v>
+      </c>
+      <c r="M21" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.515906150778932</v>
-      </c>
-      <c r="N21" s="9">
+        <v>81.587796407465348</v>
+      </c>
+      <c r="N21" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43.194399582872755</v>
-      </c>
-      <c r="O21" s="9">
+        <v>47.75078131941477</v>
+      </c>
+      <c r="O21" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>74.408341968550602</v>
-      </c>
-      <c r="P21" s="9">
+        <v>74.589223840313721</v>
+      </c>
+      <c r="P21" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.605510535975199</v>
+        <v>87.665677972566215</v>
       </c>
       <c r="Q21">
         <v>106</v>
       </c>
-      <c r="R21">
-        <v>432</v>
+      <c r="R21" t="s">
+        <v>337</v>
       </c>
       <c r="S21">
         <v>141</v>
@@ -3903,66 +3969,65 @@
       <c r="X21">
         <v>2</v>
       </c>
-      <c r="Y21" s="9">
+      <c r="Y21" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>55.901169972956993</v>
-      </c>
-      <c r="Z21" s="9">
+        <v>57.013499534638186</v>
+      </c>
+      <c r="Z21" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>57.957194601712985</v>
-      </c>
-      <c r="AA21" s="9">
+        <v>56.122955639340574</v>
+      </c>
+      <c r="AA21" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>54.515906150778932</v>
-      </c>
-      <c r="AB21" s="9">
+        <v>57.587796407465348</v>
+      </c>
+      <c r="AB21" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>34.194399582872755</v>
-      </c>
-      <c r="AC21" s="9">
+        <v>38.75078131941477</v>
+      </c>
+      <c r="AC21" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>65.526626277741144</v>
-      </c>
-      <c r="AD21" s="9">
+        <v>63.907615387263718</v>
+      </c>
+      <c r="AD21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>59.96529622146511</v>
-      </c>
-      <c r="AE21" s="8">
+        <v>62.953150878151966</v>
+      </c>
+      <c r="AE21" s="7">
         <v>5.3</v>
       </c>
-      <c r="AF21" s="9">
+      <c r="AF21" s="8">
+        <v>349</v>
+      </c>
+      <c r="AG21" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>406.93507631223815</v>
-      </c>
-      <c r="AG21" s="9">
+        <v>141.45694559842849</v>
+      </c>
+      <c r="AH21" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>141.43409294976726</v>
-      </c>
-      <c r="AH21" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>4.711786021385735</v>
-      </c>
-      <c r="AI21" s="6" t="s">
+        <v>4.7160831833592693</v>
+      </c>
+      <c r="AI21" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="AJ21" s="6" t="s">
+      <c r="AJ21" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="AK21" s="6" t="s">
+      <c r="AK21" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="AL21" s="6">
+      <c r="AL21" s="5">
         <v>56772</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="8">
         <v>44324</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -3971,10 +4036,10 @@
       <c r="E22" t="s">
         <v>285</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>28713</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
       <c r="H22" t="s">
         <v>149</v>
       </c>
@@ -3984,35 +4049,35 @@
       <c r="J22">
         <v>2</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>54.397204361927422</v>
-      </c>
-      <c r="L22" s="9">
+        <v>51.101468189124944</v>
+      </c>
+      <c r="L22" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>55.812814909984375</v>
-      </c>
-      <c r="M22" s="9">
+        <v>54.641160951700307</v>
+      </c>
+      <c r="M22" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>55.01683807106599</v>
-      </c>
-      <c r="N22" s="9">
+        <v>54.509647937461729</v>
+      </c>
+      <c r="N22" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>35.887567151786314</v>
-      </c>
-      <c r="O22" s="9">
+        <v>33.92322084071472</v>
+      </c>
+      <c r="O22" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>52.994073067793643</v>
-      </c>
-      <c r="P22" s="9">
+        <v>49.539685366455409</v>
+      </c>
+      <c r="P22" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>57.72238364409737</v>
+        <v>58.028191202801601</v>
       </c>
       <c r="Q22">
         <v>10.1</v>
       </c>
-      <c r="R22">
-        <v>288</v>
+      <c r="R22" t="s">
+        <v>338</v>
       </c>
       <c r="S22">
         <v>133</v>
@@ -4032,92 +4097,91 @@
       <c r="X22">
         <v>0</v>
       </c>
-      <c r="Y22" s="9">
+      <c r="Y22" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>10.397204361927422</v>
-      </c>
-      <c r="Z22" s="9">
+        <v>7.1014681891249438</v>
+      </c>
+      <c r="Z22" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>15.812814909984375</v>
-      </c>
-      <c r="AA22" s="9">
+        <v>14.641160951700307</v>
+      </c>
+      <c r="AA22" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>7.0168380710659903</v>
-      </c>
-      <c r="AB22" s="9">
+        <v>6.5096479374617289</v>
+      </c>
+      <c r="AB22" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>17.887567151786314</v>
-      </c>
-      <c r="AC22" s="9" t="s">
+        <v>15.92322084071472</v>
+      </c>
+      <c r="AC22" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="AD22" s="9" t="s">
+      <c r="AD22" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="AE22" s="8">
+      <c r="AE22" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>10.458359659657141</v>
-      </c>
-      <c r="AF22" s="9">
+        <v>11.272719998762803</v>
+      </c>
+      <c r="AF22" s="8">
+        <v>216</v>
+      </c>
+      <c r="AG22" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>231.97473000963595</v>
-      </c>
-      <c r="AG22" s="9">
+        <v>133.29857249548121</v>
+      </c>
+      <c r="AH22" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>133.06820975148807</v>
-      </c>
-      <c r="AH22" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>4.3952776677788066</v>
-      </c>
-      <c r="AI22" s="6" t="s">
+        <v>4.4475764747643627</v>
+      </c>
+      <c r="AI22" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="AJ22" s="6" t="s">
+      <c r="AJ22" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="AK22" s="6" t="s">
+      <c r="AK22" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="AL22" s="6">
+      <c r="AL22" s="5">
         <v>72594</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
-      <c r="A23" s="4"/>
-      <c r="C23" s="5"/>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="1"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="8"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6"/>
-      <c r="AK23" s="6"/>
-      <c r="AL23" s="6"/>
-    </row>
-    <row r="24" spans="1:38">
-      <c r="A24" s="4" t="s">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="8">
         <v>44329</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -4126,10 +4190,10 @@
       <c r="E24" t="s">
         <v>279</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>36096</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
       <c r="H24" t="s">
         <v>150</v>
       </c>
@@ -4139,35 +4203,35 @@
       <c r="J24">
         <v>3</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.323290623163501</v>
-      </c>
-      <c r="L24" s="9">
+        <v>76.626453151124721</v>
+      </c>
+      <c r="L24" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>79.997979826644112</v>
-      </c>
-      <c r="M24" s="9">
+        <v>76.688999033509774</v>
+      </c>
+      <c r="M24" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.054027550068099</v>
-      </c>
-      <c r="N24" s="9">
+        <v>78.655405102150127</v>
+      </c>
+      <c r="N24" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>48.945303094178627</v>
-      </c>
-      <c r="O24" s="9">
+        <v>50.131789876790094</v>
+      </c>
+      <c r="O24" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>68.13332829269649</v>
-      </c>
-      <c r="P24" s="9">
+        <v>75.140580805782676</v>
+      </c>
+      <c r="P24" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.482776522327725</v>
+        <v>87.375416725141051</v>
       </c>
       <c r="Q24">
         <v>7.3</v>
       </c>
-      <c r="R24">
-        <v>177</v>
+      <c r="R24" t="s">
+        <v>339</v>
       </c>
       <c r="S24">
         <v>135</v>
@@ -4187,67 +4251,66 @@
       <c r="X24">
         <v>1</v>
       </c>
-      <c r="Y24" s="9">
+      <c r="Y24" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>31.323290623163501</v>
-      </c>
-      <c r="Z24" s="9">
+        <v>32.626453151124721</v>
+      </c>
+      <c r="Z24" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>39.997979826644112</v>
-      </c>
-      <c r="AA24" s="9">
+        <v>36.688999033509774</v>
+      </c>
+      <c r="AA24" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>33.054027550068099</v>
-      </c>
-      <c r="AB24" s="9">
+        <v>30.655405102150127</v>
+      </c>
+      <c r="AB24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>30.945303094178627</v>
-      </c>
-      <c r="AC24" s="9">
+        <v>32.131789876790094</v>
+      </c>
+      <c r="AC24" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>41.49300761007953</v>
-      </c>
-      <c r="AD24" s="9">
+        <v>48.928187168071716</v>
+      </c>
+      <c r="AD24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>35.090910113022396</v>
-      </c>
-      <c r="AE24" s="8">
+        <v>33.748962853904921</v>
+      </c>
+      <c r="AE24" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>7.3410492177706121</v>
-      </c>
-      <c r="AF24" s="9">
+        <v>8.197001583564429</v>
+      </c>
+      <c r="AF24" s="8">
+        <v>102</v>
+      </c>
+      <c r="AG24" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>136.5317913104389</v>
-      </c>
-      <c r="AG24" s="9">
+        <v>135.32351369469438</v>
+      </c>
+      <c r="AH24" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>135.13685927445624</v>
-      </c>
-      <c r="AH24" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>4.2676730403761285</v>
-      </c>
-      <c r="AI24" s="6" t="s">
+        <v>4.2381501590660386</v>
+      </c>
+      <c r="AI24" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="AJ24" s="6" t="s">
+      <c r="AJ24" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="AK24" s="6" t="s">
+      <c r="AK24" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="AL24" s="6">
+      <c r="AL24" s="5">
         <v>29884</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="8">
         <v>44332</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -4256,10 +4319,10 @@
       <c r="E25" t="s">
         <v>278</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>36900</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
       <c r="H25" t="s">
         <v>151</v>
       </c>
@@ -4269,35 +4332,35 @@
       <c r="J25">
         <v>3</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.157675560235035</v>
-      </c>
-      <c r="L25" s="9">
+        <v>78.801900943615095</v>
+      </c>
+      <c r="L25" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>78.092678099856627</v>
-      </c>
-      <c r="M25" s="9">
+        <v>75.525340201614469</v>
+      </c>
+      <c r="M25" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.983242857798771</v>
-      </c>
-      <c r="N25" s="9">
+        <v>82.777689041194122</v>
+      </c>
+      <c r="N25" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>45.263369893108319</v>
-      </c>
-      <c r="O25" s="9">
+        <v>44.689985259219057</v>
+      </c>
+      <c r="O25" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>74.965157654880784</v>
-      </c>
-      <c r="P25" s="9">
+        <v>80.91448879103055</v>
+      </c>
+      <c r="P25" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>85.595710123828979</v>
+        <v>84.873464375039845</v>
       </c>
       <c r="Q25">
         <v>8.6</v>
       </c>
-      <c r="R25">
-        <v>290</v>
+      <c r="R25" t="s">
+        <v>340</v>
       </c>
       <c r="S25">
         <v>143</v>
@@ -4317,65 +4380,64 @@
       <c r="X25">
         <v>0</v>
       </c>
-      <c r="Y25" s="9">
+      <c r="Y25" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>13.157675560235035</v>
-      </c>
-      <c r="Z25" s="9">
+        <v>12.801900943615095</v>
+      </c>
+      <c r="Z25" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>18.092678099856627</v>
-      </c>
-      <c r="AA25" s="9">
+        <v>15.525340201614469</v>
+      </c>
+      <c r="AA25" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>6.9832428577987713</v>
-      </c>
-      <c r="AB25" s="9">
+        <v>10.777689041194122</v>
+      </c>
+      <c r="AB25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>18.263369893108319</v>
-      </c>
-      <c r="AC25" s="9">
+        <v>17.689985259219057</v>
+      </c>
+      <c r="AC25" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>37.159835881588052</v>
-      </c>
-      <c r="AD25" s="9">
+        <v>40.210913915767541</v>
+      </c>
+      <c r="AD25" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6.9247928892156398</v>
-      </c>
-      <c r="AE25" s="8">
+        <v>6.2546895998667447</v>
+      </c>
+      <c r="AE25" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9.1319153196505791</v>
-      </c>
-      <c r="AF25" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>248.0906288938115</v>
-      </c>
-      <c r="AG25" s="9">
+        <v>9.771957772700965</v>
+      </c>
+      <c r="AF25" s="8">
+        <v>224</v>
+      </c>
+      <c r="AG25" s="8">
         <v>-99</v>
       </c>
-      <c r="AH25" s="8">
+      <c r="AH25" s="7">
         <v>-99</v>
       </c>
-      <c r="AI25" s="6" t="s">
+      <c r="AI25" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="AJ25" s="6" t="s">
+      <c r="AJ25" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="AK25" s="6" t="s">
+      <c r="AK25" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="AL25" s="6">
+      <c r="AL25" s="5">
         <v>72529</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="8">
         <v>44346</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -4384,10 +4446,10 @@
       <c r="E26" t="s">
         <v>278</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>34400</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
       <c r="H26" t="s">
         <v>152</v>
       </c>
@@ -4397,35 +4459,35 @@
       <c r="J26">
         <v>3</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.775193254423442</v>
-      </c>
-      <c r="L26" s="9">
+        <v>79.155385893372156</v>
+      </c>
+      <c r="L26" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>78.241537227916112</v>
-      </c>
-      <c r="M26" s="9">
+        <v>78.400491810118439</v>
+      </c>
+      <c r="M26" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>79.320293603780101</v>
-      </c>
-      <c r="N26" s="9">
+        <v>78.430061755480565</v>
+      </c>
+      <c r="N26" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>44.323820442906566</v>
-      </c>
-      <c r="O26" s="9">
+        <v>43.764461970432031</v>
+      </c>
+      <c r="O26" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>78.337806631950812</v>
-      </c>
-      <c r="P26" s="9">
+        <v>66.242288857140551</v>
+      </c>
+      <c r="P26" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.052592930237026</v>
+        <v>84.185506090314604</v>
       </c>
       <c r="Q26">
         <v>5.7</v>
       </c>
-      <c r="R26">
-        <v>312</v>
+      <c r="R26" t="s">
+        <v>341</v>
       </c>
       <c r="S26">
         <v>136</v>
@@ -4445,66 +4507,65 @@
       <c r="X26">
         <v>2</v>
       </c>
-      <c r="Y26" s="9">
+      <c r="Y26" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>53.775193254423442</v>
-      </c>
-      <c r="Z26" s="9">
+        <v>57.155385893372156</v>
+      </c>
+      <c r="Z26" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>58.241537227916112</v>
-      </c>
-      <c r="AA26" s="9">
+        <v>58.400491810118439</v>
+      </c>
+      <c r="AA26" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>55.320293603780101</v>
-      </c>
-      <c r="AB26" s="9">
+        <v>54.430061755480565</v>
+      </c>
+      <c r="AB26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>35.323820442906566</v>
-      </c>
-      <c r="AC26" s="9">
+        <v>34.764461970432031</v>
+      </c>
+      <c r="AC26" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>65.952234027837804</v>
-      </c>
-      <c r="AD26" s="9">
+        <v>54.926245098499209</v>
+      </c>
+      <c r="AD26" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>59.606683854489035</v>
-      </c>
-      <c r="AE26" s="8">
+        <v>59.877478187970048</v>
+      </c>
+      <c r="AE26" s="7">
         <v>3.2</v>
       </c>
-      <c r="AF26" s="9">
+      <c r="AF26" s="8">
+        <v>242</v>
+      </c>
+      <c r="AG26" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>303.05477237097188</v>
-      </c>
-      <c r="AG26" s="9">
+        <v>136.04885757648489</v>
+      </c>
+      <c r="AH26" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>136.43716958785427</v>
-      </c>
-      <c r="AH26" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>3.9454505919905718</v>
-      </c>
-      <c r="AI26" s="6" t="s">
+        <v>3.8816964356092591</v>
+      </c>
+      <c r="AI26" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="AJ26" s="6" t="s">
+      <c r="AJ26" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="AK26" s="6" t="s">
+      <c r="AK26" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AL26" s="6">
+      <c r="AL26" s="5">
         <v>76681</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="8">
         <v>44358</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -4513,10 +4574,10 @@
       <c r="E27" t="s">
         <v>278</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>31555</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
       <c r="H27" t="s">
         <v>153</v>
       </c>
@@ -4526,35 +4587,35 @@
       <c r="J27">
         <v>1</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>25.393740736244876</v>
-      </c>
-      <c r="L27" s="9">
+        <v>26.334633697071084</v>
+      </c>
+      <c r="L27" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>30.113020970953112</v>
-      </c>
-      <c r="M27" s="9">
+        <v>28.203159403406811</v>
+      </c>
+      <c r="M27" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>29.538158090482042</v>
-      </c>
-      <c r="N27" s="9">
+        <v>26.777553989448766</v>
+      </c>
+      <c r="N27" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>16.663633848018002</v>
-      </c>
-      <c r="O27" s="9">
+        <v>14.169898748545151</v>
+      </c>
+      <c r="O27" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>23.24970345321973</v>
-      </c>
-      <c r="P27" s="9">
+        <v>33.340714186340826</v>
+      </c>
+      <c r="P27" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>29.733734638005707</v>
+        <v>30.556567776324339</v>
       </c>
       <c r="Q27">
         <v>9.4</v>
       </c>
-      <c r="R27">
-        <v>399</v>
+      <c r="R27" t="s">
+        <v>342</v>
       </c>
       <c r="S27">
         <v>144</v>
@@ -4574,67 +4635,66 @@
       <c r="X27">
         <v>0</v>
       </c>
-      <c r="Y27" s="9">
+      <c r="Y27" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.3937407362448759</v>
-      </c>
-      <c r="Z27" s="9">
+        <v>4.3346336970710837</v>
+      </c>
+      <c r="Z27" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>10.113020970953112</v>
-      </c>
-      <c r="AA27" s="9">
+        <v>8.2031594034068114</v>
+      </c>
+      <c r="AA27" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>5.5381580904820424</v>
-      </c>
-      <c r="AB27" s="9">
+        <v>2.7775539894487657</v>
+      </c>
+      <c r="AB27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>7.6636338480180015</v>
-      </c>
-      <c r="AC27" s="9">
+        <v>5.1698987485451511</v>
+      </c>
+      <c r="AC27" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>14.484200057523021</v>
-      </c>
-      <c r="AD27" s="9">
+        <v>22.925691945071755</v>
+      </c>
+      <c r="AD27" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>5.2709866520667985</v>
-      </c>
-      <c r="AE27" s="8">
+        <v>6.358997858100949</v>
+      </c>
+      <c r="AE27" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9.8671097215457753</v>
-      </c>
-      <c r="AF27" s="9">
+        <v>10.302629009130706</v>
+      </c>
+      <c r="AF27" s="8">
+        <v>325</v>
+      </c>
+      <c r="AG27" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>392.15632245945494</v>
-      </c>
-      <c r="AG27" s="9">
+        <v>144.4069213728898</v>
+      </c>
+      <c r="AH27" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>144.44502868788547</v>
-      </c>
-      <c r="AH27" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>3.9665140142582991</v>
-      </c>
-      <c r="AI27" s="6" t="s">
+        <v>3.9624263303528422</v>
+      </c>
+      <c r="AI27" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="AJ27" s="6" t="s">
+      <c r="AJ27" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="AK27" s="6" t="s">
+      <c r="AK27" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="AL27" s="6">
+      <c r="AL27" s="5">
         <v>98151</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="8">
         <v>44370</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -4643,10 +4703,10 @@
       <c r="E28" t="s">
         <v>279</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>21753</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
       <c r="H28" t="s">
         <v>154</v>
       </c>
@@ -4656,35 +4716,35 @@
       <c r="J28">
         <v>3</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>77.369288835225518</v>
-      </c>
-      <c r="L28" s="9">
+        <v>76.910622361818184</v>
+      </c>
+      <c r="L28" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>78.62600147987655</v>
-      </c>
-      <c r="M28" s="9">
+        <v>79.368838047516789</v>
+      </c>
+      <c r="M28" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.820500072276161</v>
-      </c>
-      <c r="N28" s="9">
+        <v>82.114905007110949</v>
+      </c>
+      <c r="N28" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>42.568379247249474</v>
-      </c>
-      <c r="O28" s="9">
+        <v>49.371350207173094</v>
+      </c>
+      <c r="O28" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>80.124745253352842</v>
-      </c>
-      <c r="P28" s="9">
+        <v>72.064925430285641</v>
+      </c>
+      <c r="P28" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.400662120493479</v>
+        <v>85.407297229603913</v>
       </c>
       <c r="Q28">
         <v>8.8000000000000007</v>
       </c>
-      <c r="R28">
-        <v>423</v>
+      <c r="R28" t="s">
+        <v>343</v>
       </c>
       <c r="S28">
         <v>145</v>
@@ -4704,67 +4764,66 @@
       <c r="X28">
         <v>1</v>
       </c>
-      <c r="Y28" s="9">
+      <c r="Y28" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>33.369288835225518</v>
-      </c>
-      <c r="Z28" s="9">
+        <v>32.910622361818184</v>
+      </c>
+      <c r="Z28" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>38.62600147987655</v>
-      </c>
-      <c r="AA28" s="9">
+        <v>39.368838047516789</v>
+      </c>
+      <c r="AA28" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>33.820500072276161</v>
-      </c>
-      <c r="AB28" s="9">
+        <v>34.114905007110949</v>
+      </c>
+      <c r="AB28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>24.568379247249474</v>
-      </c>
-      <c r="AC28" s="9">
+        <v>31.371350207173094</v>
+      </c>
+      <c r="AC28" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>57.241869748195107</v>
-      </c>
-      <c r="AD28" s="9">
+        <v>45.515319003635092</v>
+      </c>
+      <c r="AD28" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>31.263556005255474</v>
-      </c>
-      <c r="AE28" s="8">
+        <v>33.105157763943375</v>
+      </c>
+      <c r="AE28" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8.9090964545406042</v>
-      </c>
-      <c r="AF28" s="9">
+        <v>9.8546820997743385</v>
+      </c>
+      <c r="AF28" s="8">
+        <v>356</v>
+      </c>
+      <c r="AG28" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>397.21056391581214</v>
-      </c>
-      <c r="AG28" s="9">
+        <v>145.25745607121334</v>
+      </c>
+      <c r="AH28" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>145.23739397048155</v>
-      </c>
-      <c r="AH28" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>37.150228102039286</v>
-      </c>
-      <c r="AI28" s="6" t="s">
+        <v>37.257296355531459</v>
+      </c>
+      <c r="AI28" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="AJ28" s="6" t="s">
+      <c r="AJ28" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="AK28" s="6" t="s">
+      <c r="AK28" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="AL28" s="6">
+      <c r="AL28" s="5">
         <v>33709</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="8">
         <v>44383</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -4773,10 +4832,10 @@
       <c r="E29" t="s">
         <v>283</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>33509</v>
       </c>
-      <c r="G29" s="5"/>
+      <c r="G29" s="4"/>
       <c r="H29" t="s">
         <v>141</v>
       </c>
@@ -4786,29 +4845,29 @@
       <c r="J29">
         <v>2</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>50.159437219359944</v>
-      </c>
-      <c r="L29" s="9">
+        <v>51.490602169905678</v>
+      </c>
+      <c r="L29" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>52.867424323955397</v>
-      </c>
-      <c r="M29" s="9">
+        <v>53.854942268772476</v>
+      </c>
+      <c r="M29" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>56.061123698749782</v>
-      </c>
-      <c r="N29" s="9">
+        <v>55.498263848648541</v>
+      </c>
+      <c r="N29" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>28.537582817767344</v>
-      </c>
-      <c r="O29" s="9">
+        <v>33.568824863940883</v>
+      </c>
+      <c r="O29" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>54.485166262564896</v>
-      </c>
-      <c r="P29" s="9">
+        <v>52.528996913899711</v>
+      </c>
+      <c r="P29" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>57.748466600590554</v>
+        <v>57.772451419886337</v>
       </c>
       <c r="Q29">
         <v>5.5</v>
@@ -4834,65 +4893,65 @@
       <c r="X29">
         <v>1</v>
       </c>
-      <c r="Y29" s="9">
+      <c r="Y29" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>28.159437219359944</v>
-      </c>
-      <c r="Z29" s="9">
+        <v>29.490602169905678</v>
+      </c>
+      <c r="Z29" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>32.867424323955397</v>
-      </c>
-      <c r="AA29" s="9">
+        <v>33.854942268772476</v>
+      </c>
+      <c r="AA29" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>32.061123698749782</v>
-      </c>
-      <c r="AB29" s="9">
+        <v>31.498263848648541</v>
+      </c>
+      <c r="AB29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>19.537582817767344</v>
-      </c>
-      <c r="AC29" s="9">
+        <v>24.568824863940883</v>
+      </c>
+      <c r="AC29" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>42.544433076049309</v>
-      </c>
-      <c r="AD29" s="9">
+        <v>40.148813746051857</v>
+      </c>
+      <c r="AD29" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>30.756593999289287</v>
-      </c>
-      <c r="AE29" s="8">
+        <v>32.996304133979805</v>
+      </c>
+      <c r="AE29" s="7">
         <v>3.3</v>
       </c>
-      <c r="AF29" s="9">
+      <c r="AF29" s="8">
         <v>310</v>
       </c>
-      <c r="AG29" s="9">
+      <c r="AG29" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>140.37773478119834</v>
+      </c>
+      <c r="AH29" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>140.12731551268701</v>
-      </c>
-      <c r="AH29" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>4.0653335099299017</v>
-      </c>
-      <c r="AI29" s="6" t="s">
+        <v>4.0488942094837457</v>
+      </c>
+      <c r="AI29" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="AJ29" s="6" t="s">
+      <c r="AJ29" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="AK29" s="6" t="s">
+      <c r="AK29" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="AL29" s="6">
+      <c r="AL29" s="5">
         <v>47006</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="8">
         <v>44391</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -4901,10 +4960,10 @@
       <c r="E30" t="s">
         <v>278</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>37564</v>
       </c>
-      <c r="G30" s="5"/>
+      <c r="G30" s="4"/>
       <c r="H30" t="s">
         <v>155</v>
       </c>
@@ -4914,35 +4973,35 @@
       <c r="J30">
         <v>3</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>78.498903915698733</v>
-      </c>
-      <c r="L30" s="9">
+        <v>77.239374252302198</v>
+      </c>
+      <c r="L30" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>78.459004448497012</v>
-      </c>
-      <c r="M30" s="9">
+        <v>80.676455451717231</v>
+      </c>
+      <c r="M30" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.747669092123914</v>
-      </c>
-      <c r="N30" s="9">
+        <v>81.556714323338113</v>
+      </c>
+      <c r="N30" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>50.84984241066573</v>
-      </c>
-      <c r="O30" s="9">
+        <v>44.154595904108234</v>
+      </c>
+      <c r="O30" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>76.193849659804698</v>
-      </c>
-      <c r="P30" s="9">
+        <v>73.791784028240912</v>
+      </c>
+      <c r="P30" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.387665259883647</v>
+        <v>84.332748983779425</v>
       </c>
       <c r="Q30">
         <v>7.6</v>
       </c>
-      <c r="R30">
-        <v>323</v>
+      <c r="R30" t="s">
+        <v>327</v>
       </c>
       <c r="S30">
         <v>141</v>
@@ -4962,67 +5021,66 @@
       <c r="X30">
         <v>0</v>
       </c>
-      <c r="Y30" s="9">
+      <c r="Y30" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>12.498903915698733</v>
-      </c>
-      <c r="Z30" s="9">
+        <v>11.239374252302198</v>
+      </c>
+      <c r="Z30" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>18.459004448497012</v>
-      </c>
-      <c r="AA30" s="9">
+        <v>20.676455451717231</v>
+      </c>
+      <c r="AA30" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>10.747669092123914</v>
-      </c>
-      <c r="AB30" s="9">
+        <v>9.5567143233381131</v>
+      </c>
+      <c r="AB30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>23.84984241066573</v>
-      </c>
-      <c r="AC30" s="9">
+        <v>17.154595904108234</v>
+      </c>
+      <c r="AC30" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>38.365858773417663</v>
-      </c>
-      <c r="AD30" s="9">
+        <v>32.203811923911005</v>
+      </c>
+      <c r="AD30" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>8.0643926490604194</v>
-      </c>
-      <c r="AE30" s="8">
+        <v>3.8975967497403272</v>
+      </c>
+      <c r="AE30" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8.7087217849056238</v>
-      </c>
-      <c r="AF30" s="9">
+        <v>8.1516392147727448</v>
+      </c>
+      <c r="AF30" s="8">
+        <v>254</v>
+      </c>
+      <c r="AG30" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>291.86844730597988</v>
-      </c>
-      <c r="AG30" s="9">
+        <v>141.17475707938149</v>
+      </c>
+      <c r="AH30" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>141.11247837694825</v>
-      </c>
-      <c r="AH30" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>3.8995322570214799</v>
-      </c>
-      <c r="AI30" s="6" t="s">
+        <v>3.8984685096517979</v>
+      </c>
+      <c r="AI30" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="AJ30" s="6" t="s">
+      <c r="AJ30" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="AK30" s="6" t="s">
+      <c r="AK30" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="AL30" s="6">
+      <c r="AL30" s="5">
         <v>55577</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="8">
         <v>44397</v>
       </c>
       <c r="D31" t="s">
@@ -5031,10 +5089,10 @@
       <c r="E31" t="s">
         <v>278</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>31817</v>
       </c>
-      <c r="G31" s="5"/>
+      <c r="G31" s="4"/>
       <c r="H31" t="s">
         <v>156</v>
       </c>
@@ -5044,35 +5102,35 @@
       <c r="J31">
         <v>3</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.400607023686277</v>
-      </c>
-      <c r="L31" s="9">
+        <v>75.269749048220859</v>
+      </c>
+      <c r="L31" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>79.603709452847752</v>
-      </c>
-      <c r="M31" s="9">
+        <v>75.973781870587743</v>
+      </c>
+      <c r="M31" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.872299086781183</v>
-      </c>
-      <c r="N31" s="9">
+        <v>80.864622110746083</v>
+      </c>
+      <c r="N31" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>45.431545067381506</v>
-      </c>
-      <c r="O31" s="9">
+        <v>49.235788217819355</v>
+      </c>
+      <c r="O31" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>78.403935263666725</v>
-      </c>
-      <c r="P31" s="9">
+        <v>67.576340378352981</v>
+      </c>
+      <c r="P31" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>85.546213981692162</v>
+        <v>84.236443318430091</v>
       </c>
       <c r="Q31">
         <v>6.3</v>
       </c>
-      <c r="R31">
-        <v>258</v>
+      <c r="R31" t="s">
+        <v>344</v>
       </c>
       <c r="S31">
         <v>142</v>
@@ -5092,66 +5150,65 @@
       <c r="X31">
         <v>2</v>
       </c>
-      <c r="Y31" s="9">
+      <c r="Y31" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>53.400607023686277</v>
-      </c>
-      <c r="Z31" s="9">
+        <v>53.269749048220859</v>
+      </c>
+      <c r="Z31" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>59.603709452847752</v>
-      </c>
-      <c r="AA31" s="9">
+        <v>55.973781870587743</v>
+      </c>
+      <c r="AA31" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>58.872299086781183</v>
-      </c>
-      <c r="AB31" s="9">
+        <v>56.864622110746083</v>
+      </c>
+      <c r="AB31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>36.431545067381506</v>
-      </c>
-      <c r="AC31" s="9">
+        <v>40.235788217819355</v>
+      </c>
+      <c r="AC31" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>69.372774009714519</v>
-      </c>
-      <c r="AD31" s="9">
+        <v>57.813913294452576</v>
+      </c>
+      <c r="AD31" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>60.57694336639198</v>
-      </c>
-      <c r="AE31" s="8">
+        <v>57.45541648886384</v>
+      </c>
+      <c r="AE31" s="7">
         <v>3.7</v>
       </c>
-      <c r="AF31" s="9">
+      <c r="AF31" s="8">
+        <v>189</v>
+      </c>
+      <c r="AG31" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>210.99815861819761</v>
-      </c>
-      <c r="AG31" s="9">
+        <v>142.31395784404918</v>
+      </c>
+      <c r="AH31" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>142.29081879884484</v>
-      </c>
-      <c r="AH31" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>3.7191585145017716</v>
-      </c>
-      <c r="AI31" s="6" t="s">
+        <v>3.5093779740512892</v>
+      </c>
+      <c r="AI31" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="AJ31" s="6" t="s">
+      <c r="AJ31" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="AK31" s="6" t="s">
+      <c r="AK31" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="AL31" s="6">
+      <c r="AL31" s="5">
         <v>41981</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="8">
         <v>44412</v>
       </c>
       <c r="D32" t="s">
@@ -5160,10 +5217,10 @@
       <c r="E32" t="s">
         <v>278</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>32620</v>
       </c>
-      <c r="G32" s="5"/>
+      <c r="G32" s="4"/>
       <c r="H32" t="s">
         <v>147</v>
       </c>
@@ -5173,35 +5230,35 @@
       <c r="J32">
         <v>3</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.425061856123435</v>
-      </c>
-      <c r="L32" s="9">
+        <v>76.208090824146396</v>
+      </c>
+      <c r="L32" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>75.660424143252072</v>
-      </c>
-      <c r="M32" s="9">
+        <v>78.656897834476894</v>
+      </c>
+      <c r="M32" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.609261253834745</v>
-      </c>
-      <c r="N32" s="9">
+        <v>82.458677729006041</v>
+      </c>
+      <c r="N32" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>44.78681255924915</v>
-      </c>
-      <c r="O32" s="9">
+        <v>47.227931865136767</v>
+      </c>
+      <c r="O32" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>73.594665037637455</v>
-      </c>
-      <c r="P32" s="9">
+        <v>74.523945852516547</v>
+      </c>
+      <c r="P32" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.598402094010481</v>
+        <v>84.725128915559921</v>
       </c>
       <c r="Q32">
         <v>8.9</v>
       </c>
-      <c r="R32">
-        <v>115</v>
+      <c r="R32" t="s">
+        <v>345</v>
       </c>
       <c r="S32">
         <v>138</v>
@@ -5221,67 +5278,66 @@
       <c r="X32">
         <v>1</v>
       </c>
-      <c r="Y32" s="9">
+      <c r="Y32" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>32.425061856123435</v>
-      </c>
-      <c r="Z32" s="9">
+        <v>32.208090824146396</v>
+      </c>
+      <c r="Z32" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>35.660424143252072</v>
-      </c>
-      <c r="AA32" s="9">
+        <v>38.656897834476894</v>
+      </c>
+      <c r="AA32" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>30.609261253834745</v>
-      </c>
-      <c r="AB32" s="9">
+        <v>34.458677729006041</v>
+      </c>
+      <c r="AB32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>26.78681255924915</v>
-      </c>
-      <c r="AC32" s="9">
+        <v>29.227931865136767</v>
+      </c>
+      <c r="AC32" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>48.314764900684409</v>
-      </c>
-      <c r="AD32" s="9">
+        <v>48.732521780101422</v>
+      </c>
+      <c r="AD32" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>34.81742756436558</v>
-      </c>
-      <c r="AE32" s="8">
+        <v>31.614994202397437</v>
+      </c>
+      <c r="AE32" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9.941964521166069</v>
-      </c>
-      <c r="AF32" s="9">
+        <v>9.718140963159799</v>
+      </c>
+      <c r="AF32" s="8">
+        <v>48</v>
+      </c>
+      <c r="AG32" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>63.716718240723907</v>
-      </c>
-      <c r="AG32" s="9">
+        <v>138.11840912942921</v>
+      </c>
+      <c r="AH32" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>138.15202415822748</v>
-      </c>
-      <c r="AH32" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>4.8203391269795173</v>
-      </c>
-      <c r="AI32" s="6" t="s">
+        <v>4.7596721897907859</v>
+      </c>
+      <c r="AI32" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="AJ32" s="6" t="s">
+      <c r="AJ32" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="AK32" s="6" t="s">
+      <c r="AK32" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="AL32" s="6">
+      <c r="AL32" s="5">
         <v>85050</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="8">
         <v>44425</v>
       </c>
       <c r="D33" t="s">
@@ -5290,10 +5346,10 @@
       <c r="E33" t="s">
         <v>278</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <v>28657</v>
       </c>
-      <c r="G33" s="5"/>
+      <c r="G33" s="4"/>
       <c r="H33" t="s">
         <v>154</v>
       </c>
@@ -5303,35 +5359,35 @@
       <c r="J33">
         <v>3</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.878200665724449</v>
-      </c>
-      <c r="L33" s="9">
+        <v>75.204703269067295</v>
+      </c>
+      <c r="L33" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>80.599203460393156</v>
-      </c>
-      <c r="M33" s="9">
+        <v>75.239449793590509</v>
+      </c>
+      <c r="M33" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.127221650281058</v>
-      </c>
-      <c r="N33" s="9">
+        <v>78.06552158206965</v>
+      </c>
+      <c r="N33" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>45.818911633272151</v>
-      </c>
-      <c r="O33" s="9">
+        <v>47.303543041322982</v>
+      </c>
+      <c r="O33" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>71.541029243425371</v>
-      </c>
-      <c r="P33" s="9">
+        <v>80.014468948130641</v>
+      </c>
+      <c r="P33" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.351714540066169</v>
+        <v>84.099620718470945</v>
       </c>
       <c r="Q33">
         <v>5.9</v>
       </c>
-      <c r="R33">
-        <v>1550</v>
+      <c r="R33" t="s">
+        <v>346</v>
       </c>
       <c r="S33">
         <v>139</v>
@@ -5351,66 +5407,66 @@
       <c r="X33">
         <v>1</v>
       </c>
-      <c r="Y33" s="9">
+      <c r="Y33" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>31.878200665724449</v>
-      </c>
-      <c r="Z33" s="9">
+        <v>31.204703269067295</v>
+      </c>
+      <c r="Z33" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>40.599203460393156</v>
-      </c>
-      <c r="AA33" s="9">
+        <v>35.239449793590509</v>
+      </c>
+      <c r="AA33" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>33.127221650281058</v>
-      </c>
-      <c r="AB33" s="9">
+        <v>30.06552158206965</v>
+      </c>
+      <c r="AB33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>27.818911633272151</v>
-      </c>
-      <c r="AC33" s="9">
+        <v>29.303543041322982</v>
+      </c>
+      <c r="AC33" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>48.030380025050185</v>
-      </c>
-      <c r="AD33" s="9">
+        <v>56.668132540578398</v>
+      </c>
+      <c r="AD33" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>35.378561139315572</v>
-      </c>
-      <c r="AE33" s="8">
+        <v>30.144548286446774</v>
+      </c>
+      <c r="AE33" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>7.3051180113186653</v>
-      </c>
-      <c r="AF33" s="9">
-        <v>151</v>
-      </c>
-      <c r="AG33" s="9">
+        <v>7.0875471076342462</v>
+      </c>
+      <c r="AF33" s="8">
+        <v>1482</v>
+      </c>
+      <c r="AG33" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>139.27087129938906</v>
+      </c>
+      <c r="AH33" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>139.08912568398037</v>
-      </c>
-      <c r="AH33" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>5.1467907082989042</v>
-      </c>
-      <c r="AI33" s="6" t="s">
+        <v>5.3812024580889286</v>
+      </c>
+      <c r="AI33" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="AJ33" s="6" t="s">
+      <c r="AJ33" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="AK33" s="6" t="s">
+      <c r="AK33" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="AL33" s="6">
+      <c r="AL33" s="5">
         <v>41049</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="8">
         <v>44434</v>
       </c>
       <c r="D34" t="s">
@@ -5419,10 +5475,10 @@
       <c r="E34" t="s">
         <v>318</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <v>31273</v>
       </c>
-      <c r="G34" s="5"/>
+      <c r="G34" s="4"/>
       <c r="H34" t="s">
         <v>157</v>
       </c>
@@ -5432,35 +5488,35 @@
       <c r="J34">
         <v>3</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>78.195630586629335</v>
-      </c>
-      <c r="L34" s="9">
+        <v>75.253137452235038</v>
+      </c>
+      <c r="L34" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>79.886532293143702</v>
-      </c>
-      <c r="M34" s="9">
+        <v>78.283852189859616</v>
+      </c>
+      <c r="M34" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.655104167003245</v>
-      </c>
-      <c r="N34" s="9">
+        <v>78.155323782544087</v>
+      </c>
+      <c r="N34" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>42.827772724949753</v>
-      </c>
-      <c r="O34" s="9">
+        <v>49.1364227660439</v>
+      </c>
+      <c r="O34" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>75.937129759040516</v>
-      </c>
-      <c r="P34" s="9">
+        <v>66.125585114405823</v>
+      </c>
+      <c r="P34" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.901589579375397</v>
+        <v>84.564821646057453</v>
       </c>
       <c r="Q34">
         <v>6.8</v>
       </c>
-      <c r="R34">
-        <v>37</v>
+      <c r="R34" t="s">
+        <v>347</v>
       </c>
       <c r="S34">
         <v>142</v>
@@ -5480,65 +5536,65 @@
       <c r="X34">
         <v>0</v>
       </c>
-      <c r="Y34" s="9">
+      <c r="Y34" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>12.195630586629335</v>
-      </c>
-      <c r="Z34" s="9">
+        <v>9.2531374522350376</v>
+      </c>
+      <c r="Z34" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>19.886532293143702</v>
-      </c>
-      <c r="AA34" s="9">
+        <v>18.283852189859616</v>
+      </c>
+      <c r="AA34" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>6.6551041670032447</v>
-      </c>
-      <c r="AB34" s="9">
+        <v>6.1553237825440874</v>
+      </c>
+      <c r="AB34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>15.827772724949753</v>
-      </c>
-      <c r="AC34" s="9">
+        <v>22.1364227660439</v>
+      </c>
+      <c r="AC34" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>39.109462231952456</v>
-      </c>
-      <c r="AD34" s="9">
+        <v>25.133758473033307</v>
+      </c>
+      <c r="AD34" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6.461358565642481</v>
-      </c>
-      <c r="AE34" s="8">
+        <v>4.1646485117858711</v>
+      </c>
+      <c r="AE34" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>6.914117036698145</v>
-      </c>
-      <c r="AF34" s="9">
-        <v>157</v>
-      </c>
-      <c r="AG34" s="9">
-        <f t="shared" ca="1" si="14"/>
-        <v>142.42457382194962</v>
-      </c>
-      <c r="AH34" s="8">
+        <v>7.9728587069581058</v>
+      </c>
+      <c r="AF34" s="8">
+        <v>23</v>
+      </c>
+      <c r="AG34" s="8">
+        <f t="shared" ca="1" si="13"/>
+        <v>142.31228861661404</v>
+      </c>
+      <c r="AH34" s="7">
         <v>3.9</v>
       </c>
-      <c r="AI34" s="6" t="s">
+      <c r="AI34" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="AJ34" s="6" t="s">
+      <c r="AJ34" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="AK34" s="6" t="s">
+      <c r="AK34" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="AL34" s="6">
+      <c r="AL34" s="5">
         <v>82799</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="8">
         <v>44444</v>
       </c>
       <c r="D35" t="s">
@@ -5547,10 +5603,10 @@
       <c r="E35" t="s">
         <v>278</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <v>35361</v>
       </c>
-      <c r="G35" s="5"/>
+      <c r="G35" s="4"/>
       <c r="H35" t="s">
         <v>158</v>
       </c>
@@ -5560,35 +5616,35 @@
       <c r="J35">
         <v>2</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>52.314175858692899</v>
-      </c>
-      <c r="L35" s="9">
+        <v>53.32482316344624</v>
+      </c>
+      <c r="L35" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>54.268822097625453</v>
-      </c>
-      <c r="M35" s="9">
+        <v>53.824002837375886</v>
+      </c>
+      <c r="M35" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>54.402908910296333</v>
-      </c>
-      <c r="N35" s="9">
+        <v>53.277662060299235</v>
+      </c>
+      <c r="N35" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>32.055120658944375</v>
-      </c>
-      <c r="O35" s="9">
+        <v>31.686004094803693</v>
+      </c>
+      <c r="O35" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>48.25956525757465</v>
-      </c>
-      <c r="P35" s="9">
+        <v>54.191133712074709</v>
+      </c>
+      <c r="P35" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>57.889406091399366</v>
+        <v>58.244335441509243</v>
       </c>
       <c r="Q35">
         <v>7.8</v>
       </c>
-      <c r="R35">
-        <v>188</v>
+      <c r="R35" t="s">
+        <v>348</v>
       </c>
       <c r="S35">
         <v>144</v>
@@ -5608,66 +5664,65 @@
       <c r="X35">
         <v>1</v>
       </c>
-      <c r="Y35" s="9">
+      <c r="Y35" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>30.314175858692899</v>
-      </c>
-      <c r="Z35" s="9">
+        <v>31.32482316344624</v>
+      </c>
+      <c r="Z35" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>34.268822097625453</v>
-      </c>
-      <c r="AA35" s="9">
+        <v>33.824002837375886</v>
+      </c>
+      <c r="AA35" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>30.402908910296333</v>
-      </c>
-      <c r="AB35" s="9">
+        <v>29.277662060299235</v>
+      </c>
+      <c r="AB35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>23.055120658944375</v>
-      </c>
-      <c r="AC35" s="9">
+        <v>22.686004094803693</v>
+      </c>
+      <c r="AC35" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>38.28942618055703</v>
-      </c>
-      <c r="AD35" s="9">
+        <v>45.492742034115579</v>
+      </c>
+      <c r="AD35" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>32.255807885612725</v>
-      </c>
-      <c r="AE35" s="8">
+        <v>33.829350704002479</v>
+      </c>
+      <c r="AE35" s="7">
         <v>4.5</v>
       </c>
-      <c r="AF35" s="9">
+      <c r="AF35" s="8">
+        <v>117</v>
+      </c>
+      <c r="AG35" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>167.58257900312529</v>
-      </c>
-      <c r="AG35" s="9">
+        <v>144.27691515873141</v>
+      </c>
+      <c r="AH35" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>144.41421419914991</v>
-      </c>
-      <c r="AH35" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>3.6872819678434512</v>
-      </c>
-      <c r="AI35" s="6" t="s">
+        <v>3.8327385131537275</v>
+      </c>
+      <c r="AI35" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="AJ35" s="6" t="s">
+      <c r="AJ35" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="AK35" s="6" t="s">
+      <c r="AK35" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AL35" s="6">
+      <c r="AL35" s="5">
         <v>72572</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="8">
         <v>44461</v>
       </c>
       <c r="D36" t="s">
@@ -5676,10 +5731,10 @@
       <c r="E36" t="s">
         <v>278</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <v>28121</v>
       </c>
-      <c r="G36" s="5"/>
+      <c r="G36" s="4"/>
       <c r="H36" t="s">
         <v>159</v>
       </c>
@@ -5689,35 +5744,35 @@
       <c r="J36">
         <v>3</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>77.230504091118064</v>
-      </c>
-      <c r="L36" s="9">
+        <v>79.527971739139531</v>
+      </c>
+      <c r="L36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>79.550476208869682</v>
-      </c>
-      <c r="M36" s="9">
+        <v>75.909792862107651</v>
+      </c>
+      <c r="M36" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.558872205206512</v>
-      </c>
-      <c r="N36" s="9">
+        <v>81.185177927018216</v>
+      </c>
+      <c r="N36" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>49.730168294824452</v>
-      </c>
-      <c r="O36" s="9">
+        <v>46.151449044499081</v>
+      </c>
+      <c r="O36" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>74.901153198324877</v>
-      </c>
-      <c r="P36" s="9">
+        <v>73.015132515224025</v>
+      </c>
+      <c r="P36" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.881545797318836</v>
+        <v>85.248507882420071</v>
       </c>
       <c r="Q36">
         <v>6.9</v>
       </c>
-      <c r="R36">
-        <v>456</v>
+      <c r="R36" t="s">
+        <v>349</v>
       </c>
       <c r="S36">
         <v>139</v>
@@ -5737,66 +5792,65 @@
       <c r="X36">
         <v>2</v>
       </c>
-      <c r="Y36" s="9">
+      <c r="Y36" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>55.230504091118064</v>
-      </c>
-      <c r="Z36" s="9">
+        <v>57.527971739139531</v>
+      </c>
+      <c r="Z36" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>59.550476208869682</v>
-      </c>
-      <c r="AA36" s="9">
+        <v>55.909792862107651</v>
+      </c>
+      <c r="AA36" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>58.558872205206512</v>
-      </c>
-      <c r="AB36" s="9">
+        <v>57.185177927018216</v>
+      </c>
+      <c r="AB36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>40.730168294824452</v>
-      </c>
-      <c r="AC36" s="9">
+        <v>37.151449044499081</v>
+      </c>
+      <c r="AC36" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>65.298322247205732</v>
-      </c>
-      <c r="AD36" s="9">
+        <v>60.512142741350772</v>
+      </c>
+      <c r="AD36" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>60.53103075034052</v>
-      </c>
-      <c r="AE36" s="8">
+        <v>58.881250539203769</v>
+      </c>
+      <c r="AE36" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AF36" s="9">
+      <c r="AF36" s="8">
+        <v>381</v>
+      </c>
+      <c r="AG36" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>420.63671488534885</v>
-      </c>
-      <c r="AG36" s="9">
+        <v>139.4747173458656</v>
+      </c>
+      <c r="AH36" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>139.15454858866124</v>
-      </c>
-      <c r="AH36" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>4.3840117882648331</v>
-      </c>
-      <c r="AI36" s="6" t="s">
+        <v>4.2925221217198484</v>
+      </c>
+      <c r="AI36" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="AJ36" s="6" t="s">
+      <c r="AJ36" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="AK36" s="6" t="s">
+      <c r="AK36" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="AL36" s="6">
+      <c r="AL36" s="5">
         <v>49770</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="8">
         <v>44475</v>
       </c>
       <c r="D37" t="s">
@@ -5805,10 +5859,10 @@
       <c r="E37" t="s">
         <v>278</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <v>32157</v>
       </c>
-      <c r="G37" s="5"/>
+      <c r="G37" s="4"/>
       <c r="H37" t="s">
         <v>160</v>
       </c>
@@ -5818,35 +5872,35 @@
       <c r="J37">
         <v>2</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K37" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>54.532551051884518</v>
-      </c>
-      <c r="L37" s="9">
+        <v>54.56124082310383</v>
+      </c>
+      <c r="L37" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>53.658951694459155</v>
-      </c>
-      <c r="M37" s="9">
+        <v>54.872277887949096</v>
+      </c>
+      <c r="M37" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>54.815862526549125</v>
-      </c>
-      <c r="N37" s="9">
+        <v>55.045816343866797</v>
+      </c>
+      <c r="N37" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>36.995174672770659</v>
-      </c>
-      <c r="O37" s="9">
+        <v>33.204161086171474</v>
+      </c>
+      <c r="O37" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>55.097183586261053</v>
-      </c>
-      <c r="P37" s="9">
+        <v>52.939229012828903</v>
+      </c>
+      <c r="P37" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>59.644975160406879</v>
+        <v>58.843339331423238</v>
       </c>
       <c r="Q37">
         <v>8.4</v>
       </c>
-      <c r="R37">
-        <v>356</v>
+      <c r="R37" t="s">
+        <v>350</v>
       </c>
       <c r="S37">
         <v>138</v>
@@ -5866,67 +5920,66 @@
       <c r="X37">
         <v>0</v>
       </c>
-      <c r="Y37" s="9">
+      <c r="Y37" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>10.532551051884518</v>
-      </c>
-      <c r="Z37" s="9">
+        <v>10.56124082310383</v>
+      </c>
+      <c r="Z37" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>13.658951694459155</v>
-      </c>
-      <c r="AA37" s="9">
+        <v>14.872277887949096</v>
+      </c>
+      <c r="AA37" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>6.8158625265491253</v>
-      </c>
-      <c r="AB37" s="9">
+        <v>7.0458163438667967</v>
+      </c>
+      <c r="AB37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>18.995174672770659</v>
-      </c>
-      <c r="AC37" s="9">
+        <v>15.204161086171474</v>
+      </c>
+      <c r="AC37" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>28.551119718792652</v>
-      </c>
-      <c r="AD37" s="9">
+        <v>26.834558419969678</v>
+      </c>
+      <c r="AD37" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>5.8180427577315763</v>
-      </c>
-      <c r="AE37" s="8">
+        <v>7.0183656549231292</v>
+      </c>
+      <c r="AE37" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8.8852840437653384</v>
-      </c>
-      <c r="AF37" s="9">
+        <v>9.2101489306060742</v>
+      </c>
+      <c r="AF37" s="8">
+        <v>284</v>
+      </c>
+      <c r="AG37" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>302.76297011587275</v>
-      </c>
-      <c r="AG37" s="9">
+        <v>138.41122621835888</v>
+      </c>
+      <c r="AH37" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>138.34592767653788</v>
-      </c>
-      <c r="AH37" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>4.1091806946389342</v>
-      </c>
-      <c r="AI37" s="6" t="s">
+        <v>3.9316602227957493</v>
+      </c>
+      <c r="AI37" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="AJ37" s="6" t="s">
+      <c r="AJ37" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="AK37" s="6" t="s">
+      <c r="AK37" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="AL37" s="6">
+      <c r="AL37" s="5">
         <v>34404</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="8">
         <v>44500</v>
       </c>
       <c r="D38" t="s">
@@ -5935,10 +5988,10 @@
       <c r="E38" t="s">
         <v>281</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <v>33361</v>
       </c>
-      <c r="G38" s="5"/>
+      <c r="G38" s="4"/>
       <c r="H38" t="s">
         <v>161</v>
       </c>
@@ -5948,35 +6001,35 @@
       <c r="J38">
         <v>3</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K38" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>77.482070288960401</v>
-      </c>
-      <c r="L38" s="9">
+        <v>79.455013820399557</v>
+      </c>
+      <c r="L38" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>77.422566439682129</v>
-      </c>
-      <c r="M38" s="9">
+        <v>75.790495118248188</v>
+      </c>
+      <c r="M38" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.159438947103155</v>
-      </c>
-      <c r="N38" s="9">
+        <v>81.425785576603545</v>
+      </c>
+      <c r="N38" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>46.629921558994084</v>
-      </c>
-      <c r="O38" s="9">
+        <v>43.89823528149126</v>
+      </c>
+      <c r="O38" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>72.578995791624422</v>
-      </c>
-      <c r="P38" s="9">
+        <v>79.983726379083151</v>
+      </c>
+      <c r="P38" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.306289947964714</v>
+        <v>86.602303479596415</v>
       </c>
       <c r="Q38">
         <v>6.9</v>
       </c>
-      <c r="R38">
-        <v>291</v>
+      <c r="R38" t="s">
+        <v>351</v>
       </c>
       <c r="S38">
         <v>140</v>
@@ -5996,56 +6049,55 @@
       <c r="X38">
         <v>0</v>
       </c>
-      <c r="Y38" s="9">
+      <c r="Y38" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>11.482070288960401</v>
-      </c>
-      <c r="Z38" s="9">
+        <v>13.455013820399557</v>
+      </c>
+      <c r="Z38" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>17.422566439682129</v>
-      </c>
-      <c r="AA38" s="9">
+        <v>15.790495118248188</v>
+      </c>
+      <c r="AA38" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>9.1594389471031548</v>
-      </c>
-      <c r="AB38" s="9">
+        <v>9.4257855766035448</v>
+      </c>
+      <c r="AB38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>19.629921558994084</v>
-      </c>
-      <c r="AC38" s="9">
+        <v>16.89823528149126</v>
+      </c>
+      <c r="AC38" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>36.381974110703389</v>
-      </c>
-      <c r="AD38" s="9">
+        <v>41.96810935780691</v>
+      </c>
+      <c r="AD38" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6.2702520780747486</v>
-      </c>
-      <c r="AE38" s="8">
+        <v>7.7571497369595352</v>
+      </c>
+      <c r="AE38" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>7.4849909814373303</v>
-      </c>
-      <c r="AF38" s="9">
+        <v>8.2379325911272971</v>
+      </c>
+      <c r="AF38" s="8">
+        <v>229</v>
+      </c>
+      <c r="AG38" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>264.57073630243167</v>
-      </c>
-      <c r="AG38" s="9">
+        <v>140.39017867733247</v>
+      </c>
+      <c r="AH38" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>140.46131221530914</v>
-      </c>
-      <c r="AH38" s="8">
-        <f t="shared" ca="1" si="15"/>
-        <v>4.0679903916806426</v>
-      </c>
-      <c r="AI38" s="6" t="s">
+        <v>3.8629514652306614</v>
+      </c>
+      <c r="AI38" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="AJ38" s="6" t="s">
+      <c r="AJ38" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="AK38" s="6" t="s">
+      <c r="AK38" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="AL38" s="6">
+      <c r="AL38" s="5">
         <v>10316</v>
       </c>
     </row>
@@ -6063,18 +6115,18 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>287</v>
       </c>
@@ -6082,7 +6134,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>290</v>
       </c>
@@ -6090,7 +6142,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>291</v>
       </c>
@@ -6098,7 +6150,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>293</v>
       </c>
@@ -6106,7 +6158,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>294</v>
       </c>
@@ -6114,7 +6166,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>296</v>
       </c>
@@ -6122,7 +6174,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>299</v>
       </c>
@@ -6130,7 +6182,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>303</v>
       </c>
@@ -6138,7 +6190,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>305</v>
       </c>
@@ -6146,7 +6198,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>306</v>
       </c>
@@ -6154,7 +6206,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>308</v>
       </c>
@@ -6162,7 +6214,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>310</v>
       </c>
@@ -6170,7 +6222,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>320</v>
       </c>
@@ -6178,7 +6230,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>322</v>
       </c>

--- a/data/messy_uc.xlsx
+++ b/data/messy_uc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterhiggins/Documents/RCode/rmedicine-data-cleaning-2023/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pileggis\Documents\gh-personal\rmedicine-data-cleaning-2023\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFB4FD1-A5BC-4246-A283-935F70A86EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30855879-F140-48B5-81ED-D5ED64A04739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21600" windowHeight="37900" activeTab="2" xr2:uid="{C3B41A98-E045-B641-B5DC-D433CA053FBE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C3B41A98-E045-B641-B5DC-D433CA053FBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Explainer" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="364">
   <si>
     <t>Your well-meaning research assistant/med student has extracted data from the medical record into Excel</t>
   </si>
@@ -1093,6 +1093,42 @@
   </si>
   <si>
     <t>291K/microL</t>
+  </si>
+  <si>
+    <t>137mmol/L</t>
+  </si>
+  <si>
+    <t>142mmol/L</t>
+  </si>
+  <si>
+    <t>140mmol/L</t>
+  </si>
+  <si>
+    <t>139mmol/L</t>
+  </si>
+  <si>
+    <t>144mmol/L</t>
+  </si>
+  <si>
+    <t>145mmol/L</t>
+  </si>
+  <si>
+    <t>138mmol/L</t>
+  </si>
+  <si>
+    <t>143mmol/L</t>
+  </si>
+  <si>
+    <t>136mmol/L</t>
+  </si>
+  <si>
+    <t>135mmol/L</t>
+  </si>
+  <si>
+    <t>141mmol/L</t>
+  </si>
+  <si>
+    <t>133mmol/L</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1184,7 +1220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1198,6 +1234,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1518,29 +1555,29 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>314</v>
       </c>
@@ -1555,16 +1592,16 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1578,7 +1615,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1592,7 +1629,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1603,7 +1640,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1617,7 +1654,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1628,7 +1665,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1639,7 +1676,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1653,7 +1690,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1667,7 +1704,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1681,7 +1718,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1695,7 +1732,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1712,7 +1749,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1729,7 +1766,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1746,7 +1783,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1763,7 +1800,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1780,7 +1817,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1797,7 +1834,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1811,7 +1848,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1825,7 +1862,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1839,7 +1876,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1853,7 +1890,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1867,7 +1904,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1881,7 +1918,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1895,7 +1932,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1909,7 +1946,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1926,7 +1963,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1943,7 +1980,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1960,7 +1997,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1977,7 +2014,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1994,7 +2031,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -2011,7 +2048,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2025,7 +2062,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2039,7 +2076,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -2053,7 +2090,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -2077,11 +2114,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2E3CCE-D9A6-4043-B4E6-790885873B0A}">
   <dimension ref="A1:AL38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -2091,22 +2128,22 @@
     <col min="37" max="37" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38">
       <c r="A1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38">
       <c r="A3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2219,7 +2256,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38">
       <c r="A8" s="3" t="s">
         <v>95</v>
       </c>
@@ -2235,7 +2272,7 @@
       <c r="E8" t="s">
         <v>278</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="13">
         <v>38359</v>
       </c>
       <c r="G8" s="4"/>
@@ -2250,27 +2287,27 @@
       </c>
       <c r="K8" s="8">
         <f ca="1">J8*25 + 5* RAND()</f>
-        <v>76.752328986670321</v>
+        <v>77.395707089687207</v>
       </c>
       <c r="L8" s="8">
         <f ca="1">J8* 25 + 6* RAND()</f>
-        <v>75.961387131445022</v>
+        <v>75.571492959177732</v>
       </c>
       <c r="M8" s="8">
         <f ca="1" xml:space="preserve"> J8*26 + 5 * RAND()</f>
-        <v>80.97914593817346</v>
+        <v>78.785710925765727</v>
       </c>
       <c r="N8" s="8">
         <f ca="1" xml:space="preserve"> J8 *14 + 10* RAND()</f>
-        <v>45.790671182036412</v>
+        <v>49.664470834109785</v>
       </c>
       <c r="O8" s="8">
         <f ca="1" xml:space="preserve"> J8 *22 + 15* RAND()</f>
-        <v>76.532259264609223</v>
+        <v>76.862692656240355</v>
       </c>
       <c r="P8" s="8">
         <f ca="1">J8 * 28 + 4* RAND()</f>
-        <v>85.637667382876018</v>
+        <v>87.037412004128825</v>
       </c>
       <c r="Q8">
         <v>8.1999999999999993</v>
@@ -2278,8 +2315,8 @@
       <c r="R8" t="s">
         <v>325</v>
       </c>
-      <c r="S8">
-        <v>137</v>
+      <c r="S8" t="s">
+        <v>352</v>
       </c>
       <c r="T8">
         <v>3.7</v>
@@ -2298,42 +2335,42 @@
       </c>
       <c r="Y8" s="8">
         <f ca="1" xml:space="preserve"> K8-22*(J8-X8)</f>
-        <v>10.752328986670321</v>
+        <v>11.395707089687207</v>
       </c>
       <c r="Z8" s="8">
         <f ca="1" xml:space="preserve"> L8-20*(J8-X8)</f>
-        <v>15.961387131445022</v>
+        <v>15.571492959177732</v>
       </c>
       <c r="AA8" s="8">
         <f ca="1" xml:space="preserve"> M8-24*(J8-X8)</f>
-        <v>8.9791459381734597</v>
+        <v>6.7857109257657271</v>
       </c>
       <c r="AB8" s="8">
         <f ca="1" xml:space="preserve"> N8-9*(J8-X8)</f>
-        <v>18.790671182036412</v>
+        <v>22.664470834109785</v>
       </c>
       <c r="AC8" s="8">
         <f ca="1" xml:space="preserve"> O8-14*(J8-X8)+ 6*RAND()</f>
-        <v>37.599311111322251</v>
+        <v>38.794885130798008</v>
       </c>
       <c r="AD8" s="8">
         <f ca="1" xml:space="preserve"> P8-27*(J8-X8)+ 3*RAND()</f>
-        <v>6.1602411976853428</v>
+        <v>7.7243079127115006</v>
       </c>
       <c r="AE8" s="7">
         <f ca="1">IF(B8 ="upa", Q8 +1.5* RAND()*0.8, Q8 +1.5* RAND())</f>
-        <v>8.7671052376987539</v>
+        <v>8.5991867886566062</v>
       </c>
       <c r="AF8" s="8">
         <v>201</v>
       </c>
-      <c r="AG8" s="8">
+      <c r="AG8" s="8" t="e">
         <f ca="1" xml:space="preserve"> S8 + 0.5* RAND()</f>
-        <v>137.43980106296667</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH8" s="7">
         <f ca="1">T8 + 0.3* RAND()</f>
-        <v>3.7533806366658795</v>
+        <v>3.8442296870166284</v>
       </c>
       <c r="AI8" s="5" t="s">
         <v>192</v>
@@ -2348,7 +2385,7 @@
         <v>96074</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38">
       <c r="A9" s="3" t="s">
         <v>96</v>
       </c>
@@ -2364,7 +2401,7 @@
       <c r="E9" t="s">
         <v>278</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="13">
         <v>13618</v>
       </c>
       <c r="G9" s="4"/>
@@ -2379,27 +2416,27 @@
       </c>
       <c r="K9" s="8">
         <f t="shared" ref="K9:K38" ca="1" si="0">J9*25 + 5* RAND()</f>
-        <v>54.762925600617621</v>
+        <v>52.473553638474939</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" ref="L9:L38" ca="1" si="1">J9* 25 + 6* RAND()</f>
-        <v>53.903638025524103</v>
+        <v>54.111212500317251</v>
       </c>
       <c r="M9" s="8">
         <f t="shared" ref="M9:M38" ca="1" si="2" xml:space="preserve"> J9*26 + 5 * RAND()</f>
-        <v>52.620294148474223</v>
+        <v>53.429761211289502</v>
       </c>
       <c r="N9" s="8">
         <f t="shared" ref="N9:N38" ca="1" si="3" xml:space="preserve"> J9 *14 + 10* RAND()</f>
-        <v>29.52532422974468</v>
+        <v>30.954408451998606</v>
       </c>
       <c r="O9" s="8">
         <f t="shared" ref="O9:O38" ca="1" si="4" xml:space="preserve"> J9 *22 + 15* RAND()</f>
-        <v>47.20611985487006</v>
+        <v>50.728991566923426</v>
       </c>
       <c r="P9" s="8">
         <f t="shared" ref="P9:P38" ca="1" si="5">J9 * 28 + 4* RAND()</f>
-        <v>56.786930044864469</v>
+        <v>56.573732071317323</v>
       </c>
       <c r="Q9">
         <v>10.1</v>
@@ -2407,8 +2444,8 @@
       <c r="R9" t="s">
         <v>326</v>
       </c>
-      <c r="S9">
-        <v>142</v>
+      <c r="S9" t="s">
+        <v>353</v>
       </c>
       <c r="T9">
         <v>4.0999999999999996</v>
@@ -2427,42 +2464,42 @@
       </c>
       <c r="Y9" s="8">
         <f t="shared" ref="Y9:Y38" ca="1" si="6" xml:space="preserve"> K9-22*(J9-X9)</f>
-        <v>32.762925600617621</v>
+        <v>30.473553638474939</v>
       </c>
       <c r="Z9" s="8">
         <f t="shared" ref="Z9:Z38" ca="1" si="7" xml:space="preserve"> L9-20*(J9-X9)</f>
-        <v>33.903638025524103</v>
+        <v>34.111212500317251</v>
       </c>
       <c r="AA9" s="8">
         <f t="shared" ref="AA9:AA38" ca="1" si="8" xml:space="preserve"> M9-24*(J9-X9)</f>
-        <v>28.620294148474223</v>
+        <v>29.429761211289502</v>
       </c>
       <c r="AB9" s="8">
         <f t="shared" ref="AB9:AB38" ca="1" si="9" xml:space="preserve"> N9-9*(J9-X9)</f>
-        <v>20.52532422974468</v>
+        <v>21.954408451998606</v>
       </c>
       <c r="AC9" s="8">
         <f t="shared" ref="AC9:AC38" ca="1" si="10" xml:space="preserve"> O9-14*(J9-X9)+ 6*RAND()</f>
-        <v>38.351769832070474</v>
+        <v>37.015601200697233</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" ref="AD9:AD38" ca="1" si="11" xml:space="preserve"> P9-27*(J9-X9)+ 3*RAND()</f>
-        <v>30.431701710090419</v>
+        <v>31.372902794518804</v>
       </c>
       <c r="AE9" s="7">
         <f t="shared" ref="AE9:AE38" ca="1" si="12">IF(B9 ="upa", Q9 +1.5* RAND()*0.8, Q9 +1.5* RAND())</f>
-        <v>10.821687316157517</v>
+        <v>10.644691386643276</v>
       </c>
       <c r="AF9" s="8">
         <v>340</v>
       </c>
-      <c r="AG9" s="8">
+      <c r="AG9" s="8" t="e">
         <f t="shared" ref="AG9:AG38" ca="1" si="13" xml:space="preserve"> S9 + 0.5* RAND()</f>
-        <v>142.23751803540637</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH9" s="7">
         <f t="shared" ref="AH9:AH38" ca="1" si="14">T9 + 0.3* RAND()</f>
-        <v>4.3380459653250707</v>
+        <v>4.1756809188999311</v>
       </c>
       <c r="AI9" s="5" t="s">
         <v>195</v>
@@ -2477,7 +2514,7 @@
         <v>11264</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38">
       <c r="A10" s="3" t="s">
         <v>97</v>
       </c>
@@ -2493,7 +2530,7 @@
       <c r="E10" t="s">
         <v>279</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="13">
         <v>16959</v>
       </c>
       <c r="G10" s="4"/>
@@ -2508,27 +2545,27 @@
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>26.479559943757469</v>
+        <v>28.518112793694499</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>25.47453411493785</v>
+        <v>27.053633265569317</v>
       </c>
       <c r="M10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>26.397374773112755</v>
+        <v>30.577025838545786</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>18.605420774580466</v>
+        <v>14.44579435445258</v>
       </c>
       <c r="O10" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>36.191034166917191</v>
+        <v>28.793691111661211</v>
       </c>
       <c r="P10" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>30.409435853509514</v>
+        <v>31.877770585570026</v>
       </c>
       <c r="Q10">
         <v>5.5</v>
@@ -2536,8 +2573,8 @@
       <c r="R10" t="s">
         <v>327</v>
       </c>
-      <c r="S10">
-        <v>140</v>
+      <c r="S10" t="s">
+        <v>354</v>
       </c>
       <c r="T10">
         <v>4.3</v>
@@ -2556,27 +2593,27 @@
       </c>
       <c r="Y10" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>26.479559943757469</v>
+        <v>28.518112793694499</v>
       </c>
       <c r="Z10" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>25.47453411493785</v>
+        <v>27.053633265569317</v>
       </c>
       <c r="AA10" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>26.397374773112755</v>
+        <v>30.577025838545786</v>
       </c>
       <c r="AB10" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>18.605420774580466</v>
+        <v>14.44579435445258</v>
       </c>
       <c r="AC10" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>38.554916491393953</v>
+        <v>29.336190842822745</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>33.268545815948379</v>
+        <v>33.563118436128839</v>
       </c>
       <c r="AE10" s="7">
         <v>3</v>
@@ -2584,13 +2621,13 @@
       <c r="AF10" s="8">
         <v>256</v>
       </c>
-      <c r="AG10" s="8">
+      <c r="AG10" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>140.00957054908491</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH10" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>4.4821475388048215</v>
+        <v>4.4319755120434223</v>
       </c>
       <c r="AI10" s="5" t="s">
         <v>198</v>
@@ -2605,7 +2642,7 @@
         <v>57246</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38">
       <c r="A11" s="3" t="s">
         <v>98</v>
       </c>
@@ -2621,7 +2658,7 @@
       <c r="E11" t="s">
         <v>278</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="13">
         <v>23206</v>
       </c>
       <c r="G11" s="4"/>
@@ -2636,27 +2673,27 @@
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.33435626377269</v>
+        <v>76.58245982952684</v>
       </c>
       <c r="L11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>80.304923796567081</v>
+        <v>79.335195839389684</v>
       </c>
       <c r="M11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>79.176762566079887</v>
+        <v>80.886180167947145</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>48.792379512010363</v>
+        <v>51.835917542399272</v>
       </c>
       <c r="O11" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>75.083923111333803</v>
+        <v>80.181408383227534</v>
       </c>
       <c r="P11" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.307327572414763</v>
+        <v>86.034990715329002</v>
       </c>
       <c r="Q11">
         <v>4.7</v>
@@ -2664,8 +2701,8 @@
       <c r="R11" t="s">
         <v>328</v>
       </c>
-      <c r="S11">
-        <v>139</v>
+      <c r="S11" t="s">
+        <v>355</v>
       </c>
       <c r="T11">
         <v>3.5</v>
@@ -2684,42 +2721,42 @@
       </c>
       <c r="Y11" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>32.33435626377269</v>
+        <v>32.58245982952684</v>
       </c>
       <c r="Z11" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>40.304923796567081</v>
+        <v>39.335195839389684</v>
       </c>
       <c r="AA11" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>31.176762566079887</v>
+        <v>32.886180167947145</v>
       </c>
       <c r="AB11" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>30.792379512010363</v>
+        <v>33.835917542399272</v>
       </c>
       <c r="AC11" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>50.160241148711833</v>
+        <v>55.964249090294992</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>33.862267398987846</v>
+        <v>34.716601709177581</v>
       </c>
       <c r="AE11" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>5.1386650393489894</v>
+        <v>5.027880204555518</v>
       </c>
       <c r="AF11" s="8">
         <v>327</v>
       </c>
-      <c r="AG11" s="8">
+      <c r="AG11" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>139.14752070056286</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH11" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.5040682130225389</v>
+        <v>3.5350948530846789</v>
       </c>
       <c r="AI11" s="5" t="s">
         <v>201</v>
@@ -2734,7 +2771,7 @@
         <v>31457</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38">
       <c r="A12" s="3" t="s">
         <v>99</v>
       </c>
@@ -2750,7 +2787,7 @@
       <c r="E12" t="s">
         <v>280</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="13">
         <v>28622</v>
       </c>
       <c r="G12" s="4"/>
@@ -2765,27 +2802,27 @@
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.201826265523522</v>
+        <v>77.078132301936236</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>77.265562256130721</v>
+        <v>77.859580986363056</v>
       </c>
       <c r="M12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.726397083921825</v>
+        <v>80.028365990704103</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>45.825449543824028</v>
+        <v>43.948922633756297</v>
       </c>
       <c r="O12" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>73.918506323771823</v>
+        <v>71.759208903120197</v>
       </c>
       <c r="P12" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.211479372061589</v>
+        <v>87.758663510865873</v>
       </c>
       <c r="Q12">
         <v>8.9</v>
@@ -2793,8 +2830,8 @@
       <c r="R12" t="s">
         <v>329</v>
       </c>
-      <c r="S12">
-        <v>144</v>
+      <c r="S12" t="s">
+        <v>356</v>
       </c>
       <c r="T12">
         <v>4</v>
@@ -2813,27 +2850,27 @@
       </c>
       <c r="Y12" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>54.201826265523522</v>
+        <v>55.078132301936236</v>
       </c>
       <c r="Z12" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>57.265562256130721</v>
+        <v>57.859580986363056</v>
       </c>
       <c r="AA12" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>57.726397083921825</v>
+        <v>56.028365990704103</v>
       </c>
       <c r="AB12" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>36.825449543824028</v>
+        <v>34.948922633756297</v>
       </c>
       <c r="AC12" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>65.571325347787607</v>
+        <v>63.018882114525852</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>60.187569452971935</v>
+        <v>61.633098344746031</v>
       </c>
       <c r="AE12" s="7">
         <v>4.8</v>
@@ -2841,13 +2878,13 @@
       <c r="AF12" s="8">
         <v>432</v>
       </c>
-      <c r="AG12" s="8">
+      <c r="AG12" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>144.13269799242084</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH12" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>4.2626127190982617</v>
+        <v>4.0714819133176592</v>
       </c>
       <c r="AI12" s="5" t="s">
         <v>204</v>
@@ -2862,7 +2899,7 @@
         <v>30711</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38">
       <c r="A13" s="3" t="s">
         <v>100</v>
       </c>
@@ -2878,7 +2915,7 @@
       <c r="E13" t="s">
         <v>281</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="13">
         <v>33697</v>
       </c>
       <c r="G13" s="4"/>
@@ -2893,27 +2930,27 @@
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>50.201036351485854</v>
+        <v>52.690537179484288</v>
       </c>
       <c r="L13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>55.146478680361916</v>
+        <v>53.932627568006758</v>
       </c>
       <c r="M13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>54.551465467363457</v>
+        <v>54.306973375632992</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>31.31784007441626</v>
+        <v>32.735726709985457</v>
       </c>
       <c r="O13" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>45.616137810750438</v>
+        <v>46.837736076125836</v>
       </c>
       <c r="P13" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>56.225867158749665</v>
+        <v>56.276592489518407</v>
       </c>
       <c r="Q13">
         <v>9.3000000000000007</v>
@@ -2921,8 +2958,8 @@
       <c r="R13" t="s">
         <v>330</v>
       </c>
-      <c r="S13">
-        <v>145</v>
+      <c r="S13" t="s">
+        <v>357</v>
       </c>
       <c r="T13">
         <v>4.4000000000000004</v>
@@ -2941,42 +2978,42 @@
       </c>
       <c r="Y13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>28.201036351485854</v>
+        <v>30.690537179484288</v>
       </c>
       <c r="Z13" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>35.146478680361916</v>
+        <v>33.932627568006758</v>
       </c>
       <c r="AA13" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>30.551465467363457</v>
+        <v>30.306973375632992</v>
       </c>
       <c r="AB13" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>22.31784007441626</v>
+        <v>23.735726709985457</v>
       </c>
       <c r="AC13" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>33.451032786628161</v>
+        <v>35.823768389183492</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>31.700368580893883</v>
+        <v>29.834076609592881</v>
       </c>
       <c r="AE13" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9.5332694045400874</v>
+        <v>9.8411770687840185</v>
       </c>
       <c r="AF13" s="8">
         <v>348</v>
       </c>
-      <c r="AG13" s="8">
+      <c r="AG13" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>145.32933746710265</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH13" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>4.6946160666024088</v>
+        <v>4.4564715399867412</v>
       </c>
       <c r="AI13" s="5" t="s">
         <v>207</v>
@@ -2991,7 +3028,7 @@
         <v>52722</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38">
       <c r="A14" s="3" t="s">
         <v>101</v>
       </c>
@@ -3007,7 +3044,7 @@
       <c r="E14" t="s">
         <v>282</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="13">
         <v>20323</v>
       </c>
       <c r="G14" s="4"/>
@@ -3022,27 +3059,27 @@
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.701273930144666</v>
+        <v>78.029635813522603</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>78.368093986396872</v>
+        <v>80.314666841608073</v>
       </c>
       <c r="M14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.362641516420965</v>
+        <v>80.405874884577472</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>51.212073437893828</v>
+        <v>44.450003619478046</v>
       </c>
       <c r="O14" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>77.182832476155411</v>
+        <v>72.174223680967174</v>
       </c>
       <c r="P14" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>85.743591046271831</v>
+        <v>84.869574929335613</v>
       </c>
       <c r="Q14">
         <v>5.6</v>
@@ -3050,8 +3087,8 @@
       <c r="R14" t="s">
         <v>331</v>
       </c>
-      <c r="S14">
-        <v>142</v>
+      <c r="S14" t="s">
+        <v>353</v>
       </c>
       <c r="T14">
         <v>3.6</v>
@@ -3070,42 +3107,42 @@
       </c>
       <c r="Y14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>54.701273930144666</v>
+        <v>56.029635813522603</v>
       </c>
       <c r="Z14" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>58.368093986396872</v>
+        <v>60.314666841608073</v>
       </c>
       <c r="AA14" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>56.362641516420965</v>
+        <v>56.405874884577472</v>
       </c>
       <c r="AB14" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>42.212073437893828</v>
+        <v>35.450003619478046</v>
       </c>
       <c r="AC14" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>63.50933803159878</v>
+        <v>59.187143457162918</v>
       </c>
       <c r="AD14" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>59.180444091647736</v>
+        <v>60.272050880074822</v>
       </c>
       <c r="AE14" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>6.0341342837436809</v>
+        <v>5.8698426976681954</v>
       </c>
       <c r="AF14" s="8">
         <v>181</v>
       </c>
-      <c r="AG14" s="8">
+      <c r="AG14" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>142.01376899958834</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH14" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.629701816692442</v>
+        <v>3.8040083057831025</v>
       </c>
       <c r="AI14" s="5" t="s">
         <v>210</v>
@@ -3120,7 +3157,7 @@
         <v>48086</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38">
       <c r="A15" s="3" t="s">
         <v>102</v>
       </c>
@@ -3136,7 +3173,7 @@
       <c r="E15" t="s">
         <v>283</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="13">
         <v>27283</v>
       </c>
       <c r="G15" s="4"/>
@@ -3151,27 +3188,27 @@
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.251428421064062</v>
+        <v>79.417740689710314</v>
       </c>
       <c r="L15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>79.140209916358344</v>
+        <v>78.162622240437145</v>
       </c>
       <c r="M15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.569714506311627</v>
+        <v>82.619855221663997</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>48.569867314318543</v>
+        <v>45.343555656816527</v>
       </c>
       <c r="O15" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>72.441742468974098</v>
+        <v>80.961274998260961</v>
       </c>
       <c r="P15" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.543075444180602</v>
+        <v>84.815926763435428</v>
       </c>
       <c r="Q15">
         <v>9.6999999999999993</v>
@@ -3179,8 +3216,8 @@
       <c r="R15" t="s">
         <v>332</v>
       </c>
-      <c r="S15">
-        <v>138</v>
+      <c r="S15" t="s">
+        <v>358</v>
       </c>
       <c r="T15">
         <v>4.5</v>
@@ -3199,27 +3236,27 @@
       </c>
       <c r="Y15" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>53.251428421064062</v>
+        <v>57.417740689710314</v>
       </c>
       <c r="Z15" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>59.140209916358344</v>
+        <v>58.162622240437145</v>
       </c>
       <c r="AA15" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>56.569714506311627</v>
+        <v>58.619855221663997</v>
       </c>
       <c r="AB15" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>39.569867314318543</v>
+        <v>36.343555656816527</v>
       </c>
       <c r="AC15" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>64.343989541290298</v>
+        <v>70.871157842071199</v>
       </c>
       <c r="AD15" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>60.957083871659869</v>
+        <v>59.517726400153428</v>
       </c>
       <c r="AE15" s="7">
         <v>4.9000000000000004</v>
@@ -3227,13 +3264,13 @@
       <c r="AF15" s="8">
         <v>128</v>
       </c>
-      <c r="AG15" s="8">
+      <c r="AG15" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>138.23491951601642</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH15" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>4.6118698504400193</v>
+        <v>4.6028187814314716</v>
       </c>
       <c r="AI15" s="5" t="s">
         <v>213</v>
@@ -3248,7 +3285,7 @@
         <v>50784</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38">
       <c r="A16" s="3" t="s">
         <v>103</v>
       </c>
@@ -3264,7 +3301,7 @@
       <c r="E16" t="s">
         <v>278</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="13">
         <v>31000</v>
       </c>
       <c r="G16" s="4"/>
@@ -3279,27 +3316,27 @@
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>52.064572744454544</v>
+        <v>50.457859258444074</v>
       </c>
       <c r="L16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>52.129639996653651</v>
+        <v>52.033617489181125</v>
       </c>
       <c r="M16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>54.149332505731657</v>
+        <v>54.081207277683689</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>30.186469874977586</v>
+        <v>37.112809023392508</v>
       </c>
       <c r="O16" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>48.471640834105266</v>
+        <v>57.504151885146584</v>
       </c>
       <c r="P16" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>58.908259742791273</v>
+        <v>57.684203244764717</v>
       </c>
       <c r="Q16">
         <v>8.3000000000000007</v>
@@ -3307,8 +3344,8 @@
       <c r="R16" t="s">
         <v>333</v>
       </c>
-      <c r="S16">
-        <v>140</v>
+      <c r="S16" t="s">
+        <v>354</v>
       </c>
       <c r="T16">
         <v>4.3</v>
@@ -3327,42 +3364,42 @@
       </c>
       <c r="Y16" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0645727444545443</v>
+        <v>6.4578592584440742</v>
       </c>
       <c r="Z16" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>12.129639996653651</v>
+        <v>12.033617489181125</v>
       </c>
       <c r="AA16" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>6.1493325057316568</v>
+        <v>6.0812072776836885</v>
       </c>
       <c r="AB16" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>12.186469874977586</v>
+        <v>19.112809023392508</v>
       </c>
       <c r="AC16" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>21.208889417377435</v>
+        <v>35.271862195951869</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>7.2845156988204316</v>
+        <v>6.4408767835455043</v>
       </c>
       <c r="AE16" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8.7394902107286754</v>
+        <v>9.3186188309606344</v>
       </c>
       <c r="AF16" s="8">
         <v>135</v>
       </c>
-      <c r="AG16" s="8">
+      <c r="AG16" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>140.31406046503048</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH16" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>4.4363886153842031</v>
+        <v>4.4311454099701493</v>
       </c>
       <c r="AI16" s="5" t="s">
         <v>215</v>
@@ -3377,7 +3414,7 @@
         <v>64711</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38">
       <c r="A17" s="3" t="s">
         <v>104</v>
       </c>
@@ -3393,7 +3430,7 @@
       <c r="E17" t="s">
         <v>278</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="13">
         <v>26653</v>
       </c>
       <c r="G17" s="4"/>
@@ -3408,27 +3445,27 @@
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.839036589894107</v>
+        <v>77.374157230637337</v>
       </c>
       <c r="L17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>75.61796262879848</v>
+        <v>79.766075332759044</v>
       </c>
       <c r="M17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.859450504972301</v>
+        <v>79.074002813637364</v>
       </c>
       <c r="N17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>49.63826459047079</v>
+        <v>51.10591397561268</v>
       </c>
       <c r="O17" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>75.615707003612243</v>
+        <v>78.540319612546881</v>
       </c>
       <c r="P17" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.583339511161171</v>
+        <v>86.051557487358778</v>
       </c>
       <c r="Q17">
         <v>7.6</v>
@@ -3436,8 +3473,8 @@
       <c r="R17" t="s">
         <v>334</v>
       </c>
-      <c r="S17">
-        <v>137</v>
+      <c r="S17" t="s">
+        <v>352</v>
       </c>
       <c r="T17">
         <v>3.8</v>
@@ -3456,27 +3493,27 @@
       </c>
       <c r="Y17" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>35.839036589894107</v>
+        <v>33.374157230637337</v>
       </c>
       <c r="Z17" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>35.61796262879848</v>
+        <v>39.766075332759044</v>
       </c>
       <c r="AA17" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>30.859450504972301</v>
+        <v>31.074002813637364</v>
       </c>
       <c r="AB17" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>31.63826459047079</v>
+        <v>33.10591397561268</v>
       </c>
       <c r="AC17" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>50.679174853088178</v>
+        <v>54.196357092228794</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>33.249219969514364</v>
+        <v>33.288576296959846</v>
       </c>
       <c r="AE17" s="7">
         <v>4.4000000000000004</v>
@@ -3484,13 +3521,13 @@
       <c r="AF17" s="8">
         <v>238</v>
       </c>
-      <c r="AG17" s="8">
+      <c r="AG17" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>137.48222587393226</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH17" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.9206680572158183</v>
+        <v>3.8766705236733965</v>
       </c>
       <c r="AI17" s="5" t="s">
         <v>218</v>
@@ -3505,7 +3542,7 @@
         <v>33707</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38">
       <c r="A18" s="3" t="s">
         <v>105</v>
       </c>
@@ -3521,7 +3558,7 @@
       <c r="E18" t="s">
         <v>284</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="13">
         <v>34617</v>
       </c>
       <c r="G18" s="4"/>
@@ -3536,27 +3573,27 @@
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.453988573810491</v>
+        <v>77.447421245422476</v>
       </c>
       <c r="L18" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>80.112600578253151</v>
+        <v>76.098985004396113</v>
       </c>
       <c r="M18" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.25259624686187</v>
+        <v>78.770126928081197</v>
       </c>
       <c r="N18" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>42.983336498422481</v>
+        <v>44.676959457398759</v>
       </c>
       <c r="O18" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>68.570627856325629</v>
+        <v>71.055717729270583</v>
       </c>
       <c r="P18" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.91993860546836</v>
+        <v>85.214116555222731</v>
       </c>
       <c r="Q18">
         <v>9.1999999999999993</v>
@@ -3564,8 +3601,8 @@
       <c r="R18" t="s">
         <v>335</v>
       </c>
-      <c r="S18">
-        <v>143</v>
+      <c r="S18" t="s">
+        <v>359</v>
       </c>
       <c r="T18">
         <v>3.6</v>
@@ -3584,42 +3621,42 @@
       </c>
       <c r="Y18" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>9.4539885738104914</v>
+        <v>11.447421245422476</v>
       </c>
       <c r="Z18" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>20.112600578253151</v>
+        <v>16.098985004396113</v>
       </c>
       <c r="AA18" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>9.2525962468618701</v>
+        <v>6.7701269280811971</v>
       </c>
       <c r="AB18" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>15.983336498422481</v>
+        <v>17.676959457398759</v>
       </c>
       <c r="AC18" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>28.368324421986486</v>
+        <v>32.034063339102154</v>
       </c>
       <c r="AD18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>8.6845565503631565</v>
+        <v>6.9605647288648838</v>
       </c>
       <c r="AE18" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>10.374726887470887</v>
+        <v>10.017911529361267</v>
       </c>
       <c r="AF18" s="8">
         <v>288</v>
       </c>
-      <c r="AG18" s="8">
+      <c r="AG18" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>143.08852667082749</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH18" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.8769300049727464</v>
+        <v>3.6103003129935454</v>
       </c>
       <c r="AI18" s="5" t="s">
         <v>221</v>
@@ -3634,7 +3671,7 @@
         <v>69601</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38">
       <c r="A19" s="3" t="s">
         <v>106</v>
       </c>
@@ -3650,7 +3687,7 @@
       <c r="E19" t="s">
         <v>278</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="13">
         <v>34290</v>
       </c>
       <c r="G19" s="4"/>
@@ -3665,27 +3702,27 @@
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.311441919938275</v>
+        <v>75.141565825502497</v>
       </c>
       <c r="L19" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>80.24794894636949</v>
+        <v>78.268419270573261</v>
       </c>
       <c r="M19" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>79.858519426390416</v>
+        <v>79.833292038267828</v>
       </c>
       <c r="N19" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43.864731899536153</v>
+        <v>44.696465100568531</v>
       </c>
       <c r="O19" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>69.207236224003879</v>
+        <v>77.647962858182055</v>
       </c>
       <c r="P19" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.777281421210375</v>
+        <v>86.289315535861746</v>
       </c>
       <c r="Q19">
         <v>11.5</v>
@@ -3693,8 +3730,8 @@
       <c r="R19" t="s">
         <v>336</v>
       </c>
-      <c r="S19">
-        <v>136</v>
+      <c r="S19" t="s">
+        <v>360</v>
       </c>
       <c r="T19">
         <v>3.4</v>
@@ -3713,42 +3750,42 @@
       </c>
       <c r="Y19" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>32.311441919938275</v>
+        <v>31.141565825502497</v>
       </c>
       <c r="Z19" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>40.24794894636949</v>
+        <v>38.268419270573261</v>
       </c>
       <c r="AA19" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>31.858519426390416</v>
+        <v>31.833292038267828</v>
       </c>
       <c r="AB19" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>25.864731899536153</v>
+        <v>26.696465100568531</v>
       </c>
       <c r="AC19" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>45.670361597718852</v>
+        <v>50.485543251692754</v>
       </c>
       <c r="AD19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>34.723839786214533</v>
+        <v>34.899390159604039</v>
       </c>
       <c r="AE19" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>12.826471362909901</v>
+        <v>12.578028177035019</v>
       </c>
       <c r="AF19" s="8">
         <v>339</v>
       </c>
-      <c r="AG19" s="8">
+      <c r="AG19" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>136.09123814389417</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH19" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.6905118769308918</v>
+        <v>3.644618951821466</v>
       </c>
       <c r="AI19" s="5" t="s">
         <v>224</v>
@@ -3763,7 +3800,7 @@
         <v>53356</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38">
       <c r="A20" s="3" t="s">
         <v>107</v>
       </c>
@@ -3779,7 +3816,7 @@
       <c r="E20" t="s">
         <v>278</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="13">
         <v>17590</v>
       </c>
       <c r="G20" s="4"/>
@@ -3794,27 +3831,27 @@
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.518913417132538</v>
+        <v>76.784403687982433</v>
       </c>
       <c r="L20" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>75.391736942664991</v>
+        <v>77.131267106814761</v>
       </c>
       <c r="M20" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.122569079480186</v>
+        <v>82.650641893852949</v>
       </c>
       <c r="N20" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>44.398134911379557</v>
+        <v>51.811385434136952</v>
       </c>
       <c r="O20" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>78.610379806709062</v>
+        <v>80.709060996704466</v>
       </c>
       <c r="P20" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.109414827344452</v>
+        <v>85.707746124584091</v>
       </c>
       <c r="Q20">
         <v>10.199999999999999</v>
@@ -3822,8 +3859,8 @@
       <c r="R20" t="s">
         <v>328</v>
       </c>
-      <c r="S20">
-        <v>135</v>
+      <c r="S20" t="s">
+        <v>361</v>
       </c>
       <c r="T20">
         <v>3.9</v>
@@ -3842,42 +3879,42 @@
       </c>
       <c r="Y20" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>31.518913417132538</v>
+        <v>32.784403687982433</v>
       </c>
       <c r="Z20" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>35.391736942664991</v>
+        <v>37.131267106814761</v>
       </c>
       <c r="AA20" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>34.122569079480186</v>
+        <v>34.650641893852949</v>
       </c>
       <c r="AB20" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>26.398134911379557</v>
+        <v>33.811385434136952</v>
       </c>
       <c r="AC20" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>52.156857394124785</v>
+        <v>56.455468749139939</v>
       </c>
       <c r="AD20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>32.54507185333231</v>
+        <v>32.046904204249962</v>
       </c>
       <c r="AE20" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>10.47132832112951</v>
+        <v>10.243360117622775</v>
       </c>
       <c r="AF20" s="8">
         <v>321</v>
       </c>
-      <c r="AG20" s="8">
+      <c r="AG20" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>135.42713899777661</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH20" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>4.0629577364278173</v>
+        <v>3.9652523121028422</v>
       </c>
       <c r="AI20" s="5" t="s">
         <v>227</v>
@@ -3892,7 +3929,7 @@
         <v>32865</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38">
       <c r="A21" s="3" t="s">
         <v>108</v>
       </c>
@@ -3908,7 +3945,7 @@
       <c r="E21" t="s">
         <v>279</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="13">
         <v>24219</v>
       </c>
       <c r="G21" s="4"/>
@@ -3923,27 +3960,27 @@
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.013499534638186</v>
+        <v>77.915797294194348</v>
       </c>
       <c r="L21" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>76.122955639340574</v>
+        <v>79.33297175539461</v>
       </c>
       <c r="M21" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.587796407465348</v>
+        <v>80.647161775440026</v>
       </c>
       <c r="N21" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>47.75078131941477</v>
+        <v>50.518066209952366</v>
       </c>
       <c r="O21" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>74.589223840313721</v>
+        <v>71.848325505806216</v>
       </c>
       <c r="P21" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.665677972566215</v>
+        <v>87.745678547314128</v>
       </c>
       <c r="Q21">
         <v>106</v>
@@ -3951,8 +3988,8 @@
       <c r="R21" t="s">
         <v>337</v>
       </c>
-      <c r="S21">
-        <v>141</v>
+      <c r="S21" t="s">
+        <v>362</v>
       </c>
       <c r="T21">
         <v>4.5999999999999996</v>
@@ -3971,27 +4008,27 @@
       </c>
       <c r="Y21" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>57.013499534638186</v>
+        <v>55.915797294194348</v>
       </c>
       <c r="Z21" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>56.122955639340574</v>
+        <v>59.33297175539461</v>
       </c>
       <c r="AA21" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>57.587796407465348</v>
+        <v>56.647161775440026</v>
       </c>
       <c r="AB21" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>38.75078131941477</v>
+        <v>41.518066209952366</v>
       </c>
       <c r="AC21" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>63.907615387263718</v>
+        <v>60.495800150811107</v>
       </c>
       <c r="AD21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>62.953150878151966</v>
+        <v>63.032422627810284</v>
       </c>
       <c r="AE21" s="7">
         <v>5.3</v>
@@ -3999,13 +4036,13 @@
       <c r="AF21" s="8">
         <v>349</v>
       </c>
-      <c r="AG21" s="8">
+      <c r="AG21" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>141.45694559842849</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH21" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>4.7160831833592693</v>
+        <v>4.6489819396672445</v>
       </c>
       <c r="AI21" s="5" t="s">
         <v>229</v>
@@ -4020,7 +4057,7 @@
         <v>56772</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38">
       <c r="A22" s="3" t="s">
         <v>109</v>
       </c>
@@ -4036,7 +4073,7 @@
       <c r="E22" t="s">
         <v>285</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="13">
         <v>28713</v>
       </c>
       <c r="G22" s="4"/>
@@ -4051,27 +4088,27 @@
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>51.101468189124944</v>
+        <v>50.387849082820146</v>
       </c>
       <c r="L22" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>54.641160951700307</v>
+        <v>53.018172286378302</v>
       </c>
       <c r="M22" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>54.509647937461729</v>
+        <v>56.122476334359582</v>
       </c>
       <c r="N22" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>33.92322084071472</v>
+        <v>31.578424021558462</v>
       </c>
       <c r="O22" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>49.539685366455409</v>
+        <v>51.582424456172987</v>
       </c>
       <c r="P22" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>58.028191202801601</v>
+        <v>59.070410924074075</v>
       </c>
       <c r="Q22">
         <v>10.1</v>
@@ -4079,8 +4116,8 @@
       <c r="R22" t="s">
         <v>338</v>
       </c>
-      <c r="S22">
-        <v>133</v>
+      <c r="S22" t="s">
+        <v>363</v>
       </c>
       <c r="T22">
         <v>4.3</v>
@@ -4099,19 +4136,19 @@
       </c>
       <c r="Y22" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>7.1014681891249438</v>
+        <v>6.3878490828201464</v>
       </c>
       <c r="Z22" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>14.641160951700307</v>
+        <v>13.018172286378302</v>
       </c>
       <c r="AA22" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>6.5096479374617289</v>
+        <v>8.1224763343595825</v>
       </c>
       <c r="AB22" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>15.92322084071472</v>
+        <v>13.578424021558462</v>
       </c>
       <c r="AC22" s="8" t="s">
         <v>311</v>
@@ -4121,18 +4158,18 @@
       </c>
       <c r="AE22" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>11.272719998762803</v>
+        <v>10.163752904966787</v>
       </c>
       <c r="AF22" s="8">
         <v>216</v>
       </c>
-      <c r="AG22" s="8">
+      <c r="AG22" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>133.29857249548121</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH22" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>4.4475764747643627</v>
+        <v>4.4097848654141973</v>
       </c>
       <c r="AI22" s="5" t="s">
         <v>232</v>
@@ -4147,11 +4184,11 @@
         <v>72594</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38">
       <c r="A23" s="3"/>
       <c r="C23" s="8"/>
       <c r="D23" s="1"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="4"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
@@ -4174,7 +4211,7 @@
       <c r="AK23" s="5"/>
       <c r="AL23" s="5"/>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38">
       <c r="A24" s="3" t="s">
         <v>110</v>
       </c>
@@ -4190,7 +4227,7 @@
       <c r="E24" t="s">
         <v>279</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="13">
         <v>36096</v>
       </c>
       <c r="G24" s="4"/>
@@ -4205,27 +4242,27 @@
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.626453151124721</v>
+        <v>78.457035085402879</v>
       </c>
       <c r="L24" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>76.688999033509774</v>
+        <v>75.029593872930235</v>
       </c>
       <c r="M24" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.655405102150127</v>
+        <v>78.691454797988897</v>
       </c>
       <c r="N24" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>50.131789876790094</v>
+        <v>46.207467342302259</v>
       </c>
       <c r="O24" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>75.140580805782676</v>
+        <v>78.03516212705523</v>
       </c>
       <c r="P24" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.375416725141051</v>
+        <v>84.677456888914676</v>
       </c>
       <c r="Q24">
         <v>7.3</v>
@@ -4233,8 +4270,8 @@
       <c r="R24" t="s">
         <v>339</v>
       </c>
-      <c r="S24">
-        <v>135</v>
+      <c r="S24" t="s">
+        <v>361</v>
       </c>
       <c r="T24">
         <v>4</v>
@@ -4253,42 +4290,42 @@
       </c>
       <c r="Y24" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>32.626453151124721</v>
+        <v>34.457035085402879</v>
       </c>
       <c r="Z24" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>36.688999033509774</v>
+        <v>35.029593872930235</v>
       </c>
       <c r="AA24" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>30.655405102150127</v>
+        <v>30.691454797988897</v>
       </c>
       <c r="AB24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>32.131789876790094</v>
+        <v>28.207467342302259</v>
       </c>
       <c r="AC24" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>48.928187168071716</v>
+        <v>51.275274885807043</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>33.748962853904921</v>
+        <v>33.022501797020254</v>
       </c>
       <c r="AE24" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8.197001583564429</v>
+        <v>8.5472020234253865</v>
       </c>
       <c r="AF24" s="8">
         <v>102</v>
       </c>
-      <c r="AG24" s="8">
+      <c r="AG24" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>135.32351369469438</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH24" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>4.2381501590660386</v>
+        <v>4.1190084773109543</v>
       </c>
       <c r="AI24" s="5" t="s">
         <v>235</v>
@@ -4303,7 +4340,7 @@
         <v>29884</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38">
       <c r="A25" s="3" t="s">
         <v>111</v>
       </c>
@@ -4319,7 +4356,7 @@
       <c r="E25" t="s">
         <v>278</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="13">
         <v>36900</v>
       </c>
       <c r="G25" s="4"/>
@@ -4334,27 +4371,27 @@
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>78.801900943615095</v>
+        <v>76.459121796355134</v>
       </c>
       <c r="L25" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>75.525340201614469</v>
+        <v>80.723603349104579</v>
       </c>
       <c r="M25" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.777689041194122</v>
+        <v>81.752868243610038</v>
       </c>
       <c r="N25" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>44.689985259219057</v>
+        <v>44.269845507283996</v>
       </c>
       <c r="O25" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>80.91448879103055</v>
+        <v>72.502498913579004</v>
       </c>
       <c r="P25" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.873464375039845</v>
+        <v>86.303705679798526</v>
       </c>
       <c r="Q25">
         <v>8.6</v>
@@ -4362,8 +4399,8 @@
       <c r="R25" t="s">
         <v>340</v>
       </c>
-      <c r="S25">
-        <v>143</v>
+      <c r="S25" t="s">
+        <v>359</v>
       </c>
       <c r="T25">
         <v>4.0999999999999996</v>
@@ -4382,31 +4419,31 @@
       </c>
       <c r="Y25" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>12.801900943615095</v>
+        <v>10.459121796355134</v>
       </c>
       <c r="Z25" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>15.525340201614469</v>
+        <v>20.723603349104579</v>
       </c>
       <c r="AA25" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>10.777689041194122</v>
+        <v>9.7528682436100382</v>
       </c>
       <c r="AB25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>17.689985259219057</v>
+        <v>17.269845507283996</v>
       </c>
       <c r="AC25" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>40.210913915767541</v>
+        <v>32.924102029547278</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6.2546895998667447</v>
+        <v>5.7920580759706937</v>
       </c>
       <c r="AE25" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9.771957772700965</v>
+        <v>9.5696456731932891</v>
       </c>
       <c r="AF25" s="8">
         <v>224</v>
@@ -4430,7 +4467,7 @@
         <v>72529</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38">
       <c r="A26" s="3" t="s">
         <v>112</v>
       </c>
@@ -4446,7 +4483,7 @@
       <c r="E26" t="s">
         <v>278</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="13">
         <v>34400</v>
       </c>
       <c r="G26" s="4"/>
@@ -4461,27 +4498,27 @@
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.155385893372156</v>
+        <v>79.206058971795898</v>
       </c>
       <c r="L26" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>78.400491810118439</v>
+        <v>80.875427328195997</v>
       </c>
       <c r="M26" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.430061755480565</v>
+        <v>82.255915895513581</v>
       </c>
       <c r="N26" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43.764461970432031</v>
+        <v>43.028910847177727</v>
       </c>
       <c r="O26" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>66.242288857140551</v>
+        <v>67.494980887131518</v>
       </c>
       <c r="P26" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.185506090314604</v>
+        <v>86.937699455633108</v>
       </c>
       <c r="Q26">
         <v>5.7</v>
@@ -4489,8 +4526,8 @@
       <c r="R26" t="s">
         <v>341</v>
       </c>
-      <c r="S26">
-        <v>136</v>
+      <c r="S26" t="s">
+        <v>360</v>
       </c>
       <c r="T26">
         <v>3.8</v>
@@ -4509,27 +4546,27 @@
       </c>
       <c r="Y26" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>57.155385893372156</v>
+        <v>57.206058971795898</v>
       </c>
       <c r="Z26" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>58.400491810118439</v>
+        <v>60.875427328195997</v>
       </c>
       <c r="AA26" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>54.430061755480565</v>
+        <v>58.255915895513581</v>
       </c>
       <c r="AB26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>34.764461970432031</v>
+        <v>34.028910847177727</v>
       </c>
       <c r="AC26" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>54.926245098499209</v>
+        <v>56.791138868722925</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>59.877478187970048</v>
+        <v>61.760177389133482</v>
       </c>
       <c r="AE26" s="7">
         <v>3.2</v>
@@ -4537,13 +4574,13 @@
       <c r="AF26" s="8">
         <v>242</v>
       </c>
-      <c r="AG26" s="8">
+      <c r="AG26" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>136.04885757648489</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH26" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.8816964356092591</v>
+        <v>3.8082053551602635</v>
       </c>
       <c r="AI26" s="5" t="s">
         <v>240</v>
@@ -4558,7 +4595,7 @@
         <v>76681</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38">
       <c r="A27" s="3" t="s">
         <v>113</v>
       </c>
@@ -4574,7 +4611,7 @@
       <c r="E27" t="s">
         <v>278</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="13">
         <v>31555</v>
       </c>
       <c r="G27" s="4"/>
@@ -4589,27 +4626,27 @@
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>26.334633697071084</v>
+        <v>25.309765809015346</v>
       </c>
       <c r="L27" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>28.203159403406811</v>
+        <v>28.845202751416203</v>
       </c>
       <c r="M27" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>26.777553989448766</v>
+        <v>28.036813948438926</v>
       </c>
       <c r="N27" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>14.169898748545151</v>
+        <v>19.040327129919461</v>
       </c>
       <c r="O27" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>33.340714186340826</v>
+        <v>22.272986153038481</v>
       </c>
       <c r="P27" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>30.556567776324339</v>
+        <v>29.031427272675472</v>
       </c>
       <c r="Q27">
         <v>9.4</v>
@@ -4617,8 +4654,8 @@
       <c r="R27" t="s">
         <v>342</v>
       </c>
-      <c r="S27">
-        <v>144</v>
+      <c r="S27" t="s">
+        <v>356</v>
       </c>
       <c r="T27">
         <v>3.9</v>
@@ -4637,42 +4674,42 @@
       </c>
       <c r="Y27" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>4.3346336970710837</v>
+        <v>3.3097658090153459</v>
       </c>
       <c r="Z27" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>8.2031594034068114</v>
+        <v>8.8452027514162026</v>
       </c>
       <c r="AA27" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>2.7775539894487657</v>
+        <v>4.036813948438926</v>
       </c>
       <c r="AB27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1698987485451511</v>
+        <v>10.040327129919461</v>
       </c>
       <c r="AC27" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>22.925691945071755</v>
+        <v>9.2374675682347629</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6.358997858100949</v>
+        <v>4.3085208405025508</v>
       </c>
       <c r="AE27" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>10.302629009130706</v>
+        <v>9.6110647519219441</v>
       </c>
       <c r="AF27" s="8">
         <v>325</v>
       </c>
-      <c r="AG27" s="8">
+      <c r="AG27" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>144.4069213728898</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH27" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.9624263303528422</v>
+        <v>3.9053959476838771</v>
       </c>
       <c r="AI27" s="5" t="s">
         <v>243</v>
@@ -4687,7 +4724,7 @@
         <v>98151</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38">
       <c r="A28" s="3" t="s">
         <v>114</v>
       </c>
@@ -4703,7 +4740,7 @@
       <c r="E28" t="s">
         <v>279</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="13">
         <v>21753</v>
       </c>
       <c r="G28" s="4"/>
@@ -4718,27 +4755,27 @@
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.910622361818184</v>
+        <v>79.58982292925937</v>
       </c>
       <c r="L28" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>79.368838047516789</v>
+        <v>76.300662897910613</v>
       </c>
       <c r="M28" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.114905007110949</v>
+        <v>80.981879914278565</v>
       </c>
       <c r="N28" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>49.371350207173094</v>
+        <v>50.552197679987515</v>
       </c>
       <c r="O28" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>72.064925430285641</v>
+        <v>73.134858108340822</v>
       </c>
       <c r="P28" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>85.407297229603913</v>
+        <v>84.29993221704548</v>
       </c>
       <c r="Q28">
         <v>8.8000000000000007</v>
@@ -4746,8 +4783,8 @@
       <c r="R28" t="s">
         <v>343</v>
       </c>
-      <c r="S28">
-        <v>145</v>
+      <c r="S28" t="s">
+        <v>357</v>
       </c>
       <c r="T28">
         <v>37</v>
@@ -4766,42 +4803,42 @@
       </c>
       <c r="Y28" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>32.910622361818184</v>
+        <v>35.58982292925937</v>
       </c>
       <c r="Z28" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>39.368838047516789</v>
+        <v>36.300662897910613</v>
       </c>
       <c r="AA28" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>34.114905007110949</v>
+        <v>32.981879914278565</v>
       </c>
       <c r="AB28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>31.371350207173094</v>
+        <v>32.552197679987515</v>
       </c>
       <c r="AC28" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>45.515319003635092</v>
+        <v>50.048819726242193</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>33.105157763943375</v>
+        <v>31.871907371630751</v>
       </c>
       <c r="AE28" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9.8546820997743385</v>
+        <v>8.9632773803204255</v>
       </c>
       <c r="AF28" s="8">
         <v>356</v>
       </c>
-      <c r="AG28" s="8">
+      <c r="AG28" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>145.25745607121334</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH28" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>37.257296355531459</v>
+        <v>37.096373932907625</v>
       </c>
       <c r="AI28" s="5" t="s">
         <v>245</v>
@@ -4816,7 +4853,7 @@
         <v>33709</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38">
       <c r="A29" s="3" t="s">
         <v>115</v>
       </c>
@@ -4832,7 +4869,7 @@
       <c r="E29" t="s">
         <v>283</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="13">
         <v>33509</v>
       </c>
       <c r="G29" s="4"/>
@@ -4847,27 +4884,27 @@
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>51.490602169905678</v>
+        <v>51.958720374532355</v>
       </c>
       <c r="L29" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>53.854942268772476</v>
+        <v>54.475567093839793</v>
       </c>
       <c r="M29" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>55.498263848648541</v>
+        <v>56.284175161857959</v>
       </c>
       <c r="N29" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>33.568824863940883</v>
+        <v>36.334543927267205</v>
       </c>
       <c r="O29" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>52.528996913899711</v>
+        <v>56.249228446952209</v>
       </c>
       <c r="P29" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>57.772451419886337</v>
+        <v>58.613561785647406</v>
       </c>
       <c r="Q29">
         <v>5.5</v>
@@ -4875,8 +4912,8 @@
       <c r="R29" t="s">
         <v>163</v>
       </c>
-      <c r="S29">
-        <v>140</v>
+      <c r="S29" t="s">
+        <v>354</v>
       </c>
       <c r="T29">
         <v>4</v>
@@ -4895,27 +4932,27 @@
       </c>
       <c r="Y29" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>29.490602169905678</v>
+        <v>29.958720374532355</v>
       </c>
       <c r="Z29" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>33.854942268772476</v>
+        <v>34.475567093839793</v>
       </c>
       <c r="AA29" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>31.498263848648541</v>
+        <v>32.284175161857959</v>
       </c>
       <c r="AB29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>24.568824863940883</v>
+        <v>27.334543927267205</v>
       </c>
       <c r="AC29" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>40.148813746051857</v>
+        <v>44.301006303487469</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>32.996304133979805</v>
+        <v>33.518274710997069</v>
       </c>
       <c r="AE29" s="7">
         <v>3.3</v>
@@ -4923,13 +4960,13 @@
       <c r="AF29" s="8">
         <v>310</v>
       </c>
-      <c r="AG29" s="8">
+      <c r="AG29" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>140.37773478119834</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH29" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>4.0488942094837457</v>
+        <v>4.2859638941918847</v>
       </c>
       <c r="AI29" s="5" t="s">
         <v>248</v>
@@ -4944,7 +4981,7 @@
         <v>47006</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38">
       <c r="A30" s="3" t="s">
         <v>116</v>
       </c>
@@ -4960,7 +4997,7 @@
       <c r="E30" t="s">
         <v>278</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="13">
         <v>37564</v>
       </c>
       <c r="G30" s="4"/>
@@ -4975,27 +5012,27 @@
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>77.239374252302198</v>
+        <v>77.673539879300264</v>
       </c>
       <c r="L30" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>80.676455451717231</v>
+        <v>76.635623521852423</v>
       </c>
       <c r="M30" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.556714323338113</v>
+        <v>80.034686128763099</v>
       </c>
       <c r="N30" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>44.154595904108234</v>
+        <v>49.119101814009468</v>
       </c>
       <c r="O30" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>73.791784028240912</v>
+        <v>73.825649303304772</v>
       </c>
       <c r="P30" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.332748983779425</v>
+        <v>87.717106871567168</v>
       </c>
       <c r="Q30">
         <v>7.6</v>
@@ -5003,8 +5040,8 @@
       <c r="R30" t="s">
         <v>327</v>
       </c>
-      <c r="S30">
-        <v>141</v>
+      <c r="S30" t="s">
+        <v>362</v>
       </c>
       <c r="T30">
         <v>3.6</v>
@@ -5023,42 +5060,42 @@
       </c>
       <c r="Y30" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>11.239374252302198</v>
+        <v>11.673539879300264</v>
       </c>
       <c r="Z30" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>20.676455451717231</v>
+        <v>16.635623521852423</v>
       </c>
       <c r="AA30" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>9.5567143233381131</v>
+        <v>8.0346861287630986</v>
       </c>
       <c r="AB30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>17.154595904108234</v>
+        <v>22.119101814009468</v>
       </c>
       <c r="AC30" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>32.203811923911005</v>
+        <v>37.396404687299004</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>3.8975967497403272</v>
+        <v>8.391476851230367</v>
       </c>
       <c r="AE30" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8.1516392147727448</v>
+        <v>8.2542194489227327</v>
       </c>
       <c r="AF30" s="8">
         <v>254</v>
       </c>
-      <c r="AG30" s="8">
+      <c r="AG30" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>141.17475707938149</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH30" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.8984685096517979</v>
+        <v>3.8659009399538085</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>250</v>
@@ -5073,7 +5110,7 @@
         <v>55577</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38">
       <c r="A31" s="3" t="s">
         <v>117</v>
       </c>
@@ -5089,7 +5126,7 @@
       <c r="E31" t="s">
         <v>278</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="13">
         <v>31817</v>
       </c>
       <c r="G31" s="4"/>
@@ -5104,27 +5141,27 @@
       </c>
       <c r="K31" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.269749048220859</v>
+        <v>75.3931511577359</v>
       </c>
       <c r="L31" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>75.973781870587743</v>
+        <v>78.11205161309401</v>
       </c>
       <c r="M31" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.864622110746083</v>
+        <v>82.02727098708354</v>
       </c>
       <c r="N31" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>49.235788217819355</v>
+        <v>51.583129254891816</v>
       </c>
       <c r="O31" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>67.576340378352981</v>
+        <v>74.034226832339826</v>
       </c>
       <c r="P31" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.236443318430091</v>
+        <v>86.922392068386941</v>
       </c>
       <c r="Q31">
         <v>6.3</v>
@@ -5132,8 +5169,8 @@
       <c r="R31" t="s">
         <v>344</v>
       </c>
-      <c r="S31">
-        <v>142</v>
+      <c r="S31" t="s">
+        <v>353</v>
       </c>
       <c r="T31">
         <v>3.5</v>
@@ -5152,27 +5189,27 @@
       </c>
       <c r="Y31" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>53.269749048220859</v>
+        <v>53.3931511577359</v>
       </c>
       <c r="Z31" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>55.973781870587743</v>
+        <v>58.11205161309401</v>
       </c>
       <c r="AA31" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>56.864622110746083</v>
+        <v>58.02727098708354</v>
       </c>
       <c r="AB31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>40.235788217819355</v>
+        <v>42.583129254891816</v>
       </c>
       <c r="AC31" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>57.813913294452576</v>
+        <v>65.856857349037469</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>57.45541648886384</v>
+        <v>60.036289259517105</v>
       </c>
       <c r="AE31" s="7">
         <v>3.7</v>
@@ -5180,13 +5217,13 @@
       <c r="AF31" s="8">
         <v>189</v>
       </c>
-      <c r="AG31" s="8">
+      <c r="AG31" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>142.31395784404918</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH31" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.5093779740512892</v>
+        <v>3.6995777047539677</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>252</v>
@@ -5201,7 +5238,7 @@
         <v>41981</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38">
       <c r="A32" s="3" t="s">
         <v>118</v>
       </c>
@@ -5217,7 +5254,7 @@
       <c r="E32" t="s">
         <v>278</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="13">
         <v>32620</v>
       </c>
       <c r="G32" s="4"/>
@@ -5232,27 +5269,27 @@
       </c>
       <c r="K32" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.208090824146396</v>
+        <v>76.97530140658553</v>
       </c>
       <c r="L32" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>78.656897834476894</v>
+        <v>77.103546809564889</v>
       </c>
       <c r="M32" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.458677729006041</v>
+        <v>81.437664850761394</v>
       </c>
       <c r="N32" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>47.227931865136767</v>
+        <v>45.086195664000371</v>
       </c>
       <c r="O32" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>74.523945852516547</v>
+        <v>67.776499626693663</v>
       </c>
       <c r="P32" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.725128915559921</v>
+        <v>86.07496637284342</v>
       </c>
       <c r="Q32">
         <v>8.9</v>
@@ -5260,8 +5297,8 @@
       <c r="R32" t="s">
         <v>345</v>
       </c>
-      <c r="S32">
-        <v>138</v>
+      <c r="S32" t="s">
+        <v>358</v>
       </c>
       <c r="T32">
         <v>4.5999999999999996</v>
@@ -5280,42 +5317,42 @@
       </c>
       <c r="Y32" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>32.208090824146396</v>
+        <v>32.97530140658553</v>
       </c>
       <c r="Z32" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>38.656897834476894</v>
+        <v>37.103546809564889</v>
       </c>
       <c r="AA32" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>34.458677729006041</v>
+        <v>33.437664850761394</v>
       </c>
       <c r="AB32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>29.227931865136767</v>
+        <v>27.086195664000371</v>
       </c>
       <c r="AC32" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>48.732521780101422</v>
+        <v>44.006282962193524</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>31.614994202397437</v>
+        <v>34.486937949491974</v>
       </c>
       <c r="AE32" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9.718140963159799</v>
+        <v>9.9469521812470969</v>
       </c>
       <c r="AF32" s="8">
         <v>48</v>
       </c>
-      <c r="AG32" s="8">
+      <c r="AG32" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>138.11840912942921</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH32" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>4.7596721897907859</v>
+        <v>4.6137949504379057</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>255</v>
@@ -5330,7 +5367,7 @@
         <v>85050</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38">
       <c r="A33" s="3" t="s">
         <v>119</v>
       </c>
@@ -5346,7 +5383,7 @@
       <c r="E33" t="s">
         <v>278</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="13">
         <v>28657</v>
       </c>
       <c r="G33" s="4"/>
@@ -5361,27 +5398,27 @@
       </c>
       <c r="K33" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.204703269067295</v>
+        <v>79.409472178117213</v>
       </c>
       <c r="L33" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>75.239449793590509</v>
+        <v>75.483412718846253</v>
       </c>
       <c r="M33" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.06552158206965</v>
+        <v>80.591658113807412</v>
       </c>
       <c r="N33" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>47.303543041322982</v>
+        <v>46.624632326326378</v>
       </c>
       <c r="O33" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>80.014468948130641</v>
+        <v>71.164868153292772</v>
       </c>
       <c r="P33" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.099620718470945</v>
+        <v>85.776080903291529</v>
       </c>
       <c r="Q33">
         <v>5.9</v>
@@ -5389,8 +5426,8 @@
       <c r="R33" t="s">
         <v>346</v>
       </c>
-      <c r="S33">
-        <v>139</v>
+      <c r="S33" t="s">
+        <v>355</v>
       </c>
       <c r="T33">
         <v>5.0999999999999996</v>
@@ -5409,42 +5446,42 @@
       </c>
       <c r="Y33" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>31.204703269067295</v>
+        <v>35.409472178117213</v>
       </c>
       <c r="Z33" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>35.239449793590509</v>
+        <v>35.483412718846253</v>
       </c>
       <c r="AA33" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>30.06552158206965</v>
+        <v>32.591658113807412</v>
       </c>
       <c r="AB33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>29.303543041322982</v>
+        <v>28.624632326326378</v>
       </c>
       <c r="AC33" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>56.668132540578398</v>
+        <v>44.753843951114526</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>30.144548286446774</v>
+        <v>34.286769402995446</v>
       </c>
       <c r="AE33" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>7.0875471076342462</v>
+        <v>7.1748549196530176</v>
       </c>
       <c r="AF33" s="8">
         <v>1482</v>
       </c>
-      <c r="AG33" s="8">
+      <c r="AG33" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>139.27087129938906</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH33" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>5.3812024580889286</v>
+        <v>5.3710533396868083</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>258</v>
@@ -5459,7 +5496,7 @@
         <v>41049</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38">
       <c r="A34" s="3" t="s">
         <v>120</v>
       </c>
@@ -5475,7 +5512,7 @@
       <c r="E34" t="s">
         <v>318</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="13">
         <v>31273</v>
       </c>
       <c r="G34" s="4"/>
@@ -5490,27 +5527,27 @@
       </c>
       <c r="K34" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.253137452235038</v>
+        <v>79.233420686720777</v>
       </c>
       <c r="L34" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>78.283852189859616</v>
+        <v>76.22939667714968</v>
       </c>
       <c r="M34" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.155323782544087</v>
+        <v>80.704509589697579</v>
       </c>
       <c r="N34" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>49.1364227660439</v>
+        <v>47.123986441704488</v>
       </c>
       <c r="O34" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>66.125585114405823</v>
+        <v>76.290691594109276</v>
       </c>
       <c r="P34" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.564821646057453</v>
+        <v>86.495762709398321</v>
       </c>
       <c r="Q34">
         <v>6.8</v>
@@ -5518,8 +5555,8 @@
       <c r="R34" t="s">
         <v>347</v>
       </c>
-      <c r="S34">
-        <v>142</v>
+      <c r="S34" t="s">
+        <v>353</v>
       </c>
       <c r="T34" t="s">
         <v>162</v>
@@ -5538,38 +5575,38 @@
       </c>
       <c r="Y34" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>9.2531374522350376</v>
+        <v>13.233420686720777</v>
       </c>
       <c r="Z34" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>18.283852189859616</v>
+        <v>16.22939667714968</v>
       </c>
       <c r="AA34" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>6.1553237825440874</v>
+        <v>8.7045095896975795</v>
       </c>
       <c r="AB34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>22.1364227660439</v>
+        <v>20.123986441704488</v>
       </c>
       <c r="AC34" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>25.133758473033307</v>
+        <v>37.815308090639157</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>4.1646485117858711</v>
+        <v>6.3818766922580545</v>
       </c>
       <c r="AE34" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>7.9728587069581058</v>
+        <v>7.5899161688261261</v>
       </c>
       <c r="AF34" s="8">
         <v>23</v>
       </c>
-      <c r="AG34" s="8">
+      <c r="AG34" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>142.31228861661404</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH34" s="7">
         <v>3.9</v>
@@ -5587,7 +5624,7 @@
         <v>82799</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:38">
       <c r="A35" s="3" t="s">
         <v>121</v>
       </c>
@@ -5603,7 +5640,7 @@
       <c r="E35" t="s">
         <v>278</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="13">
         <v>35361</v>
       </c>
       <c r="G35" s="4"/>
@@ -5618,27 +5655,27 @@
       </c>
       <c r="K35" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>53.32482316344624</v>
+        <v>53.27267326976613</v>
       </c>
       <c r="L35" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>53.824002837375886</v>
+        <v>51.32233494113342</v>
       </c>
       <c r="M35" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>53.277662060299235</v>
+        <v>52.452969413767462</v>
       </c>
       <c r="N35" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>31.686004094803693</v>
+        <v>30.548655579408162</v>
       </c>
       <c r="O35" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>54.191133712074709</v>
+        <v>53.784359254888358</v>
       </c>
       <c r="P35" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>58.244335441509243</v>
+        <v>56.126400230658533</v>
       </c>
       <c r="Q35">
         <v>7.8</v>
@@ -5646,8 +5683,8 @@
       <c r="R35" t="s">
         <v>348</v>
       </c>
-      <c r="S35">
-        <v>144</v>
+      <c r="S35" t="s">
+        <v>356</v>
       </c>
       <c r="T35">
         <v>3.6</v>
@@ -5666,27 +5703,27 @@
       </c>
       <c r="Y35" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>31.32482316344624</v>
+        <v>31.27267326976613</v>
       </c>
       <c r="Z35" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>33.824002837375886</v>
+        <v>31.32233494113342</v>
       </c>
       <c r="AA35" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>29.277662060299235</v>
+        <v>28.452969413767462</v>
       </c>
       <c r="AB35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>22.686004094803693</v>
+        <v>21.548655579408162</v>
       </c>
       <c r="AC35" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>45.492742034115579</v>
+        <v>42.319510025968022</v>
       </c>
       <c r="AD35" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>33.829350704002479</v>
+        <v>31.560941850900136</v>
       </c>
       <c r="AE35" s="7">
         <v>4.5</v>
@@ -5694,13 +5731,13 @@
       <c r="AF35" s="8">
         <v>117</v>
       </c>
-      <c r="AG35" s="8">
+      <c r="AG35" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>144.27691515873141</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH35" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.8327385131537275</v>
+        <v>3.865097258961141</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>263</v>
@@ -5715,7 +5752,7 @@
         <v>72572</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:38">
       <c r="A36" s="3" t="s">
         <v>122</v>
       </c>
@@ -5731,7 +5768,7 @@
       <c r="E36" t="s">
         <v>278</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="13">
         <v>28121</v>
       </c>
       <c r="G36" s="4"/>
@@ -5746,27 +5783,27 @@
       </c>
       <c r="K36" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.527971739139531</v>
+        <v>75.749252165439387</v>
       </c>
       <c r="L36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>75.909792862107651</v>
+        <v>75.233100202443694</v>
       </c>
       <c r="M36" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.185177927018216</v>
+        <v>78.64488642826764</v>
       </c>
       <c r="N36" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>46.151449044499081</v>
+        <v>43.379516311900005</v>
       </c>
       <c r="O36" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>73.015132515224025</v>
+        <v>76.103140319219762</v>
       </c>
       <c r="P36" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>85.248507882420071</v>
+        <v>85.390476677183187</v>
       </c>
       <c r="Q36">
         <v>6.9</v>
@@ -5774,8 +5811,8 @@
       <c r="R36" t="s">
         <v>349</v>
       </c>
-      <c r="S36">
-        <v>139</v>
+      <c r="S36" t="s">
+        <v>355</v>
       </c>
       <c r="T36">
         <v>4.2</v>
@@ -5794,27 +5831,27 @@
       </c>
       <c r="Y36" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>57.527971739139531</v>
+        <v>53.749252165439387</v>
       </c>
       <c r="Z36" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>55.909792862107651</v>
+        <v>55.233100202443694</v>
       </c>
       <c r="AA36" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>57.185177927018216</v>
+        <v>54.64488642826764</v>
       </c>
       <c r="AB36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>37.151449044499081</v>
+        <v>34.379516311900005</v>
       </c>
       <c r="AC36" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>60.512142741350772</v>
+        <v>62.836112025007239</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>58.881250539203769</v>
+        <v>58.461361176737164</v>
       </c>
       <c r="AE36" s="7">
         <v>4.0999999999999996</v>
@@ -5822,13 +5859,13 @@
       <c r="AF36" s="8">
         <v>381</v>
       </c>
-      <c r="AG36" s="8">
+      <c r="AG36" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>139.4747173458656</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH36" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>4.2925221217198484</v>
+        <v>4.4293486715174373</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>265</v>
@@ -5843,7 +5880,7 @@
         <v>49770</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:38">
       <c r="A37" s="3" t="s">
         <v>123</v>
       </c>
@@ -5859,7 +5896,7 @@
       <c r="E37" t="s">
         <v>278</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="13">
         <v>32157</v>
       </c>
       <c r="G37" s="4"/>
@@ -5874,27 +5911,27 @@
       </c>
       <c r="K37" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>54.56124082310383</v>
+        <v>52.099883008398216</v>
       </c>
       <c r="L37" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>54.872277887949096</v>
+        <v>51.848245847675891</v>
       </c>
       <c r="M37" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>55.045816343866797</v>
+        <v>56.166648294882336</v>
       </c>
       <c r="N37" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>33.204161086171474</v>
+        <v>35.128361123564304</v>
       </c>
       <c r="O37" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>52.939229012828903</v>
+        <v>49.884001932278167</v>
       </c>
       <c r="P37" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>58.843339331423238</v>
+        <v>58.138209572063055</v>
       </c>
       <c r="Q37">
         <v>8.4</v>
@@ -5902,8 +5939,8 @@
       <c r="R37" t="s">
         <v>350</v>
       </c>
-      <c r="S37">
-        <v>138</v>
+      <c r="S37" t="s">
+        <v>358</v>
       </c>
       <c r="T37">
         <v>3.9</v>
@@ -5922,42 +5959,42 @@
       </c>
       <c r="Y37" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>10.56124082310383</v>
+        <v>8.0998830083982156</v>
       </c>
       <c r="Z37" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>14.872277887949096</v>
+        <v>11.848245847675891</v>
       </c>
       <c r="AA37" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>7.0458163438667967</v>
+        <v>8.1666482948823358</v>
       </c>
       <c r="AB37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>15.204161086171474</v>
+        <v>17.128361123564304</v>
       </c>
       <c r="AC37" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>26.834558419969678</v>
+        <v>22.0336840498199</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>7.0183656549231292</v>
+        <v>5.3906854469409167</v>
       </c>
       <c r="AE37" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9.2101489306060742</v>
+        <v>9.2525029298981245</v>
       </c>
       <c r="AF37" s="8">
         <v>284</v>
       </c>
-      <c r="AG37" s="8">
+      <c r="AG37" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>138.41122621835888</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH37" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.9316602227957493</v>
+        <v>3.9539746980283077</v>
       </c>
       <c r="AI37" s="5" t="s">
         <v>272</v>
@@ -5972,7 +6009,7 @@
         <v>34404</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38">
       <c r="A38" s="3" t="s">
         <v>124</v>
       </c>
@@ -5988,7 +6025,7 @@
       <c r="E38" t="s">
         <v>281</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="13">
         <v>33361</v>
       </c>
       <c r="G38" s="4"/>
@@ -6003,27 +6040,27 @@
       </c>
       <c r="K38" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.455013820399557</v>
+        <v>79.269433716712868</v>
       </c>
       <c r="L38" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>75.790495118248188</v>
+        <v>75.219113746867436</v>
       </c>
       <c r="M38" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.425785576603545</v>
+        <v>81.207469009372815</v>
       </c>
       <c r="N38" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43.89823528149126</v>
+        <v>45.693404543007311</v>
       </c>
       <c r="O38" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>79.983726379083151</v>
+        <v>72.482834195525641</v>
       </c>
       <c r="P38" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.602303479596415</v>
+        <v>86.02124495101188</v>
       </c>
       <c r="Q38">
         <v>6.9</v>
@@ -6031,8 +6068,8 @@
       <c r="R38" t="s">
         <v>351</v>
       </c>
-      <c r="S38">
-        <v>140</v>
+      <c r="S38" t="s">
+        <v>354</v>
       </c>
       <c r="T38">
         <v>3.8</v>
@@ -6051,42 +6088,42 @@
       </c>
       <c r="Y38" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>13.455013820399557</v>
+        <v>13.269433716712868</v>
       </c>
       <c r="Z38" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>15.790495118248188</v>
+        <v>15.219113746867436</v>
       </c>
       <c r="AA38" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>9.4257855766035448</v>
+        <v>9.2074690093728151</v>
       </c>
       <c r="AB38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>16.89823528149126</v>
+        <v>18.693404543007311</v>
       </c>
       <c r="AC38" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>41.96810935780691</v>
+        <v>33.496134073869662</v>
       </c>
       <c r="AD38" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>7.7571497369595352</v>
+        <v>7.9878193381212874</v>
       </c>
       <c r="AE38" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8.2379325911272971</v>
+        <v>8.0810550242509773</v>
       </c>
       <c r="AF38" s="8">
         <v>229</v>
       </c>
-      <c r="AG38" s="8">
+      <c r="AG38" s="8" t="e">
         <f t="shared" ca="1" si="13"/>
-        <v>140.39017867733247</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH38" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.8629514652306614</v>
+        <v>3.9860435664284046</v>
       </c>
       <c r="AI38" s="5" t="s">
         <v>271</v>
@@ -6104,6 +6141,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6115,18 +6153,18 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>287</v>
       </c>
@@ -6134,7 +6172,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>290</v>
       </c>
@@ -6142,7 +6180,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>291</v>
       </c>
@@ -6150,7 +6188,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>293</v>
       </c>
@@ -6158,7 +6196,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>294</v>
       </c>
@@ -6166,7 +6204,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>296</v>
       </c>
@@ -6174,7 +6212,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>299</v>
       </c>
@@ -6182,7 +6220,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>303</v>
       </c>
@@ -6190,7 +6228,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>305</v>
       </c>
@@ -6198,7 +6236,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>306</v>
       </c>
@@ -6206,7 +6244,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>308</v>
       </c>
@@ -6214,7 +6252,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>310</v>
       </c>
@@ -6222,7 +6260,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>320</v>
       </c>
@@ -6230,7 +6268,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>322</v>
       </c>

--- a/data/messy_uc.xlsx
+++ b/data/messy_uc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pileggis\Documents\gh-personal\rmedicine-data-cleaning-2023\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30855879-F140-48B5-81ED-D5ED64A04739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEDC6EA-B47B-4B5B-BC05-C722596B3D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C3B41A98-E045-B641-B5DC-D433CA053FBE}"/>
   </bookViews>
@@ -1220,7 +1220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1234,7 +1234,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2114,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2E3CCE-D9A6-4043-B4E6-790885873B0A}">
   <dimension ref="A1:AL38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2272,7 +2271,7 @@
       <c r="E8" t="s">
         <v>278</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="4">
         <v>38359</v>
       </c>
       <c r="G8" s="4"/>
@@ -2287,27 +2286,27 @@
       </c>
       <c r="K8" s="8">
         <f ca="1">J8*25 + 5* RAND()</f>
-        <v>77.395707089687207</v>
+        <v>75.353380848880235</v>
       </c>
       <c r="L8" s="8">
         <f ca="1">J8* 25 + 6* RAND()</f>
-        <v>75.571492959177732</v>
+        <v>78.881378580334612</v>
       </c>
       <c r="M8" s="8">
         <f ca="1" xml:space="preserve"> J8*26 + 5 * RAND()</f>
-        <v>78.785710925765727</v>
+        <v>79.924644564055058</v>
       </c>
       <c r="N8" s="8">
         <f ca="1" xml:space="preserve"> J8 *14 + 10* RAND()</f>
-        <v>49.664470834109785</v>
+        <v>48.214577300275749</v>
       </c>
       <c r="O8" s="8">
         <f ca="1" xml:space="preserve"> J8 *22 + 15* RAND()</f>
-        <v>76.862692656240355</v>
+        <v>66.9178183661286</v>
       </c>
       <c r="P8" s="8">
         <f ca="1">J8 * 28 + 4* RAND()</f>
-        <v>87.037412004128825</v>
+        <v>87.530944174394577</v>
       </c>
       <c r="Q8">
         <v>8.1999999999999993</v>
@@ -2335,31 +2334,31 @@
       </c>
       <c r="Y8" s="8">
         <f ca="1" xml:space="preserve"> K8-22*(J8-X8)</f>
-        <v>11.395707089687207</v>
+        <v>9.353380848880235</v>
       </c>
       <c r="Z8" s="8">
         <f ca="1" xml:space="preserve"> L8-20*(J8-X8)</f>
-        <v>15.571492959177732</v>
+        <v>18.881378580334612</v>
       </c>
       <c r="AA8" s="8">
         <f ca="1" xml:space="preserve"> M8-24*(J8-X8)</f>
-        <v>6.7857109257657271</v>
+        <v>7.9246445640550576</v>
       </c>
       <c r="AB8" s="8">
         <f ca="1" xml:space="preserve"> N8-9*(J8-X8)</f>
-        <v>22.664470834109785</v>
+        <v>21.214577300275749</v>
       </c>
       <c r="AC8" s="8">
         <f ca="1" xml:space="preserve"> O8-14*(J8-X8)+ 6*RAND()</f>
-        <v>38.794885130798008</v>
+        <v>26.22976077257854</v>
       </c>
       <c r="AD8" s="8">
         <f ca="1" xml:space="preserve"> P8-27*(J8-X8)+ 3*RAND()</f>
-        <v>7.7243079127115006</v>
+        <v>6.6974606598540669</v>
       </c>
       <c r="AE8" s="7">
         <f ca="1">IF(B8 ="upa", Q8 +1.5* RAND()*0.8, Q8 +1.5* RAND())</f>
-        <v>8.5991867886566062</v>
+        <v>9.0222714439999567</v>
       </c>
       <c r="AF8" s="8">
         <v>201</v>
@@ -2370,7 +2369,7 @@
       </c>
       <c r="AH8" s="7">
         <f ca="1">T8 + 0.3* RAND()</f>
-        <v>3.8442296870166284</v>
+        <v>3.9176762538014822</v>
       </c>
       <c r="AI8" s="5" t="s">
         <v>192</v>
@@ -2401,7 +2400,7 @@
       <c r="E9" t="s">
         <v>278</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="4">
         <v>13618</v>
       </c>
       <c r="G9" s="4"/>
@@ -2416,27 +2415,27 @@
       </c>
       <c r="K9" s="8">
         <f t="shared" ref="K9:K38" ca="1" si="0">J9*25 + 5* RAND()</f>
-        <v>52.473553638474939</v>
+        <v>51.845634529023101</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" ref="L9:L38" ca="1" si="1">J9* 25 + 6* RAND()</f>
-        <v>54.111212500317251</v>
+        <v>52.803456190138355</v>
       </c>
       <c r="M9" s="8">
         <f t="shared" ref="M9:M38" ca="1" si="2" xml:space="preserve"> J9*26 + 5 * RAND()</f>
-        <v>53.429761211289502</v>
+        <v>55.751920082900199</v>
       </c>
       <c r="N9" s="8">
         <f t="shared" ref="N9:N38" ca="1" si="3" xml:space="preserve"> J9 *14 + 10* RAND()</f>
-        <v>30.954408451998606</v>
+        <v>35.189819748792615</v>
       </c>
       <c r="O9" s="8">
         <f t="shared" ref="O9:O38" ca="1" si="4" xml:space="preserve"> J9 *22 + 15* RAND()</f>
-        <v>50.728991566923426</v>
+        <v>49.589706426259539</v>
       </c>
       <c r="P9" s="8">
         <f t="shared" ref="P9:P38" ca="1" si="5">J9 * 28 + 4* RAND()</f>
-        <v>56.573732071317323</v>
+        <v>58.860817550868767</v>
       </c>
       <c r="Q9">
         <v>10.1</v>
@@ -2464,31 +2463,31 @@
       </c>
       <c r="Y9" s="8">
         <f t="shared" ref="Y9:Y38" ca="1" si="6" xml:space="preserve"> K9-22*(J9-X9)</f>
-        <v>30.473553638474939</v>
+        <v>29.845634529023101</v>
       </c>
       <c r="Z9" s="8">
         <f t="shared" ref="Z9:Z38" ca="1" si="7" xml:space="preserve"> L9-20*(J9-X9)</f>
-        <v>34.111212500317251</v>
+        <v>32.803456190138355</v>
       </c>
       <c r="AA9" s="8">
         <f t="shared" ref="AA9:AA38" ca="1" si="8" xml:space="preserve"> M9-24*(J9-X9)</f>
-        <v>29.429761211289502</v>
+        <v>31.751920082900199</v>
       </c>
       <c r="AB9" s="8">
         <f t="shared" ref="AB9:AB38" ca="1" si="9" xml:space="preserve"> N9-9*(J9-X9)</f>
-        <v>21.954408451998606</v>
+        <v>26.189819748792615</v>
       </c>
       <c r="AC9" s="8">
         <f t="shared" ref="AC9:AC38" ca="1" si="10" xml:space="preserve"> O9-14*(J9-X9)+ 6*RAND()</f>
-        <v>37.015601200697233</v>
+        <v>39.336355182967225</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" ref="AD9:AD38" ca="1" si="11" xml:space="preserve"> P9-27*(J9-X9)+ 3*RAND()</f>
-        <v>31.372902794518804</v>
+        <v>34.089470984088095</v>
       </c>
       <c r="AE9" s="7">
         <f t="shared" ref="AE9:AE38" ca="1" si="12">IF(B9 ="upa", Q9 +1.5* RAND()*0.8, Q9 +1.5* RAND())</f>
-        <v>10.644691386643276</v>
+        <v>11.086802118152924</v>
       </c>
       <c r="AF9" s="8">
         <v>340</v>
@@ -2499,7 +2498,7 @@
       </c>
       <c r="AH9" s="7">
         <f t="shared" ref="AH9:AH38" ca="1" si="14">T9 + 0.3* RAND()</f>
-        <v>4.1756809188999311</v>
+        <v>4.2466410585746237</v>
       </c>
       <c r="AI9" s="5" t="s">
         <v>195</v>
@@ -2530,7 +2529,7 @@
       <c r="E10" t="s">
         <v>279</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="4">
         <v>16959</v>
       </c>
       <c r="G10" s="4"/>
@@ -2545,27 +2544,27 @@
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>28.518112793694499</v>
+        <v>29.005432419381908</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>27.053633265569317</v>
+        <v>28.087427151826272</v>
       </c>
       <c r="M10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>30.577025838545786</v>
+        <v>30.012124196427703</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>14.44579435445258</v>
+        <v>17.960671311566937</v>
       </c>
       <c r="O10" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>28.793691111661211</v>
+        <v>28.50663297441972</v>
       </c>
       <c r="P10" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>31.877770585570026</v>
+        <v>28.014245141812683</v>
       </c>
       <c r="Q10">
         <v>5.5</v>
@@ -2593,27 +2592,27 @@
       </c>
       <c r="Y10" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>28.518112793694499</v>
+        <v>29.005432419381908</v>
       </c>
       <c r="Z10" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>27.053633265569317</v>
+        <v>28.087427151826272</v>
       </c>
       <c r="AA10" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>30.577025838545786</v>
+        <v>30.012124196427703</v>
       </c>
       <c r="AB10" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>14.44579435445258</v>
+        <v>17.960671311566937</v>
       </c>
       <c r="AC10" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>29.336190842822745</v>
+        <v>31.029002950471163</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>33.563118436128839</v>
+        <v>28.163906236855443</v>
       </c>
       <c r="AE10" s="7">
         <v>3</v>
@@ -2627,7 +2626,7 @@
       </c>
       <c r="AH10" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>4.4319755120434223</v>
+        <v>4.4776806526215358</v>
       </c>
       <c r="AI10" s="5" t="s">
         <v>198</v>
@@ -2658,7 +2657,7 @@
       <c r="E11" t="s">
         <v>278</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="4">
         <v>23206</v>
       </c>
       <c r="G11" s="4"/>
@@ -2673,27 +2672,27 @@
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.58245982952684</v>
+        <v>76.35963837696319</v>
       </c>
       <c r="L11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>79.335195839389684</v>
+        <v>78.862061810017536</v>
       </c>
       <c r="M11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.886180167947145</v>
+        <v>82.844771947570862</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>51.835917542399272</v>
+        <v>51.144819362576172</v>
       </c>
       <c r="O11" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>80.181408383227534</v>
+        <v>77.183154712163983</v>
       </c>
       <c r="P11" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.034990715329002</v>
+        <v>87.183874255488661</v>
       </c>
       <c r="Q11">
         <v>4.7</v>
@@ -2721,31 +2720,31 @@
       </c>
       <c r="Y11" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>32.58245982952684</v>
+        <v>32.35963837696319</v>
       </c>
       <c r="Z11" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>39.335195839389684</v>
+        <v>38.862061810017536</v>
       </c>
       <c r="AA11" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>32.886180167947145</v>
+        <v>34.844771947570862</v>
       </c>
       <c r="AB11" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>33.835917542399272</v>
+        <v>33.144819362576172</v>
       </c>
       <c r="AC11" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>55.964249090294992</v>
+        <v>53.220564050596202</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>34.716601709177581</v>
+        <v>35.454709639077308</v>
       </c>
       <c r="AE11" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>5.027880204555518</v>
+        <v>4.9775734522474373</v>
       </c>
       <c r="AF11" s="8">
         <v>327</v>
@@ -2756,7 +2755,7 @@
       </c>
       <c r="AH11" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.5350948530846789</v>
+        <v>3.5863802171115973</v>
       </c>
       <c r="AI11" s="5" t="s">
         <v>201</v>
@@ -2787,7 +2786,7 @@
       <c r="E12" t="s">
         <v>280</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="4">
         <v>28622</v>
       </c>
       <c r="G12" s="4"/>
@@ -2802,27 +2801,27 @@
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>77.078132301936236</v>
+        <v>76.334395832019339</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>77.859580986363056</v>
+        <v>78.09477556283278</v>
       </c>
       <c r="M12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.028365990704103</v>
+        <v>81.234225210717653</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43.948922633756297</v>
+        <v>44.650601400773695</v>
       </c>
       <c r="O12" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>71.759208903120197</v>
+        <v>66.089924012239592</v>
       </c>
       <c r="P12" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.758663510865873</v>
+        <v>85.215041939119729</v>
       </c>
       <c r="Q12">
         <v>8.9</v>
@@ -2850,27 +2849,27 @@
       </c>
       <c r="Y12" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>55.078132301936236</v>
+        <v>54.334395832019339</v>
       </c>
       <c r="Z12" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>57.859580986363056</v>
+        <v>58.09477556283278</v>
       </c>
       <c r="AA12" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>56.028365990704103</v>
+        <v>57.234225210717653</v>
       </c>
       <c r="AB12" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>34.948922633756297</v>
+        <v>35.650601400773695</v>
       </c>
       <c r="AC12" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>63.018882114525852</v>
+        <v>53.34456349670883</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>61.633098344746031</v>
+        <v>60.71780913486478</v>
       </c>
       <c r="AE12" s="7">
         <v>4.8</v>
@@ -2884,7 +2883,7 @@
       </c>
       <c r="AH12" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>4.0714819133176592</v>
+        <v>4.1903698021980116</v>
       </c>
       <c r="AI12" s="5" t="s">
         <v>204</v>
@@ -2915,7 +2914,7 @@
       <c r="E13" t="s">
         <v>281</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="4">
         <v>33697</v>
       </c>
       <c r="G13" s="4"/>
@@ -2930,27 +2929,27 @@
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>52.690537179484288</v>
+        <v>53.386501302937816</v>
       </c>
       <c r="L13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>53.932627568006758</v>
+        <v>54.574682326526101</v>
       </c>
       <c r="M13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>54.306973375632992</v>
+        <v>52.934751994397239</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>32.735726709985457</v>
+        <v>31.659590258467595</v>
       </c>
       <c r="O13" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>46.837736076125836</v>
+        <v>57.790319955754995</v>
       </c>
       <c r="P13" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>56.276592489518407</v>
+        <v>58.206380126271654</v>
       </c>
       <c r="Q13">
         <v>9.3000000000000007</v>
@@ -2978,31 +2977,31 @@
       </c>
       <c r="Y13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>30.690537179484288</v>
+        <v>31.386501302937816</v>
       </c>
       <c r="Z13" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>33.932627568006758</v>
+        <v>34.574682326526101</v>
       </c>
       <c r="AA13" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>30.306973375632992</v>
+        <v>28.934751994397239</v>
       </c>
       <c r="AB13" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>23.735726709985457</v>
+        <v>22.659590258467595</v>
       </c>
       <c r="AC13" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>35.823768389183492</v>
+        <v>44.332838097343171</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>29.834076609592881</v>
+        <v>32.35099385229492</v>
       </c>
       <c r="AE13" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9.8411770687840185</v>
+        <v>10.487267983188813</v>
       </c>
       <c r="AF13" s="8">
         <v>348</v>
@@ -3013,7 +3012,7 @@
       </c>
       <c r="AH13" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>4.4564715399867412</v>
+        <v>4.5030140552832183</v>
       </c>
       <c r="AI13" s="5" t="s">
         <v>207</v>
@@ -3044,7 +3043,7 @@
       <c r="E14" t="s">
         <v>282</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="4">
         <v>20323</v>
       </c>
       <c r="G14" s="4"/>
@@ -3059,27 +3058,27 @@
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>78.029635813522603</v>
+        <v>75.382995948056376</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>80.314666841608073</v>
+        <v>80.082115996637242</v>
       </c>
       <c r="M14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.405874884577472</v>
+        <v>79.247517849737193</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>44.450003619478046</v>
+        <v>51.226856036917866</v>
       </c>
       <c r="O14" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>72.174223680967174</v>
+        <v>73.744703401082006</v>
       </c>
       <c r="P14" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.869574929335613</v>
+        <v>86.465125336678085</v>
       </c>
       <c r="Q14">
         <v>5.6</v>
@@ -3107,31 +3106,31 @@
       </c>
       <c r="Y14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>56.029635813522603</v>
+        <v>53.382995948056376</v>
       </c>
       <c r="Z14" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>60.314666841608073</v>
+        <v>60.082115996637242</v>
       </c>
       <c r="AA14" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>56.405874884577472</v>
+        <v>55.247517849737193</v>
       </c>
       <c r="AB14" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>35.450003619478046</v>
+        <v>42.226856036917866</v>
       </c>
       <c r="AC14" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>59.187143457162918</v>
+        <v>65.698843135356029</v>
       </c>
       <c r="AD14" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>60.272050880074822</v>
+        <v>60.911434750452962</v>
       </c>
       <c r="AE14" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>5.8698426976681954</v>
+        <v>6.211863450467038</v>
       </c>
       <c r="AF14" s="8">
         <v>181</v>
@@ -3142,7 +3141,7 @@
       </c>
       <c r="AH14" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.8040083057831025</v>
+        <v>3.7121189213199015</v>
       </c>
       <c r="AI14" s="5" t="s">
         <v>210</v>
@@ -3173,7 +3172,7 @@
       <c r="E15" t="s">
         <v>283</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="4">
         <v>27283</v>
       </c>
       <c r="G15" s="4"/>
@@ -3188,27 +3187,27 @@
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.417740689710314</v>
+        <v>77.502712645960457</v>
       </c>
       <c r="L15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>78.162622240437145</v>
+        <v>80.330549574087996</v>
       </c>
       <c r="M15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.619855221663997</v>
+        <v>78.069576812980117</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>45.343555656816527</v>
+        <v>51.569655227287313</v>
       </c>
       <c r="O15" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>80.961274998260961</v>
+        <v>74.591699105959663</v>
       </c>
       <c r="P15" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.815926763435428</v>
+        <v>87.629348982318163</v>
       </c>
       <c r="Q15">
         <v>9.6999999999999993</v>
@@ -3236,27 +3235,27 @@
       </c>
       <c r="Y15" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>57.417740689710314</v>
+        <v>55.502712645960457</v>
       </c>
       <c r="Z15" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>58.162622240437145</v>
+        <v>60.330549574087996</v>
       </c>
       <c r="AA15" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>58.619855221663997</v>
+        <v>54.069576812980117</v>
       </c>
       <c r="AB15" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>36.343555656816527</v>
+        <v>42.569655227287313</v>
       </c>
       <c r="AC15" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>70.871157842071199</v>
+        <v>62.804330786921938</v>
       </c>
       <c r="AD15" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>59.517726400153428</v>
+        <v>61.753735844850844</v>
       </c>
       <c r="AE15" s="7">
         <v>4.9000000000000004</v>
@@ -3270,7 +3269,7 @@
       </c>
       <c r="AH15" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>4.6028187814314716</v>
+        <v>4.6739433993045765</v>
       </c>
       <c r="AI15" s="5" t="s">
         <v>213</v>
@@ -3301,7 +3300,7 @@
       <c r="E16" t="s">
         <v>278</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="4">
         <v>31000</v>
       </c>
       <c r="G16" s="4"/>
@@ -3316,27 +3315,27 @@
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>50.457859258444074</v>
+        <v>50.804561078752769</v>
       </c>
       <c r="L16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>52.033617489181125</v>
+        <v>54.522693883565701</v>
       </c>
       <c r="M16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>54.081207277683689</v>
+        <v>54.448041885969161</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>37.112809023392508</v>
+        <v>35.277107849750216</v>
       </c>
       <c r="O16" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>57.504151885146584</v>
+        <v>44.369203303817784</v>
       </c>
       <c r="P16" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>57.684203244764717</v>
+        <v>57.275346833851245</v>
       </c>
       <c r="Q16">
         <v>8.3000000000000007</v>
@@ -3364,31 +3363,31 @@
       </c>
       <c r="Y16" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>6.4578592584440742</v>
+        <v>6.8045610787527693</v>
       </c>
       <c r="Z16" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>12.033617489181125</v>
+        <v>14.522693883565701</v>
       </c>
       <c r="AA16" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>6.0812072776836885</v>
+        <v>6.4480418859691611</v>
       </c>
       <c r="AB16" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>19.112809023392508</v>
+        <v>17.277107849750216</v>
       </c>
       <c r="AC16" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>35.271862195951869</v>
+        <v>21.087021696907239</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6.4408767835455043</v>
+        <v>3.5341024329152146</v>
       </c>
       <c r="AE16" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9.3186188309606344</v>
+        <v>8.5438849647124915</v>
       </c>
       <c r="AF16" s="8">
         <v>135</v>
@@ -3399,7 +3398,7 @@
       </c>
       <c r="AH16" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>4.4311454099701493</v>
+        <v>4.4478713503062721</v>
       </c>
       <c r="AI16" s="5" t="s">
         <v>215</v>
@@ -3430,7 +3429,7 @@
       <c r="E17" t="s">
         <v>278</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="4">
         <v>26653</v>
       </c>
       <c r="G17" s="4"/>
@@ -3445,27 +3444,27 @@
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>77.374157230637337</v>
+        <v>79.573433483750605</v>
       </c>
       <c r="L17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>79.766075332759044</v>
+        <v>76.536073311291716</v>
       </c>
       <c r="M17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>79.074002813637364</v>
+        <v>81.571362469684672</v>
       </c>
       <c r="N17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>51.10591397561268</v>
+        <v>42.996239346701834</v>
       </c>
       <c r="O17" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>78.540319612546881</v>
+        <v>80.687718540224495</v>
       </c>
       <c r="P17" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.051557487358778</v>
+        <v>85.247210711673603</v>
       </c>
       <c r="Q17">
         <v>7.6</v>
@@ -3493,27 +3492,27 @@
       </c>
       <c r="Y17" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>33.374157230637337</v>
+        <v>35.573433483750605</v>
       </c>
       <c r="Z17" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>39.766075332759044</v>
+        <v>36.536073311291716</v>
       </c>
       <c r="AA17" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>31.074002813637364</v>
+        <v>33.571362469684672</v>
       </c>
       <c r="AB17" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>33.10591397561268</v>
+        <v>24.996239346701834</v>
       </c>
       <c r="AC17" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>54.196357092228794</v>
+        <v>57.0852575397004</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>33.288576296959846</v>
+        <v>33.609819438433846</v>
       </c>
       <c r="AE17" s="7">
         <v>4.4000000000000004</v>
@@ -3527,7 +3526,7 @@
       </c>
       <c r="AH17" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.8766705236733965</v>
+        <v>4.0631416306129786</v>
       </c>
       <c r="AI17" s="5" t="s">
         <v>218</v>
@@ -3558,7 +3557,7 @@
       <c r="E18" t="s">
         <v>284</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="4">
         <v>34617</v>
       </c>
       <c r="G18" s="4"/>
@@ -3573,27 +3572,27 @@
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>77.447421245422476</v>
+        <v>78.312065895060258</v>
       </c>
       <c r="L18" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>76.098985004396113</v>
+        <v>79.537463682632335</v>
       </c>
       <c r="M18" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.770126928081197</v>
+        <v>80.299313969473744</v>
       </c>
       <c r="N18" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>44.676959457398759</v>
+        <v>44.367590059495143</v>
       </c>
       <c r="O18" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>71.055717729270583</v>
+        <v>70.170863328847489</v>
       </c>
       <c r="P18" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>85.214116555222731</v>
+        <v>87.052028328397824</v>
       </c>
       <c r="Q18">
         <v>9.1999999999999993</v>
@@ -3621,31 +3620,31 @@
       </c>
       <c r="Y18" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>11.447421245422476</v>
+        <v>12.312065895060258</v>
       </c>
       <c r="Z18" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>16.098985004396113</v>
+        <v>19.537463682632335</v>
       </c>
       <c r="AA18" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>6.7701269280811971</v>
+        <v>8.2993139694737437</v>
       </c>
       <c r="AB18" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>17.676959457398759</v>
+        <v>17.367590059495143</v>
       </c>
       <c r="AC18" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>32.034063339102154</v>
+        <v>28.859062538961922</v>
       </c>
       <c r="AD18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6.9605647288648838</v>
+        <v>7.9424795688286824</v>
       </c>
       <c r="AE18" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>10.017911529361267</v>
+        <v>9.8416690508245441</v>
       </c>
       <c r="AF18" s="8">
         <v>288</v>
@@ -3656,7 +3655,7 @@
       </c>
       <c r="AH18" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.6103003129935454</v>
+        <v>3.7225466865155834</v>
       </c>
       <c r="AI18" s="5" t="s">
         <v>221</v>
@@ -3687,7 +3686,7 @@
       <c r="E19" t="s">
         <v>278</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="4">
         <v>34290</v>
       </c>
       <c r="G19" s="4"/>
@@ -3702,27 +3701,27 @@
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.141565825502497</v>
+        <v>75.701060401100264</v>
       </c>
       <c r="L19" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>78.268419270573261</v>
+        <v>80.296890163467978</v>
       </c>
       <c r="M19" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>79.833292038267828</v>
+        <v>82.996641397622383</v>
       </c>
       <c r="N19" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>44.696465100568531</v>
+        <v>46.445273272731413</v>
       </c>
       <c r="O19" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>77.647962858182055</v>
+        <v>66.173268316463165</v>
       </c>
       <c r="P19" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.289315535861746</v>
+        <v>84.025569258897633</v>
       </c>
       <c r="Q19">
         <v>11.5</v>
@@ -3750,31 +3749,31 @@
       </c>
       <c r="Y19" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>31.141565825502497</v>
+        <v>31.701060401100264</v>
       </c>
       <c r="Z19" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>38.268419270573261</v>
+        <v>40.296890163467978</v>
       </c>
       <c r="AA19" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>31.833292038267828</v>
+        <v>34.996641397622383</v>
       </c>
       <c r="AB19" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>26.696465100568531</v>
+        <v>28.445273272731413</v>
       </c>
       <c r="AC19" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>50.485543251692754</v>
+        <v>43.693213262803319</v>
       </c>
       <c r="AD19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>34.899390159604039</v>
+        <v>30.059889683274342</v>
       </c>
       <c r="AE19" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>12.578028177035019</v>
+        <v>11.653817679313516</v>
       </c>
       <c r="AF19" s="8">
         <v>339</v>
@@ -3785,7 +3784,7 @@
       </c>
       <c r="AH19" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.644618951821466</v>
+        <v>3.4925428930847642</v>
       </c>
       <c r="AI19" s="5" t="s">
         <v>224</v>
@@ -3816,7 +3815,7 @@
       <c r="E20" t="s">
         <v>278</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="4">
         <v>17590</v>
       </c>
       <c r="G20" s="4"/>
@@ -3831,27 +3830,27 @@
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.784403687982433</v>
+        <v>75.916414265916728</v>
       </c>
       <c r="L20" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>77.131267106814761</v>
+        <v>79.000570958494919</v>
       </c>
       <c r="M20" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.650641893852949</v>
+        <v>79.404214631688049</v>
       </c>
       <c r="N20" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>51.811385434136952</v>
+        <v>51.490875163830644</v>
       </c>
       <c r="O20" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>80.709060996704466</v>
+        <v>78.879706570039758</v>
       </c>
       <c r="P20" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>85.707746124584091</v>
+        <v>85.336184290726621</v>
       </c>
       <c r="Q20">
         <v>10.199999999999999</v>
@@ -3879,31 +3878,31 @@
       </c>
       <c r="Y20" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>32.784403687982433</v>
+        <v>31.916414265916728</v>
       </c>
       <c r="Z20" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>37.131267106814761</v>
+        <v>39.000570958494919</v>
       </c>
       <c r="AA20" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>34.650641893852949</v>
+        <v>31.404214631688049</v>
       </c>
       <c r="AB20" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>33.811385434136952</v>
+        <v>33.490875163830644</v>
       </c>
       <c r="AC20" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>56.455468749139939</v>
+        <v>53.548296507492232</v>
       </c>
       <c r="AD20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>32.046904204249962</v>
+        <v>31.823897455301598</v>
       </c>
       <c r="AE20" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>10.243360117622775</v>
+        <v>10.531700694352894</v>
       </c>
       <c r="AF20" s="8">
         <v>321</v>
@@ -3914,7 +3913,7 @@
       </c>
       <c r="AH20" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.9652523121028422</v>
+        <v>4.1458072809498425</v>
       </c>
       <c r="AI20" s="5" t="s">
         <v>227</v>
@@ -3945,7 +3944,7 @@
       <c r="E21" t="s">
         <v>279</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="4">
         <v>24219</v>
       </c>
       <c r="G21" s="4"/>
@@ -3960,27 +3959,27 @@
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>77.915797294194348</v>
+        <v>78.421230015592826</v>
       </c>
       <c r="L21" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>79.33297175539461</v>
+        <v>77.40990751963389</v>
       </c>
       <c r="M21" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.647161775440026</v>
+        <v>78.973151329817128</v>
       </c>
       <c r="N21" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>50.518066209952366</v>
+        <v>45.125466586526215</v>
       </c>
       <c r="O21" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>71.848325505806216</v>
+        <v>71.739706630412357</v>
       </c>
       <c r="P21" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.745678547314128</v>
+        <v>86.754200308891285</v>
       </c>
       <c r="Q21">
         <v>106</v>
@@ -4008,27 +4007,27 @@
       </c>
       <c r="Y21" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>55.915797294194348</v>
+        <v>56.421230015592826</v>
       </c>
       <c r="Z21" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>59.33297175539461</v>
+        <v>57.40990751963389</v>
       </c>
       <c r="AA21" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>56.647161775440026</v>
+        <v>54.973151329817128</v>
       </c>
       <c r="AB21" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>41.518066209952366</v>
+        <v>36.125466586526215</v>
       </c>
       <c r="AC21" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>60.495800150811107</v>
+        <v>61.209235390962107</v>
       </c>
       <c r="AD21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>63.032422627810284</v>
+        <v>60.32543371259986</v>
       </c>
       <c r="AE21" s="7">
         <v>5.3</v>
@@ -4042,7 +4041,7 @@
       </c>
       <c r="AH21" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>4.6489819396672445</v>
+        <v>4.7970363039258279</v>
       </c>
       <c r="AI21" s="5" t="s">
         <v>229</v>
@@ -4073,7 +4072,7 @@
       <c r="E22" t="s">
         <v>285</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="4">
         <v>28713</v>
       </c>
       <c r="G22" s="4"/>
@@ -4088,27 +4087,27 @@
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>50.387849082820146</v>
+        <v>54.28894969700297</v>
       </c>
       <c r="L22" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>53.018172286378302</v>
+        <v>50.49304153901587</v>
       </c>
       <c r="M22" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>56.122476334359582</v>
+        <v>56.066773727408382</v>
       </c>
       <c r="N22" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>31.578424021558462</v>
+        <v>37.850366217993248</v>
       </c>
       <c r="O22" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>51.582424456172987</v>
+        <v>47.523590636475568</v>
       </c>
       <c r="P22" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>59.070410924074075</v>
+        <v>57.154787476427806</v>
       </c>
       <c r="Q22">
         <v>10.1</v>
@@ -4136,19 +4135,19 @@
       </c>
       <c r="Y22" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>6.3878490828201464</v>
+        <v>10.28894969700297</v>
       </c>
       <c r="Z22" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>13.018172286378302</v>
+        <v>10.49304153901587</v>
       </c>
       <c r="AA22" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>8.1224763343595825</v>
+        <v>8.0667737274083819</v>
       </c>
       <c r="AB22" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>13.578424021558462</v>
+        <v>19.850366217993248</v>
       </c>
       <c r="AC22" s="8" t="s">
         <v>311</v>
@@ -4158,7 +4157,7 @@
       </c>
       <c r="AE22" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>10.163752904966787</v>
+        <v>10.737372640790719</v>
       </c>
       <c r="AF22" s="8">
         <v>216</v>
@@ -4169,7 +4168,7 @@
       </c>
       <c r="AH22" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>4.4097848654141973</v>
+        <v>4.3682980521944197</v>
       </c>
       <c r="AI22" s="5" t="s">
         <v>232</v>
@@ -4188,7 +4187,7 @@
       <c r="A23" s="3"/>
       <c r="C23" s="8"/>
       <c r="D23" s="1"/>
-      <c r="F23" s="13"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
@@ -4227,7 +4226,7 @@
       <c r="E24" t="s">
         <v>279</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="4">
         <v>36096</v>
       </c>
       <c r="G24" s="4"/>
@@ -4242,27 +4241,27 @@
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>78.457035085402879</v>
+        <v>79.360849832720291</v>
       </c>
       <c r="L24" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>75.029593872930235</v>
+        <v>78.541761453458122</v>
       </c>
       <c r="M24" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.691454797988897</v>
+        <v>81.921000939836986</v>
       </c>
       <c r="N24" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>46.207467342302259</v>
+        <v>43.165396271226555</v>
       </c>
       <c r="O24" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>78.03516212705523</v>
+        <v>74.885707176216911</v>
       </c>
       <c r="P24" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.677456888914676</v>
+        <v>87.714831869507194</v>
       </c>
       <c r="Q24">
         <v>7.3</v>
@@ -4290,31 +4289,31 @@
       </c>
       <c r="Y24" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>34.457035085402879</v>
+        <v>35.360849832720291</v>
       </c>
       <c r="Z24" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>35.029593872930235</v>
+        <v>38.541761453458122</v>
       </c>
       <c r="AA24" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>30.691454797988897</v>
+        <v>33.921000939836986</v>
       </c>
       <c r="AB24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>28.207467342302259</v>
+        <v>25.165396271226555</v>
       </c>
       <c r="AC24" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>51.275274885807043</v>
+        <v>49.500580614048481</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>33.022501797020254</v>
+        <v>34.499933305057652</v>
       </c>
       <c r="AE24" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8.5472020234253865</v>
+        <v>7.4071896849526553</v>
       </c>
       <c r="AF24" s="8">
         <v>102</v>
@@ -4325,7 +4324,7 @@
       </c>
       <c r="AH24" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>4.1190084773109543</v>
+        <v>4.0251941403787859</v>
       </c>
       <c r="AI24" s="5" t="s">
         <v>235</v>
@@ -4356,7 +4355,7 @@
       <c r="E25" t="s">
         <v>278</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="4">
         <v>36900</v>
       </c>
       <c r="G25" s="4"/>
@@ -4371,27 +4370,27 @@
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.459121796355134</v>
+        <v>77.689157693019382</v>
       </c>
       <c r="L25" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>80.723603349104579</v>
+        <v>76.461605798421488</v>
       </c>
       <c r="M25" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.752868243610038</v>
+        <v>79.110692515011948</v>
       </c>
       <c r="N25" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>44.269845507283996</v>
+        <v>45.058949781053336</v>
       </c>
       <c r="O25" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>72.502498913579004</v>
+        <v>69.6035461962272</v>
       </c>
       <c r="P25" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.303705679798526</v>
+        <v>85.547361175858256</v>
       </c>
       <c r="Q25">
         <v>8.6</v>
@@ -4419,31 +4418,31 @@
       </c>
       <c r="Y25" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>10.459121796355134</v>
+        <v>11.689157693019382</v>
       </c>
       <c r="Z25" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>20.723603349104579</v>
+        <v>16.461605798421488</v>
       </c>
       <c r="AA25" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>9.7528682436100382</v>
+        <v>7.110692515011948</v>
       </c>
       <c r="AB25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>17.269845507283996</v>
+        <v>18.058949781053336</v>
       </c>
       <c r="AC25" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>32.924102029547278</v>
+        <v>30.209085604366262</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>5.7920580759706937</v>
+        <v>5.1828315316218108</v>
       </c>
       <c r="AE25" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9.5696456731932891</v>
+        <v>9.0357951474821743</v>
       </c>
       <c r="AF25" s="8">
         <v>224</v>
@@ -4483,7 +4482,7 @@
       <c r="E26" t="s">
         <v>278</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="4">
         <v>34400</v>
       </c>
       <c r="G26" s="4"/>
@@ -4498,27 +4497,27 @@
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.206058971795898</v>
+        <v>77.965341796764989</v>
       </c>
       <c r="L26" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>80.875427328195997</v>
+        <v>79.606770559442609</v>
       </c>
       <c r="M26" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.255915895513581</v>
+        <v>81.923137387453892</v>
       </c>
       <c r="N26" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43.028910847177727</v>
+        <v>44.87325121133069</v>
       </c>
       <c r="O26" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>67.494980887131518</v>
+        <v>72.967085852819565</v>
       </c>
       <c r="P26" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.937699455633108</v>
+        <v>86.942105148185689</v>
       </c>
       <c r="Q26">
         <v>5.7</v>
@@ -4546,27 +4545,27 @@
       </c>
       <c r="Y26" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>57.206058971795898</v>
+        <v>55.965341796764989</v>
       </c>
       <c r="Z26" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>60.875427328195997</v>
+        <v>59.606770559442609</v>
       </c>
       <c r="AA26" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>58.255915895513581</v>
+        <v>57.923137387453892</v>
       </c>
       <c r="AB26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>34.028910847177727</v>
+        <v>35.87325121133069</v>
       </c>
       <c r="AC26" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>56.791138868722925</v>
+        <v>59.213101229998259</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>61.760177389133482</v>
+        <v>62.919277506973444</v>
       </c>
       <c r="AE26" s="7">
         <v>3.2</v>
@@ -4580,7 +4579,7 @@
       </c>
       <c r="AH26" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.8082053551602635</v>
+        <v>4.0003497987740291</v>
       </c>
       <c r="AI26" s="5" t="s">
         <v>240</v>
@@ -4611,7 +4610,7 @@
       <c r="E27" t="s">
         <v>278</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="4">
         <v>31555</v>
       </c>
       <c r="G27" s="4"/>
@@ -4626,27 +4625,27 @@
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>25.309765809015346</v>
+        <v>29.262812201632727</v>
       </c>
       <c r="L27" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>28.845202751416203</v>
+        <v>30.82478237386157</v>
       </c>
       <c r="M27" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>28.036813948438926</v>
+        <v>29.053565266412402</v>
       </c>
       <c r="N27" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>19.040327129919461</v>
+        <v>14.132393140954232</v>
       </c>
       <c r="O27" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>22.272986153038481</v>
+        <v>35.026076065939527</v>
       </c>
       <c r="P27" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>29.031427272675472</v>
+        <v>30.15340844232875</v>
       </c>
       <c r="Q27">
         <v>9.4</v>
@@ -4674,31 +4673,31 @@
       </c>
       <c r="Y27" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>3.3097658090153459</v>
+        <v>7.2628122016327268</v>
       </c>
       <c r="Z27" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>8.8452027514162026</v>
+        <v>10.82478237386157</v>
       </c>
       <c r="AA27" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>4.036813948438926</v>
+        <v>5.0535652664124022</v>
       </c>
       <c r="AB27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>10.040327129919461</v>
+        <v>5.1323931409542318</v>
       </c>
       <c r="AC27" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>9.2374675682347629</v>
+        <v>26.112739606372525</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>4.3085208405025508</v>
+        <v>3.5112017717662134</v>
       </c>
       <c r="AE27" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9.6110647519219441</v>
+        <v>10.452011114526611</v>
       </c>
       <c r="AF27" s="8">
         <v>325</v>
@@ -4709,7 +4708,7 @@
       </c>
       <c r="AH27" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.9053959476838771</v>
+        <v>3.9370835110742912</v>
       </c>
       <c r="AI27" s="5" t="s">
         <v>243</v>
@@ -4740,7 +4739,7 @@
       <c r="E28" t="s">
         <v>279</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="4">
         <v>21753</v>
       </c>
       <c r="G28" s="4"/>
@@ -4755,27 +4754,27 @@
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.58982292925937</v>
+        <v>75.482669074827569</v>
       </c>
       <c r="L28" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>76.300662897910613</v>
+        <v>80.86084120787369</v>
       </c>
       <c r="M28" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.981879914278565</v>
+        <v>82.120172182404346</v>
       </c>
       <c r="N28" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>50.552197679987515</v>
+        <v>42.723901982567938</v>
       </c>
       <c r="O28" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>73.134858108340822</v>
+        <v>69.115071935928597</v>
       </c>
       <c r="P28" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.29993221704548</v>
+        <v>87.52170509974772</v>
       </c>
       <c r="Q28">
         <v>8.8000000000000007</v>
@@ -4803,31 +4802,31 @@
       </c>
       <c r="Y28" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>35.58982292925937</v>
+        <v>31.482669074827569</v>
       </c>
       <c r="Z28" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>36.300662897910613</v>
+        <v>40.86084120787369</v>
       </c>
       <c r="AA28" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>32.981879914278565</v>
+        <v>34.120172182404346</v>
       </c>
       <c r="AB28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>32.552197679987515</v>
+        <v>24.723901982567938</v>
       </c>
       <c r="AC28" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>50.048819726242193</v>
+        <v>47.007955967492343</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>31.871907371630751</v>
+        <v>35.73557407046416</v>
       </c>
       <c r="AE28" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8.9632773803204255</v>
+        <v>10.126312301371824</v>
       </c>
       <c r="AF28" s="8">
         <v>356</v>
@@ -4838,7 +4837,7 @@
       </c>
       <c r="AH28" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>37.096373932907625</v>
+        <v>37.262219835188866</v>
       </c>
       <c r="AI28" s="5" t="s">
         <v>245</v>
@@ -4869,7 +4868,7 @@
       <c r="E29" t="s">
         <v>283</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="4">
         <v>33509</v>
       </c>
       <c r="G29" s="4"/>
@@ -4884,27 +4883,27 @@
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>51.958720374532355</v>
+        <v>54.578968114119959</v>
       </c>
       <c r="L29" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>54.475567093839793</v>
+        <v>51.345063826833126</v>
       </c>
       <c r="M29" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>56.284175161857959</v>
+        <v>55.301663305817712</v>
       </c>
       <c r="N29" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>36.334543927267205</v>
+        <v>35.929863312244095</v>
       </c>
       <c r="O29" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>56.249228446952209</v>
+        <v>52.424164135566684</v>
       </c>
       <c r="P29" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>58.613561785647406</v>
+        <v>58.745249571138835</v>
       </c>
       <c r="Q29">
         <v>5.5</v>
@@ -4932,27 +4931,27 @@
       </c>
       <c r="Y29" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>29.958720374532355</v>
+        <v>32.578968114119959</v>
       </c>
       <c r="Z29" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>34.475567093839793</v>
+        <v>31.345063826833126</v>
       </c>
       <c r="AA29" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>32.284175161857959</v>
+        <v>31.301663305817712</v>
       </c>
       <c r="AB29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>27.334543927267205</v>
+        <v>26.929863312244095</v>
       </c>
       <c r="AC29" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>44.301006303487469</v>
+        <v>41.125933926707525</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>33.518274710997069</v>
+        <v>32.149432993685899</v>
       </c>
       <c r="AE29" s="7">
         <v>3.3</v>
@@ -4966,7 +4965,7 @@
       </c>
       <c r="AH29" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>4.2859638941918847</v>
+        <v>4.0676349325872136</v>
       </c>
       <c r="AI29" s="5" t="s">
         <v>248</v>
@@ -4997,7 +4996,7 @@
       <c r="E30" t="s">
         <v>278</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="4">
         <v>37564</v>
       </c>
       <c r="G30" s="4"/>
@@ -5012,27 +5011,27 @@
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>77.673539879300264</v>
+        <v>75.584390544035188</v>
       </c>
       <c r="L30" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>76.635623521852423</v>
+        <v>75.95341586872506</v>
       </c>
       <c r="M30" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.034686128763099</v>
+        <v>79.342589989158739</v>
       </c>
       <c r="N30" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>49.119101814009468</v>
+        <v>47.39240423188798</v>
       </c>
       <c r="O30" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>73.825649303304772</v>
+        <v>70.813001097145971</v>
       </c>
       <c r="P30" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.717106871567168</v>
+        <v>87.95768419977513</v>
       </c>
       <c r="Q30">
         <v>7.6</v>
@@ -5060,31 +5059,31 @@
       </c>
       <c r="Y30" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>11.673539879300264</v>
+        <v>9.5843905440351875</v>
       </c>
       <c r="Z30" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>16.635623521852423</v>
+        <v>15.95341586872506</v>
       </c>
       <c r="AA30" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>8.0346861287630986</v>
+        <v>7.3425899891587392</v>
       </c>
       <c r="AB30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>22.119101814009468</v>
+        <v>20.39240423188798</v>
       </c>
       <c r="AC30" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>37.396404687299004</v>
+        <v>29.7334417403755</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>8.391476851230367</v>
+        <v>7.90549223338639</v>
       </c>
       <c r="AE30" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8.2542194489227327</v>
+        <v>7.6013147167676012</v>
       </c>
       <c r="AF30" s="8">
         <v>254</v>
@@ -5095,7 +5094,7 @@
       </c>
       <c r="AH30" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.8659009399538085</v>
+        <v>3.8633160202840253</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>250</v>
@@ -5126,7 +5125,7 @@
       <c r="E31" t="s">
         <v>278</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="4">
         <v>31817</v>
       </c>
       <c r="G31" s="4"/>
@@ -5141,27 +5140,27 @@
       </c>
       <c r="K31" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.3931511577359</v>
+        <v>76.357194095927198</v>
       </c>
       <c r="L31" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>78.11205161309401</v>
+        <v>79.045028665750181</v>
       </c>
       <c r="M31" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.02727098708354</v>
+        <v>78.756906794209812</v>
       </c>
       <c r="N31" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>51.583129254891816</v>
+        <v>49.708885741031288</v>
       </c>
       <c r="O31" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>74.034226832339826</v>
+        <v>80.018946115727161</v>
       </c>
       <c r="P31" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.922392068386941</v>
+        <v>85.014329262205209</v>
       </c>
       <c r="Q31">
         <v>6.3</v>
@@ -5189,27 +5188,27 @@
       </c>
       <c r="Y31" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>53.3931511577359</v>
+        <v>54.357194095927198</v>
       </c>
       <c r="Z31" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>58.11205161309401</v>
+        <v>59.045028665750181</v>
       </c>
       <c r="AA31" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>58.02727098708354</v>
+        <v>54.756906794209812</v>
       </c>
       <c r="AB31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>42.583129254891816</v>
+        <v>40.708885741031288</v>
       </c>
       <c r="AC31" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>65.856857349037469</v>
+        <v>67.65406716456701</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>60.036289259517105</v>
+        <v>60.80703201736943</v>
       </c>
       <c r="AE31" s="7">
         <v>3.7</v>
@@ -5223,7 +5222,7 @@
       </c>
       <c r="AH31" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.6995777047539677</v>
+        <v>3.7776148060683421</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>252</v>
@@ -5254,7 +5253,7 @@
       <c r="E32" t="s">
         <v>278</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="4">
         <v>32620</v>
       </c>
       <c r="G32" s="4"/>
@@ -5269,27 +5268,27 @@
       </c>
       <c r="K32" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.97530140658553</v>
+        <v>76.814365555863105</v>
       </c>
       <c r="L32" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>77.103546809564889</v>
+        <v>80.224424491939331</v>
       </c>
       <c r="M32" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.437664850761394</v>
+        <v>80.746789884233579</v>
       </c>
       <c r="N32" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>45.086195664000371</v>
+        <v>51.719144444045526</v>
       </c>
       <c r="O32" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>67.776499626693663</v>
+        <v>79.626170780918315</v>
       </c>
       <c r="P32" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.07496637284342</v>
+        <v>85.619723658910331</v>
       </c>
       <c r="Q32">
         <v>8.9</v>
@@ -5317,31 +5316,31 @@
       </c>
       <c r="Y32" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>32.97530140658553</v>
+        <v>32.814365555863105</v>
       </c>
       <c r="Z32" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>37.103546809564889</v>
+        <v>40.224424491939331</v>
       </c>
       <c r="AA32" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>33.437664850761394</v>
+        <v>32.746789884233579</v>
       </c>
       <c r="AB32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>27.086195664000371</v>
+        <v>33.719144444045526</v>
       </c>
       <c r="AC32" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>44.006282962193524</v>
+        <v>54.231072540232539</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>34.486937949491974</v>
+        <v>33.859159962404391</v>
       </c>
       <c r="AE32" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9.9469521812470969</v>
+        <v>8.9024061148605078</v>
       </c>
       <c r="AF32" s="8">
         <v>48</v>
@@ -5352,7 +5351,7 @@
       </c>
       <c r="AH32" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>4.6137949504379057</v>
+        <v>4.805851398543834</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>255</v>
@@ -5383,7 +5382,7 @@
       <c r="E33" t="s">
         <v>278</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="4">
         <v>28657</v>
       </c>
       <c r="G33" s="4"/>
@@ -5398,27 +5397,27 @@
       </c>
       <c r="K33" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.409472178117213</v>
+        <v>78.576171724815637</v>
       </c>
       <c r="L33" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>75.483412718846253</v>
+        <v>80.112628824931363</v>
       </c>
       <c r="M33" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.591658113807412</v>
+        <v>80.001786700400004</v>
       </c>
       <c r="N33" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>46.624632326326378</v>
+        <v>48.468180997321717</v>
       </c>
       <c r="O33" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>71.164868153292772</v>
+        <v>66.999873896862312</v>
       </c>
       <c r="P33" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>85.776080903291529</v>
+        <v>87.112025492407625</v>
       </c>
       <c r="Q33">
         <v>5.9</v>
@@ -5446,31 +5445,31 @@
       </c>
       <c r="Y33" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>35.409472178117213</v>
+        <v>34.576171724815637</v>
       </c>
       <c r="Z33" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>35.483412718846253</v>
+        <v>40.112628824931363</v>
       </c>
       <c r="AA33" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>32.591658113807412</v>
+        <v>32.001786700400004</v>
       </c>
       <c r="AB33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>28.624632326326378</v>
+        <v>30.468180997321717</v>
       </c>
       <c r="AC33" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>44.753843951114526</v>
+        <v>42.399201549145261</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>34.286769402995446</v>
+        <v>35.173929505075954</v>
       </c>
       <c r="AE33" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>7.1748549196530176</v>
+        <v>7.1087772168531504</v>
       </c>
       <c r="AF33" s="8">
         <v>1482</v>
@@ -5481,7 +5480,7 @@
       </c>
       <c r="AH33" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>5.3710533396868083</v>
+        <v>5.2589524195947117</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>258</v>
@@ -5512,7 +5511,7 @@
       <c r="E34" t="s">
         <v>318</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="4">
         <v>31273</v>
       </c>
       <c r="G34" s="4"/>
@@ -5527,27 +5526,27 @@
       </c>
       <c r="K34" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.233420686720777</v>
+        <v>77.085137105693818</v>
       </c>
       <c r="L34" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>76.22939667714968</v>
+        <v>78.00104341864008</v>
       </c>
       <c r="M34" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.704509589697579</v>
+        <v>82.90023267477757</v>
       </c>
       <c r="N34" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>47.123986441704488</v>
+        <v>45.143985344765909</v>
       </c>
       <c r="O34" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>76.290691594109276</v>
+        <v>67.991371071914998</v>
       </c>
       <c r="P34" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.495762709398321</v>
+        <v>85.244705887004585</v>
       </c>
       <c r="Q34">
         <v>6.8</v>
@@ -5575,31 +5574,31 @@
       </c>
       <c r="Y34" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>13.233420686720777</v>
+        <v>11.085137105693818</v>
       </c>
       <c r="Z34" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>16.22939667714968</v>
+        <v>18.00104341864008</v>
       </c>
       <c r="AA34" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>8.7045095896975795</v>
+        <v>10.90023267477757</v>
       </c>
       <c r="AB34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>20.123986441704488</v>
+        <v>18.143985344765909</v>
       </c>
       <c r="AC34" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>37.815308090639157</v>
+        <v>26.661585693378196</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6.3818766922580545</v>
+        <v>4.9236333187257619</v>
       </c>
       <c r="AE34" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>7.5899161688261261</v>
+        <v>6.9139185962162877</v>
       </c>
       <c r="AF34" s="8">
         <v>23</v>
@@ -5640,7 +5639,7 @@
       <c r="E35" t="s">
         <v>278</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="4">
         <v>35361</v>
       </c>
       <c r="G35" s="4"/>
@@ -5655,27 +5654,27 @@
       </c>
       <c r="K35" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>53.27267326976613</v>
+        <v>53.151489401372515</v>
       </c>
       <c r="L35" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>51.32233494113342</v>
+        <v>53.120691801618385</v>
       </c>
       <c r="M35" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>52.452969413767462</v>
+        <v>55.604909329010525</v>
       </c>
       <c r="N35" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>30.548655579408162</v>
+        <v>30.005512243699446</v>
       </c>
       <c r="O35" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>53.784359254888358</v>
+        <v>56.939960008120458</v>
       </c>
       <c r="P35" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>56.126400230658533</v>
+        <v>56.268105392076414</v>
       </c>
       <c r="Q35">
         <v>7.8</v>
@@ -5703,27 +5702,27 @@
       </c>
       <c r="Y35" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>31.27267326976613</v>
+        <v>31.151489401372515</v>
       </c>
       <c r="Z35" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>31.32233494113342</v>
+        <v>33.120691801618385</v>
       </c>
       <c r="AA35" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>28.452969413767462</v>
+        <v>31.604909329010525</v>
       </c>
       <c r="AB35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>21.548655579408162</v>
+        <v>21.005512243699446</v>
       </c>
       <c r="AC35" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>42.319510025968022</v>
+        <v>43.395734298338397</v>
       </c>
       <c r="AD35" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>31.560941850900136</v>
+        <v>31.29242217625033</v>
       </c>
       <c r="AE35" s="7">
         <v>4.5</v>
@@ -5737,7 +5736,7 @@
       </c>
       <c r="AH35" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.865097258961141</v>
+        <v>3.7491189754892642</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>263</v>
@@ -5768,7 +5767,7 @@
       <c r="E36" t="s">
         <v>278</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="4">
         <v>28121</v>
       </c>
       <c r="G36" s="4"/>
@@ -5783,27 +5782,27 @@
       </c>
       <c r="K36" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.749252165439387</v>
+        <v>77.105587414557704</v>
       </c>
       <c r="L36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>75.233100202443694</v>
+        <v>77.41323133328396</v>
       </c>
       <c r="M36" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.64488642826764</v>
+        <v>79.316747899311594</v>
       </c>
       <c r="N36" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43.379516311900005</v>
+        <v>46.60178421655575</v>
       </c>
       <c r="O36" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>76.103140319219762</v>
+        <v>76.571818470239549</v>
       </c>
       <c r="P36" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>85.390476677183187</v>
+        <v>86.344686650826105</v>
       </c>
       <c r="Q36">
         <v>6.9</v>
@@ -5831,27 +5830,27 @@
       </c>
       <c r="Y36" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>53.749252165439387</v>
+        <v>55.105587414557704</v>
       </c>
       <c r="Z36" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>55.233100202443694</v>
+        <v>57.41323133328396</v>
       </c>
       <c r="AA36" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>54.64488642826764</v>
+        <v>55.316747899311594</v>
       </c>
       <c r="AB36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>34.379516311900005</v>
+        <v>37.60178421655575</v>
       </c>
       <c r="AC36" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>62.836112025007239</v>
+        <v>62.852310233019033</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>58.461361176737164</v>
+        <v>60.331082838855522</v>
       </c>
       <c r="AE36" s="7">
         <v>4.0999999999999996</v>
@@ -5865,7 +5864,7 @@
       </c>
       <c r="AH36" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>4.4293486715174373</v>
+        <v>4.3539964578798029</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>265</v>
@@ -5896,7 +5895,7 @@
       <c r="E37" t="s">
         <v>278</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="4">
         <v>32157</v>
       </c>
       <c r="G37" s="4"/>
@@ -5911,27 +5910,27 @@
       </c>
       <c r="K37" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>52.099883008398216</v>
+        <v>52.329377698341922</v>
       </c>
       <c r="L37" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>51.848245847675891</v>
+        <v>54.936142723277072</v>
       </c>
       <c r="M37" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>56.166648294882336</v>
+        <v>53.780135043424607</v>
       </c>
       <c r="N37" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>35.128361123564304</v>
+        <v>29.542126603735579</v>
       </c>
       <c r="O37" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>49.884001932278167</v>
+        <v>52.495553286232699</v>
       </c>
       <c r="P37" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>58.138209572063055</v>
+        <v>58.456770729394727</v>
       </c>
       <c r="Q37">
         <v>8.4</v>
@@ -5959,31 +5958,31 @@
       </c>
       <c r="Y37" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>8.0998830083982156</v>
+        <v>8.3293776983419221</v>
       </c>
       <c r="Z37" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>11.848245847675891</v>
+        <v>14.936142723277072</v>
       </c>
       <c r="AA37" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>8.1666482948823358</v>
+        <v>5.7801350434246075</v>
       </c>
       <c r="AB37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>17.128361123564304</v>
+        <v>11.542126603735579</v>
       </c>
       <c r="AC37" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>22.0336840498199</v>
+        <v>27.687965887293004</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>5.3906854469409167</v>
+        <v>5.977062493995331</v>
       </c>
       <c r="AE37" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9.2525029298981245</v>
+        <v>8.9562138181584814</v>
       </c>
       <c r="AF37" s="8">
         <v>284</v>
@@ -5994,7 +5993,7 @@
       </c>
       <c r="AH37" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.9539746980283077</v>
+        <v>4.0548308241882545</v>
       </c>
       <c r="AI37" s="5" t="s">
         <v>272</v>
@@ -6025,7 +6024,7 @@
       <c r="E38" t="s">
         <v>281</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="4">
         <v>33361</v>
       </c>
       <c r="G38" s="4"/>
@@ -6040,27 +6039,27 @@
       </c>
       <c r="K38" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.269433716712868</v>
+        <v>78.449598280373138</v>
       </c>
       <c r="L38" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>75.219113746867436</v>
+        <v>77.988616748624764</v>
       </c>
       <c r="M38" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.207469009372815</v>
+        <v>78.22780376133872</v>
       </c>
       <c r="N38" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>45.693404543007311</v>
+        <v>45.658489226565045</v>
       </c>
       <c r="O38" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>72.482834195525641</v>
+        <v>69.5612873186153</v>
       </c>
       <c r="P38" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.02124495101188</v>
+        <v>86.443522378207675</v>
       </c>
       <c r="Q38">
         <v>6.9</v>
@@ -6088,31 +6087,31 @@
       </c>
       <c r="Y38" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>13.269433716712868</v>
+        <v>12.449598280373138</v>
       </c>
       <c r="Z38" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>15.219113746867436</v>
+        <v>17.988616748624764</v>
       </c>
       <c r="AA38" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>9.2074690093728151</v>
+        <v>6.2278037613387198</v>
       </c>
       <c r="AB38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>18.693404543007311</v>
+        <v>18.658489226565045</v>
       </c>
       <c r="AC38" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>33.496134073869662</v>
+        <v>32.200469715310433</v>
       </c>
       <c r="AD38" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>7.9878193381212874</v>
+        <v>6.1948035746248644</v>
       </c>
       <c r="AE38" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8.0810550242509773</v>
+        <v>7.4372195157310399</v>
       </c>
       <c r="AF38" s="8">
         <v>229</v>
@@ -6123,7 +6122,7 @@
       </c>
       <c r="AH38" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>3.9860435664284046</v>
+        <v>3.8864900879415503</v>
       </c>
       <c r="AI38" s="5" t="s">
         <v>271</v>

--- a/data/messy_uc.xlsx
+++ b/data/messy_uc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pileggis\Documents\gh-personal\rmedicine-data-cleaning-2023\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEDC6EA-B47B-4B5B-BC05-C722596B3D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75B5765-0E28-485D-A2A7-A25A87F55B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C3B41A98-E045-B641-B5DC-D433CA053FBE}"/>
   </bookViews>
@@ -2113,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2E3CCE-D9A6-4043-B4E6-790885873B0A}">
   <dimension ref="A1:AL38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
+      <selection activeCell="AD25" sqref="AD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2286,27 +2286,27 @@
       </c>
       <c r="K8" s="8">
         <f ca="1">J8*25 + 5* RAND()</f>
-        <v>75.353380848880235</v>
+        <v>75.455894145522905</v>
       </c>
       <c r="L8" s="8">
         <f ca="1">J8* 25 + 6* RAND()</f>
-        <v>78.881378580334612</v>
+        <v>80.590251835998316</v>
       </c>
       <c r="M8" s="8">
         <f ca="1" xml:space="preserve"> J8*26 + 5 * RAND()</f>
-        <v>79.924644564055058</v>
+        <v>81.454152772734005</v>
       </c>
       <c r="N8" s="8">
         <f ca="1" xml:space="preserve"> J8 *14 + 10* RAND()</f>
-        <v>48.214577300275749</v>
+        <v>50.410903461496162</v>
       </c>
       <c r="O8" s="8">
         <f ca="1" xml:space="preserve"> J8 *22 + 15* RAND()</f>
-        <v>66.9178183661286</v>
+        <v>73.323778110661067</v>
       </c>
       <c r="P8" s="8">
         <f ca="1">J8 * 28 + 4* RAND()</f>
-        <v>87.530944174394577</v>
+        <v>86.889448495510109</v>
       </c>
       <c r="Q8">
         <v>8.1999999999999993</v>
@@ -2334,42 +2334,41 @@
       </c>
       <c r="Y8" s="8">
         <f ca="1" xml:space="preserve"> K8-22*(J8-X8)</f>
-        <v>9.353380848880235</v>
+        <v>9.4558941455229046</v>
       </c>
       <c r="Z8" s="8">
         <f ca="1" xml:space="preserve"> L8-20*(J8-X8)</f>
-        <v>18.881378580334612</v>
+        <v>20.590251835998316</v>
       </c>
       <c r="AA8" s="8">
         <f ca="1" xml:space="preserve"> M8-24*(J8-X8)</f>
-        <v>7.9246445640550576</v>
+        <v>9.4541527727340053</v>
       </c>
       <c r="AB8" s="8">
         <f ca="1" xml:space="preserve"> N8-9*(J8-X8)</f>
-        <v>21.214577300275749</v>
+        <v>23.410903461496162</v>
       </c>
       <c r="AC8" s="8">
         <f ca="1" xml:space="preserve"> O8-14*(J8-X8)+ 6*RAND()</f>
-        <v>26.22976077257854</v>
+        <v>31.980531232702354</v>
       </c>
       <c r="AD8" s="8">
         <f ca="1" xml:space="preserve"> P8-27*(J8-X8)+ 3*RAND()</f>
-        <v>6.6974606598540669</v>
+        <v>6.6605585857717573</v>
       </c>
       <c r="AE8" s="7">
         <f ca="1">IF(B8 ="upa", Q8 +1.5* RAND()*0.8, Q8 +1.5* RAND())</f>
-        <v>9.0222714439999567</v>
+        <v>8.5622083718425337</v>
       </c>
       <c r="AF8" s="8">
         <v>201</v>
       </c>
-      <c r="AG8" s="8" t="e">
-        <f ca="1" xml:space="preserve"> S8 + 0.5* RAND()</f>
-        <v>#VALUE!</v>
+      <c r="AG8" s="8">
+        <v>137.32780697416612</v>
       </c>
       <c r="AH8" s="7">
         <f ca="1">T8 + 0.3* RAND()</f>
-        <v>3.9176762538014822</v>
+        <v>3.7412119046958803</v>
       </c>
       <c r="AI8" s="5" t="s">
         <v>192</v>
@@ -2415,27 +2414,27 @@
       </c>
       <c r="K9" s="8">
         <f t="shared" ref="K9:K38" ca="1" si="0">J9*25 + 5* RAND()</f>
-        <v>51.845634529023101</v>
+        <v>53.622387884475472</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" ref="L9:L38" ca="1" si="1">J9* 25 + 6* RAND()</f>
-        <v>52.803456190138355</v>
+        <v>53.644791291156054</v>
       </c>
       <c r="M9" s="8">
         <f t="shared" ref="M9:M38" ca="1" si="2" xml:space="preserve"> J9*26 + 5 * RAND()</f>
-        <v>55.751920082900199</v>
+        <v>52.609113873953852</v>
       </c>
       <c r="N9" s="8">
         <f t="shared" ref="N9:N38" ca="1" si="3" xml:space="preserve"> J9 *14 + 10* RAND()</f>
-        <v>35.189819748792615</v>
+        <v>29.568332150326434</v>
       </c>
       <c r="O9" s="8">
         <f t="shared" ref="O9:O38" ca="1" si="4" xml:space="preserve"> J9 *22 + 15* RAND()</f>
-        <v>49.589706426259539</v>
+        <v>55.72460786366743</v>
       </c>
       <c r="P9" s="8">
         <f t="shared" ref="P9:P38" ca="1" si="5">J9 * 28 + 4* RAND()</f>
-        <v>58.860817550868767</v>
+        <v>56.103707668757281</v>
       </c>
       <c r="Q9">
         <v>10.1</v>
@@ -2463,42 +2462,41 @@
       </c>
       <c r="Y9" s="8">
         <f t="shared" ref="Y9:Y38" ca="1" si="6" xml:space="preserve"> K9-22*(J9-X9)</f>
-        <v>29.845634529023101</v>
+        <v>31.622387884475472</v>
       </c>
       <c r="Z9" s="8">
         <f t="shared" ref="Z9:Z38" ca="1" si="7" xml:space="preserve"> L9-20*(J9-X9)</f>
-        <v>32.803456190138355</v>
+        <v>33.644791291156054</v>
       </c>
       <c r="AA9" s="8">
         <f t="shared" ref="AA9:AA38" ca="1" si="8" xml:space="preserve"> M9-24*(J9-X9)</f>
-        <v>31.751920082900199</v>
+        <v>28.609113873953852</v>
       </c>
       <c r="AB9" s="8">
         <f t="shared" ref="AB9:AB38" ca="1" si="9" xml:space="preserve"> N9-9*(J9-X9)</f>
-        <v>26.189819748792615</v>
+        <v>20.568332150326434</v>
       </c>
       <c r="AC9" s="8">
         <f t="shared" ref="AC9:AC38" ca="1" si="10" xml:space="preserve"> O9-14*(J9-X9)+ 6*RAND()</f>
-        <v>39.336355182967225</v>
+        <v>43.154961592472482</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" ref="AD9:AD38" ca="1" si="11" xml:space="preserve"> P9-27*(J9-X9)+ 3*RAND()</f>
-        <v>34.089470984088095</v>
+        <v>30.539178998046562</v>
       </c>
       <c r="AE9" s="7">
         <f t="shared" ref="AE9:AE38" ca="1" si="12">IF(B9 ="upa", Q9 +1.5* RAND()*0.8, Q9 +1.5* RAND())</f>
-        <v>11.086802118152924</v>
+        <v>11.13546571598736</v>
       </c>
       <c r="AF9" s="8">
         <v>340</v>
       </c>
-      <c r="AG9" s="8" t="e">
-        <f t="shared" ref="AG9:AG38" ca="1" si="13" xml:space="preserve"> S9 + 0.5* RAND()</f>
-        <v>#VALUE!</v>
+      <c r="AG9" s="8">
+        <v>142.21400074411167</v>
       </c>
       <c r="AH9" s="7">
-        <f t="shared" ref="AH9:AH38" ca="1" si="14">T9 + 0.3* RAND()</f>
-        <v>4.2466410585746237</v>
+        <f t="shared" ref="AH9:AH38" ca="1" si="13">T9 + 0.3* RAND()</f>
+        <v>4.1484636693700354</v>
       </c>
       <c r="AI9" s="5" t="s">
         <v>195</v>
@@ -2544,27 +2542,27 @@
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>29.005432419381908</v>
+        <v>25.525267271525589</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>28.087427151826272</v>
+        <v>26.15548008153133</v>
       </c>
       <c r="M10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>30.012124196427703</v>
+        <v>27.555231882481134</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>17.960671311566937</v>
+        <v>15.203774333022835</v>
       </c>
       <c r="O10" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>28.50663297441972</v>
+        <v>36.561354375275748</v>
       </c>
       <c r="P10" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>28.014245141812683</v>
+        <v>31.38941655608318</v>
       </c>
       <c r="Q10">
         <v>5.5</v>
@@ -2592,27 +2590,27 @@
       </c>
       <c r="Y10" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>29.005432419381908</v>
+        <v>25.525267271525589</v>
       </c>
       <c r="Z10" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>28.087427151826272</v>
+        <v>26.15548008153133</v>
       </c>
       <c r="AA10" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>30.012124196427703</v>
+        <v>27.555231882481134</v>
       </c>
       <c r="AB10" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>17.960671311566937</v>
+        <v>15.203774333022835</v>
       </c>
       <c r="AC10" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>31.029002950471163</v>
+        <v>36.881123946451076</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>28.163906236855443</v>
+        <v>32.798667784920319</v>
       </c>
       <c r="AE10" s="7">
         <v>3</v>
@@ -2620,13 +2618,12 @@
       <c r="AF10" s="8">
         <v>256</v>
       </c>
-      <c r="AG10" s="8" t="e">
+      <c r="AG10" s="8">
+        <v>140.08310039430984</v>
+      </c>
+      <c r="AH10" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH10" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.4776806526215358</v>
+        <v>4.471147082466608</v>
       </c>
       <c r="AI10" s="5" t="s">
         <v>198</v>
@@ -2672,27 +2669,27 @@
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.35963837696319</v>
+        <v>79.365930507106114</v>
       </c>
       <c r="L11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>78.862061810017536</v>
+        <v>77.949166317817358</v>
       </c>
       <c r="M11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.844771947570862</v>
+        <v>79.821804759614764</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>51.144819362576172</v>
+        <v>51.265319671315993</v>
       </c>
       <c r="O11" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>77.183154712163983</v>
+        <v>80.76011968813836</v>
       </c>
       <c r="P11" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.183874255488661</v>
+        <v>84.852371365694893</v>
       </c>
       <c r="Q11">
         <v>4.7</v>
@@ -2720,42 +2717,41 @@
       </c>
       <c r="Y11" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>32.35963837696319</v>
+        <v>35.365930507106114</v>
       </c>
       <c r="Z11" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>38.862061810017536</v>
+        <v>37.949166317817358</v>
       </c>
       <c r="AA11" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>34.844771947570862</v>
+        <v>31.821804759614764</v>
       </c>
       <c r="AB11" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>33.144819362576172</v>
+        <v>33.265319671315993</v>
       </c>
       <c r="AC11" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>53.220564050596202</v>
+        <v>58.670309483569042</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>35.454709639077308</v>
+        <v>33.781373664703942</v>
       </c>
       <c r="AE11" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>4.9775734522474373</v>
+        <v>5.6919539851024403</v>
       </c>
       <c r="AF11" s="8">
         <v>327</v>
       </c>
-      <c r="AG11" s="8" t="e">
+      <c r="AG11" s="8">
+        <v>139.15871190662787</v>
+      </c>
+      <c r="AH11" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH11" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>3.5863802171115973</v>
+        <v>3.6413415309721993</v>
       </c>
       <c r="AI11" s="5" t="s">
         <v>201</v>
@@ -2801,27 +2797,27 @@
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.334395832019339</v>
+        <v>79.529640258040175</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>78.09477556283278</v>
+        <v>78.437433649812789</v>
       </c>
       <c r="M12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.234225210717653</v>
+        <v>79.189267801465178</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>44.650601400773695</v>
+        <v>43.095412446775903</v>
       </c>
       <c r="O12" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>66.089924012239592</v>
+        <v>72.503752015420218</v>
       </c>
       <c r="P12" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>85.215041939119729</v>
+        <v>87.283216219307135</v>
       </c>
       <c r="Q12">
         <v>8.9</v>
@@ -2849,27 +2845,27 @@
       </c>
       <c r="Y12" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>54.334395832019339</v>
+        <v>57.529640258040175</v>
       </c>
       <c r="Z12" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>58.09477556283278</v>
+        <v>58.437433649812789</v>
       </c>
       <c r="AA12" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>57.234225210717653</v>
+        <v>55.189267801465178</v>
       </c>
       <c r="AB12" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>35.650601400773695</v>
+        <v>34.095412446775903</v>
       </c>
       <c r="AC12" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>53.34456349670883</v>
+        <v>58.863864661125419</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>60.71780913486478</v>
+        <v>62.726355780964326</v>
       </c>
       <c r="AE12" s="7">
         <v>4.8</v>
@@ -2877,13 +2873,12 @@
       <c r="AF12" s="8">
         <v>432</v>
       </c>
-      <c r="AG12" s="8" t="e">
+      <c r="AG12" s="8">
+        <v>144.35077807759149</v>
+      </c>
+      <c r="AH12" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH12" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.1903698021980116</v>
+        <v>4.2098431423848472</v>
       </c>
       <c r="AI12" s="5" t="s">
         <v>204</v>
@@ -2929,27 +2924,27 @@
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>53.386501302937816</v>
+        <v>54.530888226948569</v>
       </c>
       <c r="L13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>54.574682326526101</v>
+        <v>51.867615114533905</v>
       </c>
       <c r="M13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>52.934751994397239</v>
+        <v>55.05637210427912</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>31.659590258467595</v>
+        <v>37.432416710137488</v>
       </c>
       <c r="O13" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>57.790319955754995</v>
+        <v>48.278872148110651</v>
       </c>
       <c r="P13" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>58.206380126271654</v>
+        <v>58.602605738374059</v>
       </c>
       <c r="Q13">
         <v>9.3000000000000007</v>
@@ -2977,42 +2972,41 @@
       </c>
       <c r="Y13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>31.386501302937816</v>
+        <v>32.530888226948569</v>
       </c>
       <c r="Z13" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>34.574682326526101</v>
+        <v>31.867615114533905</v>
       </c>
       <c r="AA13" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>28.934751994397239</v>
+        <v>31.05637210427912</v>
       </c>
       <c r="AB13" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>22.659590258467595</v>
+        <v>28.432416710137488</v>
       </c>
       <c r="AC13" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>44.332838097343171</v>
+        <v>34.593046073414015</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>32.35099385229492</v>
+        <v>33.940626847642022</v>
       </c>
       <c r="AE13" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>10.487267983188813</v>
+        <v>10.499928420383316</v>
       </c>
       <c r="AF13" s="8">
         <v>348</v>
       </c>
-      <c r="AG13" s="8" t="e">
+      <c r="AG13" s="8">
+        <v>145.39775240838094</v>
+      </c>
+      <c r="AH13" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH13" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.5030140552832183</v>
+        <v>4.6643111494821392</v>
       </c>
       <c r="AI13" s="5" t="s">
         <v>207</v>
@@ -3058,27 +3052,27 @@
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.382995948056376</v>
+        <v>78.979787436782217</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>80.082115996637242</v>
+        <v>75.108485630329639</v>
       </c>
       <c r="M14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>79.247517849737193</v>
+        <v>82.691858914149222</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>51.226856036917866</v>
+        <v>46.901022903780529</v>
       </c>
       <c r="O14" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>73.744703401082006</v>
+        <v>72.65468618343688</v>
       </c>
       <c r="P14" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.465125336678085</v>
+        <v>85.982255274579785</v>
       </c>
       <c r="Q14">
         <v>5.6</v>
@@ -3106,42 +3100,41 @@
       </c>
       <c r="Y14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>53.382995948056376</v>
+        <v>56.979787436782217</v>
       </c>
       <c r="Z14" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>60.082115996637242</v>
+        <v>55.108485630329639</v>
       </c>
       <c r="AA14" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>55.247517849737193</v>
+        <v>58.691858914149222</v>
       </c>
       <c r="AB14" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>42.226856036917866</v>
+        <v>37.901022903780529</v>
       </c>
       <c r="AC14" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>65.698843135356029</v>
+        <v>63.285059520403976</v>
       </c>
       <c r="AD14" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>60.911434750452962</v>
+        <v>59.339031415965522</v>
       </c>
       <c r="AE14" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>6.211863450467038</v>
+        <v>6.3924165230778884</v>
       </c>
       <c r="AF14" s="8">
         <v>181</v>
       </c>
-      <c r="AG14" s="8" t="e">
+      <c r="AG14" s="8">
+        <v>142.34192634331478</v>
+      </c>
+      <c r="AH14" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH14" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>3.7121189213199015</v>
+        <v>3.6155101326841064</v>
       </c>
       <c r="AI14" s="5" t="s">
         <v>210</v>
@@ -3187,27 +3180,27 @@
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>77.502712645960457</v>
+        <v>79.021776901475846</v>
       </c>
       <c r="L15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>80.330549574087996</v>
+        <v>78.446268188491644</v>
       </c>
       <c r="M15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.069576812980117</v>
+        <v>81.959659562268982</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>51.569655227287313</v>
+        <v>46.508064452369908</v>
       </c>
       <c r="O15" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>74.591699105959663</v>
+        <v>74.584683575253109</v>
       </c>
       <c r="P15" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.629348982318163</v>
+        <v>85.576695924769879</v>
       </c>
       <c r="Q15">
         <v>9.6999999999999993</v>
@@ -3235,27 +3228,27 @@
       </c>
       <c r="Y15" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>55.502712645960457</v>
+        <v>57.021776901475846</v>
       </c>
       <c r="Z15" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>60.330549574087996</v>
+        <v>58.446268188491644</v>
       </c>
       <c r="AA15" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>54.069576812980117</v>
+        <v>57.959659562268982</v>
       </c>
       <c r="AB15" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>42.569655227287313</v>
+        <v>37.508064452369908</v>
       </c>
       <c r="AC15" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>62.804330786921938</v>
+        <v>65.313599031979081</v>
       </c>
       <c r="AD15" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>61.753735844850844</v>
+        <v>60.577663927961304</v>
       </c>
       <c r="AE15" s="7">
         <v>4.9000000000000004</v>
@@ -3263,13 +3256,12 @@
       <c r="AF15" s="8">
         <v>128</v>
       </c>
-      <c r="AG15" s="8" t="e">
+      <c r="AG15" s="8">
+        <v>138.31487244241424</v>
+      </c>
+      <c r="AH15" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH15" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.6739433993045765</v>
+        <v>4.6034466384944634</v>
       </c>
       <c r="AI15" s="5" t="s">
         <v>213</v>
@@ -3315,27 +3307,27 @@
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>50.804561078752769</v>
+        <v>53.05736284539848</v>
       </c>
       <c r="L16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>54.522693883565701</v>
+        <v>55.303217380119577</v>
       </c>
       <c r="M16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>54.448041885969161</v>
+        <v>53.194101578223915</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>35.277107849750216</v>
+        <v>33.622167157990823</v>
       </c>
       <c r="O16" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>44.369203303817784</v>
+        <v>54.180591011117123</v>
       </c>
       <c r="P16" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>57.275346833851245</v>
+        <v>59.341720912200195</v>
       </c>
       <c r="Q16">
         <v>8.3000000000000007</v>
@@ -3363,42 +3355,41 @@
       </c>
       <c r="Y16" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>6.8045610787527693</v>
+        <v>9.0573628453984796</v>
       </c>
       <c r="Z16" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>14.522693883565701</v>
+        <v>15.303217380119577</v>
       </c>
       <c r="AA16" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>6.4480418859691611</v>
+        <v>5.1941015782239148</v>
       </c>
       <c r="AB16" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>17.277107849750216</v>
+        <v>15.622167157990823</v>
       </c>
       <c r="AC16" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>21.087021696907239</v>
+        <v>27.976656095216335</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>3.5341024329152146</v>
+        <v>6.2130001816285816</v>
       </c>
       <c r="AE16" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8.5438849647124915</v>
+        <v>8.7085883948345799</v>
       </c>
       <c r="AF16" s="8">
         <v>135</v>
       </c>
-      <c r="AG16" s="8" t="e">
+      <c r="AG16" s="8">
+        <v>140.33888720068057</v>
+      </c>
+      <c r="AH16" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH16" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.4478713503062721</v>
+        <v>4.3654518958862862</v>
       </c>
       <c r="AI16" s="5" t="s">
         <v>215</v>
@@ -3444,27 +3435,27 @@
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.573433483750605</v>
+        <v>77.36521125012068</v>
       </c>
       <c r="L17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>76.536073311291716</v>
+        <v>75.160562030553564</v>
       </c>
       <c r="M17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.571362469684672</v>
+        <v>78.932940719442897</v>
       </c>
       <c r="N17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>42.996239346701834</v>
+        <v>43.930008226643523</v>
       </c>
       <c r="O17" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>80.687718540224495</v>
+        <v>74.355982007158133</v>
       </c>
       <c r="P17" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>85.247210711673603</v>
+        <v>86.599316649072961</v>
       </c>
       <c r="Q17">
         <v>7.6</v>
@@ -3492,27 +3483,27 @@
       </c>
       <c r="Y17" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>35.573433483750605</v>
+        <v>33.36521125012068</v>
       </c>
       <c r="Z17" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>36.536073311291716</v>
+        <v>35.160562030553564</v>
       </c>
       <c r="AA17" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>33.571362469684672</v>
+        <v>30.932940719442897</v>
       </c>
       <c r="AB17" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>24.996239346701834</v>
+        <v>25.930008226643523</v>
       </c>
       <c r="AC17" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>57.0852575397004</v>
+        <v>46.802992507671597</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>33.609819438433846</v>
+        <v>32.787149652718441</v>
       </c>
       <c r="AE17" s="7">
         <v>4.4000000000000004</v>
@@ -3520,13 +3511,12 @@
       <c r="AF17" s="8">
         <v>238</v>
       </c>
-      <c r="AG17" s="8" t="e">
+      <c r="AG17" s="8">
+        <v>137.343864179881</v>
+      </c>
+      <c r="AH17" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH17" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.0631416306129786</v>
+        <v>4.0088726883990393</v>
       </c>
       <c r="AI17" s="5" t="s">
         <v>218</v>
@@ -3572,27 +3562,27 @@
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>78.312065895060258</v>
+        <v>75.796846321561404</v>
       </c>
       <c r="L18" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>79.537463682632335</v>
+        <v>77.480528069855609</v>
       </c>
       <c r="M18" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.299313969473744</v>
+        <v>79.116448261575769</v>
       </c>
       <c r="N18" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>44.367590059495143</v>
+        <v>47.710470155296285</v>
       </c>
       <c r="O18" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>70.170863328847489</v>
+        <v>70.692011481257452</v>
       </c>
       <c r="P18" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.052028328397824</v>
+        <v>87.688915843105036</v>
       </c>
       <c r="Q18">
         <v>9.1999999999999993</v>
@@ -3620,42 +3610,41 @@
       </c>
       <c r="Y18" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>12.312065895060258</v>
+        <v>9.7968463215614037</v>
       </c>
       <c r="Z18" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>19.537463682632335</v>
+        <v>17.480528069855609</v>
       </c>
       <c r="AA18" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>8.2993139694737437</v>
+        <v>7.1164482615757692</v>
       </c>
       <c r="AB18" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>17.367590059495143</v>
+        <v>20.710470155296285</v>
       </c>
       <c r="AC18" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>28.859062538961922</v>
+        <v>33.122563864954309</v>
       </c>
       <c r="AD18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>7.9424795688286824</v>
+        <v>9.2609171433892996</v>
       </c>
       <c r="AE18" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9.8416690508245441</v>
+        <v>9.9271006584172632</v>
       </c>
       <c r="AF18" s="8">
         <v>288</v>
       </c>
-      <c r="AG18" s="8" t="e">
+      <c r="AG18" s="8">
+        <v>143.15201376506843</v>
+      </c>
+      <c r="AH18" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH18" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>3.7225466865155834</v>
+        <v>3.7569711007919917</v>
       </c>
       <c r="AI18" s="5" t="s">
         <v>221</v>
@@ -3701,27 +3690,27 @@
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.701060401100264</v>
+        <v>79.795397004276708</v>
       </c>
       <c r="L19" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>80.296890163467978</v>
+        <v>76.166960906277183</v>
       </c>
       <c r="M19" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.996641397622383</v>
+        <v>80.08761311817203</v>
       </c>
       <c r="N19" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>46.445273272731413</v>
+        <v>47.5493524068997</v>
       </c>
       <c r="O19" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>66.173268316463165</v>
+        <v>75.218083497362898</v>
       </c>
       <c r="P19" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.025569258897633</v>
+        <v>84.658574889528609</v>
       </c>
       <c r="Q19">
         <v>11.5</v>
@@ -3749,42 +3738,41 @@
       </c>
       <c r="Y19" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>31.701060401100264</v>
+        <v>35.795397004276708</v>
       </c>
       <c r="Z19" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>40.296890163467978</v>
+        <v>36.166960906277183</v>
       </c>
       <c r="AA19" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>34.996641397622383</v>
+        <v>32.08761311817203</v>
       </c>
       <c r="AB19" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>28.445273272731413</v>
+        <v>29.5493524068997</v>
       </c>
       <c r="AC19" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>43.693213262803319</v>
+        <v>49.240520034972612</v>
       </c>
       <c r="AD19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>30.059889683274342</v>
+        <v>32.436359130234756</v>
       </c>
       <c r="AE19" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>11.653817679313516</v>
+        <v>11.690727070879523</v>
       </c>
       <c r="AF19" s="8">
         <v>339</v>
       </c>
-      <c r="AG19" s="8" t="e">
+      <c r="AG19" s="8">
+        <v>136.24917810174745</v>
+      </c>
+      <c r="AH19" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH19" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>3.4925428930847642</v>
+        <v>3.6282158214435691</v>
       </c>
       <c r="AI19" s="5" t="s">
         <v>224</v>
@@ -3830,27 +3818,27 @@
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.916414265916728</v>
+        <v>78.100964390306643</v>
       </c>
       <c r="L20" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>79.000570958494919</v>
+        <v>80.069143110043555</v>
       </c>
       <c r="M20" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>79.404214631688049</v>
+        <v>78.596231260895422</v>
       </c>
       <c r="N20" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>51.490875163830644</v>
+        <v>49.497543271311784</v>
       </c>
       <c r="O20" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>78.879706570039758</v>
+        <v>71.120370469144987</v>
       </c>
       <c r="P20" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>85.336184290726621</v>
+        <v>84.838622580908165</v>
       </c>
       <c r="Q20">
         <v>10.199999999999999</v>
@@ -3878,42 +3866,41 @@
       </c>
       <c r="Y20" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>31.916414265916728</v>
+        <v>34.100964390306643</v>
       </c>
       <c r="Z20" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>39.000570958494919</v>
+        <v>40.069143110043555</v>
       </c>
       <c r="AA20" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>31.404214631688049</v>
+        <v>30.596231260895422</v>
       </c>
       <c r="AB20" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>33.490875163830644</v>
+        <v>31.497543271311784</v>
       </c>
       <c r="AC20" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>53.548296507492232</v>
+        <v>47.050604139781761</v>
       </c>
       <c r="AD20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>31.823897455301598</v>
+        <v>32.658515667462773</v>
       </c>
       <c r="AE20" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>10.531700694352894</v>
+        <v>10.8919802242249</v>
       </c>
       <c r="AF20" s="8">
         <v>321</v>
       </c>
-      <c r="AG20" s="8" t="e">
+      <c r="AG20" s="8">
+        <v>135.27559697753881</v>
+      </c>
+      <c r="AH20" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH20" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.1458072809498425</v>
+        <v>4.189753712707577</v>
       </c>
       <c r="AI20" s="5" t="s">
         <v>227</v>
@@ -3959,27 +3946,27 @@
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>78.421230015592826</v>
+        <v>76.290883998286674</v>
       </c>
       <c r="L21" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>77.40990751963389</v>
+        <v>80.257238163803052</v>
       </c>
       <c r="M21" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.973151329817128</v>
+        <v>81.193155458906602</v>
       </c>
       <c r="N21" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>45.125466586526215</v>
+        <v>43.205277173703799</v>
       </c>
       <c r="O21" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>71.739706630412357</v>
+        <v>68.359367178421905</v>
       </c>
       <c r="P21" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.754200308891285</v>
+        <v>84.362947641343652</v>
       </c>
       <c r="Q21">
         <v>106</v>
@@ -4007,27 +3994,27 @@
       </c>
       <c r="Y21" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>56.421230015592826</v>
+        <v>54.290883998286674</v>
       </c>
       <c r="Z21" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>57.40990751963389</v>
+        <v>60.257238163803052</v>
       </c>
       <c r="AA21" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>54.973151329817128</v>
+        <v>57.193155458906602</v>
       </c>
       <c r="AB21" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>36.125466586526215</v>
+        <v>34.205277173703799</v>
       </c>
       <c r="AC21" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>61.209235390962107</v>
+        <v>54.487640962873577</v>
       </c>
       <c r="AD21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>60.32543371259986</v>
+        <v>57.924212871804684</v>
       </c>
       <c r="AE21" s="7">
         <v>5.3</v>
@@ -4035,13 +4022,12 @@
       <c r="AF21" s="8">
         <v>349</v>
       </c>
-      <c r="AG21" s="8" t="e">
+      <c r="AG21" s="8">
+        <v>141.47079546222952</v>
+      </c>
+      <c r="AH21" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH21" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.7970363039258279</v>
+        <v>4.8977675241725178</v>
       </c>
       <c r="AI21" s="5" t="s">
         <v>229</v>
@@ -4087,27 +4073,27 @@
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>54.28894969700297</v>
+        <v>54.946646394665962</v>
       </c>
       <c r="L22" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>50.49304153901587</v>
+        <v>52.828958840397867</v>
       </c>
       <c r="M22" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>56.066773727408382</v>
+        <v>53.345682056936788</v>
       </c>
       <c r="N22" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>37.850366217993248</v>
+        <v>36.396682828362408</v>
       </c>
       <c r="O22" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>47.523590636475568</v>
+        <v>51.026148217824399</v>
       </c>
       <c r="P22" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>57.154787476427806</v>
+        <v>57.791954399500838</v>
       </c>
       <c r="Q22">
         <v>10.1</v>
@@ -4135,19 +4121,19 @@
       </c>
       <c r="Y22" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>10.28894969700297</v>
+        <v>10.946646394665962</v>
       </c>
       <c r="Z22" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>10.49304153901587</v>
+        <v>12.828958840397867</v>
       </c>
       <c r="AA22" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>8.0667737274083819</v>
+        <v>5.3456820569367878</v>
       </c>
       <c r="AB22" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>19.850366217993248</v>
+        <v>18.396682828362408</v>
       </c>
       <c r="AC22" s="8" t="s">
         <v>311</v>
@@ -4157,18 +4143,17 @@
       </c>
       <c r="AE22" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>10.737372640790719</v>
+        <v>11.030852484801217</v>
       </c>
       <c r="AF22" s="8">
         <v>216</v>
       </c>
-      <c r="AG22" s="8" t="e">
+      <c r="AG22" s="8">
+        <v>133.1587718434495</v>
+      </c>
+      <c r="AH22" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH22" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.3682980521944197</v>
+        <v>4.5720800957292358</v>
       </c>
       <c r="AI22" s="5" t="s">
         <v>232</v>
@@ -4241,27 +4226,27 @@
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.360849832720291</v>
+        <v>75.457180087370801</v>
       </c>
       <c r="L24" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>78.541761453458122</v>
+        <v>76.61260839953475</v>
       </c>
       <c r="M24" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.921000939836986</v>
+        <v>82.267648440062246</v>
       </c>
       <c r="N24" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43.165396271226555</v>
+        <v>45.206488383126278</v>
       </c>
       <c r="O24" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>74.885707176216911</v>
+        <v>75.834743183727539</v>
       </c>
       <c r="P24" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.714831869507194</v>
+        <v>87.376996881947306</v>
       </c>
       <c r="Q24">
         <v>7.3</v>
@@ -4289,42 +4274,41 @@
       </c>
       <c r="Y24" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>35.360849832720291</v>
+        <v>31.457180087370801</v>
       </c>
       <c r="Z24" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>38.541761453458122</v>
+        <v>36.61260839953475</v>
       </c>
       <c r="AA24" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>33.921000939836986</v>
+        <v>34.267648440062246</v>
       </c>
       <c r="AB24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>25.165396271226555</v>
+        <v>27.206488383126278</v>
       </c>
       <c r="AC24" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>49.500580614048481</v>
+        <v>49.084529664712441</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>34.499933305057652</v>
+        <v>36.185152063866525</v>
       </c>
       <c r="AE24" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>7.4071896849526553</v>
+        <v>8.4964133690220063</v>
       </c>
       <c r="AF24" s="8">
         <v>102</v>
       </c>
-      <c r="AG24" s="8" t="e">
+      <c r="AG24" s="8">
+        <v>135.46579024874748</v>
+      </c>
+      <c r="AH24" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH24" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.0251941403787859</v>
+        <v>4.1230332452596192</v>
       </c>
       <c r="AI24" s="5" t="s">
         <v>235</v>
@@ -4370,27 +4354,27 @@
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>77.689157693019382</v>
+        <v>79.87190018558438</v>
       </c>
       <c r="L25" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>76.461605798421488</v>
+        <v>80.125505103740764</v>
       </c>
       <c r="M25" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>79.110692515011948</v>
+        <v>82.952763406451311</v>
       </c>
       <c r="N25" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>45.058949781053336</v>
+        <v>46.201587753662281</v>
       </c>
       <c r="O25" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>69.6035461962272</v>
+        <v>66.773127985504757</v>
       </c>
       <c r="P25" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>85.547361175858256</v>
+        <v>87.324786098103758</v>
       </c>
       <c r="Q25">
         <v>8.6</v>
@@ -4418,37 +4402,37 @@
       </c>
       <c r="Y25" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>11.689157693019382</v>
+        <v>13.87190018558438</v>
       </c>
       <c r="Z25" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>16.461605798421488</v>
+        <v>20.125505103740764</v>
       </c>
       <c r="AA25" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>7.110692515011948</v>
+        <v>10.952763406451311</v>
       </c>
       <c r="AB25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>18.058949781053336</v>
+        <v>19.201587753662281</v>
       </c>
       <c r="AC25" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>30.209085604366262</v>
+        <v>27.370965295845295</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>5.1828315316218108</v>
+        <v>8.2952577814754385</v>
       </c>
       <c r="AE25" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9.0357951474821743</v>
+        <v>8.8294057041681064</v>
       </c>
       <c r="AF25" s="8">
         <v>224</v>
       </c>
       <c r="AG25" s="8">
-        <v>-99</v>
+        <v>143.23477878460471</v>
       </c>
       <c r="AH25" s="7">
         <v>-99</v>
@@ -4497,27 +4481,27 @@
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>77.965341796764989</v>
+        <v>77.795606814907927</v>
       </c>
       <c r="L26" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>79.606770559442609</v>
+        <v>76.387007496532519</v>
       </c>
       <c r="M26" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.923137387453892</v>
+        <v>79.932882294616547</v>
       </c>
       <c r="N26" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>44.87325121133069</v>
+        <v>49.310927116614778</v>
       </c>
       <c r="O26" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>72.967085852819565</v>
+        <v>69.72222328119561</v>
       </c>
       <c r="P26" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.942105148185689</v>
+        <v>86.277183697001234</v>
       </c>
       <c r="Q26">
         <v>5.7</v>
@@ -4545,27 +4529,27 @@
       </c>
       <c r="Y26" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>55.965341796764989</v>
+        <v>55.795606814907927</v>
       </c>
       <c r="Z26" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>59.606770559442609</v>
+        <v>56.387007496532519</v>
       </c>
       <c r="AA26" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>57.923137387453892</v>
+        <v>55.932882294616547</v>
       </c>
       <c r="AB26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>35.87325121133069</v>
+        <v>40.310927116614778</v>
       </c>
       <c r="AC26" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>59.213101229998259</v>
+        <v>60.432712720552317</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>62.919277506973444</v>
+        <v>59.362380401592716</v>
       </c>
       <c r="AE26" s="7">
         <v>3.2</v>
@@ -4573,13 +4557,12 @@
       <c r="AF26" s="8">
         <v>242</v>
       </c>
-      <c r="AG26" s="8" t="e">
+      <c r="AG26" s="8">
+        <v>-99</v>
+      </c>
+      <c r="AH26" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH26" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.0003497987740291</v>
+        <v>4.0910536999309164</v>
       </c>
       <c r="AI26" s="5" t="s">
         <v>240</v>
@@ -4625,27 +4608,27 @@
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>29.262812201632727</v>
+        <v>28.889225996980453</v>
       </c>
       <c r="L27" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>30.82478237386157</v>
+        <v>29.691273768097492</v>
       </c>
       <c r="M27" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>29.053565266412402</v>
+        <v>26.878701271268064</v>
       </c>
       <c r="N27" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>14.132393140954232</v>
+        <v>21.283286488235692</v>
       </c>
       <c r="O27" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>35.026076065939527</v>
+        <v>34.385469674344108</v>
       </c>
       <c r="P27" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>30.15340844232875</v>
+        <v>28.933188097446074</v>
       </c>
       <c r="Q27">
         <v>9.4</v>
@@ -4673,42 +4656,41 @@
       </c>
       <c r="Y27" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>7.2628122016327268</v>
+        <v>6.8892259969804535</v>
       </c>
       <c r="Z27" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>10.82478237386157</v>
+        <v>9.6912737680974921</v>
       </c>
       <c r="AA27" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>5.0535652664124022</v>
+        <v>2.8787012712680635</v>
       </c>
       <c r="AB27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1323931409542318</v>
+        <v>12.283286488235692</v>
       </c>
       <c r="AC27" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>26.112739606372525</v>
+        <v>26.162987564588903</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>3.5112017717662134</v>
+        <v>4.2444573738904348</v>
       </c>
       <c r="AE27" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>10.452011114526611</v>
+        <v>10.020987855352077</v>
       </c>
       <c r="AF27" s="8">
         <v>325</v>
       </c>
-      <c r="AG27" s="8" t="e">
+      <c r="AG27" s="8">
+        <v>144.48281679227409</v>
+      </c>
+      <c r="AH27" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH27" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>3.9370835110742912</v>
+        <v>4.0521638495756322</v>
       </c>
       <c r="AI27" s="5" t="s">
         <v>243</v>
@@ -4754,27 +4736,27 @@
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.482669074827569</v>
+        <v>79.871405857745415</v>
       </c>
       <c r="L28" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>80.86084120787369</v>
+        <v>77.05092855479846</v>
       </c>
       <c r="M28" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.120172182404346</v>
+        <v>82.065539642510046</v>
       </c>
       <c r="N28" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>42.723901982567938</v>
+        <v>44.202180439712031</v>
       </c>
       <c r="O28" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>69.115071935928597</v>
+        <v>72.781690810386721</v>
       </c>
       <c r="P28" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.52170509974772</v>
+        <v>85.593138718083623</v>
       </c>
       <c r="Q28">
         <v>8.8000000000000007</v>
@@ -4802,42 +4784,41 @@
       </c>
       <c r="Y28" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>31.482669074827569</v>
+        <v>35.871405857745415</v>
       </c>
       <c r="Z28" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>40.86084120787369</v>
+        <v>37.05092855479846</v>
       </c>
       <c r="AA28" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>34.120172182404346</v>
+        <v>34.065539642510046</v>
       </c>
       <c r="AB28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>24.723901982567938</v>
+        <v>26.202180439712031</v>
       </c>
       <c r="AC28" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>47.007955967492343</v>
+        <v>48.329539382030802</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>35.73557407046416</v>
+        <v>33.904502630203488</v>
       </c>
       <c r="AE28" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>10.126312301371824</v>
+        <v>9.7765748887178283</v>
       </c>
       <c r="AF28" s="8">
         <v>356</v>
       </c>
-      <c r="AG28" s="8" t="e">
+      <c r="AG28" s="8">
+        <v>145.02346805381558</v>
+      </c>
+      <c r="AH28" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH28" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>37.262219835188866</v>
+        <v>37.033739967371851</v>
       </c>
       <c r="AI28" s="5" t="s">
         <v>245</v>
@@ -4883,27 +4864,27 @@
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>54.578968114119959</v>
+        <v>50.909943049100789</v>
       </c>
       <c r="L29" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>51.345063826833126</v>
+        <v>55.526540179133008</v>
       </c>
       <c r="M29" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>55.301663305817712</v>
+        <v>54.090136540406952</v>
       </c>
       <c r="N29" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>35.929863312244095</v>
+        <v>30.298723208980029</v>
       </c>
       <c r="O29" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>52.424164135566684</v>
+        <v>48.947090815895152</v>
       </c>
       <c r="P29" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>58.745249571138835</v>
+        <v>57.54194286869059</v>
       </c>
       <c r="Q29">
         <v>5.5</v>
@@ -4931,27 +4912,27 @@
       </c>
       <c r="Y29" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>32.578968114119959</v>
+        <v>28.909943049100789</v>
       </c>
       <c r="Z29" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>31.345063826833126</v>
+        <v>35.526540179133008</v>
       </c>
       <c r="AA29" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>31.301663305817712</v>
+        <v>30.090136540406952</v>
       </c>
       <c r="AB29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>26.929863312244095</v>
+        <v>21.298723208980029</v>
       </c>
       <c r="AC29" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>41.125933926707525</v>
+        <v>40.735196376550661</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>32.149432993685899</v>
+        <v>32.960807359207095</v>
       </c>
       <c r="AE29" s="7">
         <v>3.3</v>
@@ -4959,13 +4940,12 @@
       <c r="AF29" s="8">
         <v>310</v>
       </c>
-      <c r="AG29" s="8" t="e">
+      <c r="AG29" s="8">
+        <v>140.33393329005364</v>
+      </c>
+      <c r="AH29" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH29" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.0676349325872136</v>
+        <v>4.183947178459138</v>
       </c>
       <c r="AI29" s="5" t="s">
         <v>248</v>
@@ -5011,27 +4991,27 @@
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.584390544035188</v>
+        <v>79.615270411923575</v>
       </c>
       <c r="L30" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>75.95341586872506</v>
+        <v>76.604486601445714</v>
       </c>
       <c r="M30" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>79.342589989158739</v>
+        <v>81.939214090420094</v>
       </c>
       <c r="N30" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>47.39240423188798</v>
+        <v>42.058860848083405</v>
       </c>
       <c r="O30" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>70.813001097145971</v>
+        <v>68.788853250484834</v>
       </c>
       <c r="P30" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.95768419977513</v>
+        <v>87.666586260815095</v>
       </c>
       <c r="Q30">
         <v>7.6</v>
@@ -5059,42 +5039,41 @@
       </c>
       <c r="Y30" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>9.5843905440351875</v>
+        <v>13.615270411923575</v>
       </c>
       <c r="Z30" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>15.95341586872506</v>
+        <v>16.604486601445714</v>
       </c>
       <c r="AA30" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>7.3425899891587392</v>
+        <v>9.9392140904200943</v>
       </c>
       <c r="AB30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>20.39240423188798</v>
+        <v>15.058860848083405</v>
       </c>
       <c r="AC30" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>29.7334417403755</v>
+        <v>27.000188739872502</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>7.90549223338639</v>
+        <v>7.1531596535855009</v>
       </c>
       <c r="AE30" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>7.6013147167676012</v>
+        <v>7.908994530613974</v>
       </c>
       <c r="AF30" s="8">
         <v>254</v>
       </c>
-      <c r="AG30" s="8" t="e">
+      <c r="AG30" s="8">
+        <v>141.16829977612645</v>
+      </c>
+      <c r="AH30" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH30" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>3.8633160202840253</v>
+        <v>3.6240704717336789</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>250</v>
@@ -5140,27 +5119,27 @@
       </c>
       <c r="K31" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.357194095927198</v>
+        <v>77.294234195621939</v>
       </c>
       <c r="L31" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>79.045028665750181</v>
+        <v>79.696445676172971</v>
       </c>
       <c r="M31" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.756906794209812</v>
+        <v>78.025265353582157</v>
       </c>
       <c r="N31" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>49.708885741031288</v>
+        <v>46.834462837113279</v>
       </c>
       <c r="O31" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>80.018946115727161</v>
+        <v>69.475786079514478</v>
       </c>
       <c r="P31" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>85.014329262205209</v>
+        <v>87.566777761006307</v>
       </c>
       <c r="Q31">
         <v>6.3</v>
@@ -5188,27 +5167,27 @@
       </c>
       <c r="Y31" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>54.357194095927198</v>
+        <v>55.294234195621939</v>
       </c>
       <c r="Z31" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>59.045028665750181</v>
+        <v>59.696445676172971</v>
       </c>
       <c r="AA31" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>54.756906794209812</v>
+        <v>54.025265353582157</v>
       </c>
       <c r="AB31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>40.708885741031288</v>
+        <v>37.834462837113279</v>
       </c>
       <c r="AC31" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>67.65406716456701</v>
+        <v>57.019771433515629</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>60.80703201736943</v>
+        <v>62.779094738266828</v>
       </c>
       <c r="AE31" s="7">
         <v>3.7</v>
@@ -5216,13 +5195,12 @@
       <c r="AF31" s="8">
         <v>189</v>
       </c>
-      <c r="AG31" s="8" t="e">
+      <c r="AG31" s="8">
+        <v>142.02813200837988</v>
+      </c>
+      <c r="AH31" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH31" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>3.7776148060683421</v>
+        <v>3.7339844049863116</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>252</v>
@@ -5268,27 +5246,27 @@
       </c>
       <c r="K32" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.814365555863105</v>
+        <v>78.547811821854893</v>
       </c>
       <c r="L32" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>80.224424491939331</v>
+        <v>75.716344073263315</v>
       </c>
       <c r="M32" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.746789884233579</v>
+        <v>82.974225547464485</v>
       </c>
       <c r="N32" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>51.719144444045526</v>
+        <v>43.489912379046864</v>
       </c>
       <c r="O32" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>79.626170780918315</v>
+        <v>66.976221582832281</v>
       </c>
       <c r="P32" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>85.619723658910331</v>
+        <v>87.080428798068382</v>
       </c>
       <c r="Q32">
         <v>8.9</v>
@@ -5316,42 +5294,41 @@
       </c>
       <c r="Y32" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>32.814365555863105</v>
+        <v>34.547811821854893</v>
       </c>
       <c r="Z32" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>40.224424491939331</v>
+        <v>35.716344073263315</v>
       </c>
       <c r="AA32" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>32.746789884233579</v>
+        <v>34.974225547464485</v>
       </c>
       <c r="AB32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>33.719144444045526</v>
+        <v>25.489912379046864</v>
       </c>
       <c r="AC32" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>54.231072540232539</v>
+        <v>39.783229029414606</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>33.859159962404391</v>
+        <v>34.969067946656246</v>
       </c>
       <c r="AE32" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8.9024061148605078</v>
+        <v>8.9467965288744864</v>
       </c>
       <c r="AF32" s="8">
         <v>48</v>
       </c>
-      <c r="AG32" s="8" t="e">
+      <c r="AG32" s="8">
+        <v>138.31949930950481</v>
+      </c>
+      <c r="AH32" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH32" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.805851398543834</v>
+        <v>4.6845689546305174</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>255</v>
@@ -5397,27 +5374,27 @@
       </c>
       <c r="K33" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>78.576171724815637</v>
+        <v>77.889476570027981</v>
       </c>
       <c r="L33" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>80.112628824931363</v>
+        <v>80.675935022937637</v>
       </c>
       <c r="M33" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.001786700400004</v>
+        <v>81.924377438174758</v>
       </c>
       <c r="N33" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>48.468180997321717</v>
+        <v>50.744884628705265</v>
       </c>
       <c r="O33" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>66.999873896862312</v>
+        <v>80.08180057692573</v>
       </c>
       <c r="P33" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.112025492407625</v>
+        <v>85.391033612062813</v>
       </c>
       <c r="Q33">
         <v>5.9</v>
@@ -5445,42 +5422,41 @@
       </c>
       <c r="Y33" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>34.576171724815637</v>
+        <v>33.889476570027981</v>
       </c>
       <c r="Z33" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>40.112628824931363</v>
+        <v>40.675935022937637</v>
       </c>
       <c r="AA33" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>32.001786700400004</v>
+        <v>33.924377438174758</v>
       </c>
       <c r="AB33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>30.468180997321717</v>
+        <v>32.744884628705265</v>
       </c>
       <c r="AC33" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>42.399201549145261</v>
+        <v>52.110256961065794</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>35.173929505075954</v>
+        <v>33.541001596145612</v>
       </c>
       <c r="AE33" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>7.1087772168531504</v>
+        <v>6.4526936200102503</v>
       </c>
       <c r="AF33" s="8">
         <v>1482</v>
       </c>
-      <c r="AG33" s="8" t="e">
+      <c r="AG33" s="8">
+        <v>139.20801830068473</v>
+      </c>
+      <c r="AH33" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH33" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>5.2589524195947117</v>
+        <v>5.2695545828429271</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>258</v>
@@ -5526,27 +5502,27 @@
       </c>
       <c r="K34" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>77.085137105693818</v>
+        <v>76.397419833813899</v>
       </c>
       <c r="L34" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>78.00104341864008</v>
+        <v>79.924889107199149</v>
       </c>
       <c r="M34" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.90023267477757</v>
+        <v>80.972648971841977</v>
       </c>
       <c r="N34" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>45.143985344765909</v>
+        <v>45.282596397279498</v>
       </c>
       <c r="O34" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>67.991371071914998</v>
+        <v>73.774593450431311</v>
       </c>
       <c r="P34" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>85.244705887004585</v>
+        <v>86.190456800394941</v>
       </c>
       <c r="Q34">
         <v>6.8</v>
@@ -5574,38 +5550,37 @@
       </c>
       <c r="Y34" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>11.085137105693818</v>
+        <v>10.397419833813899</v>
       </c>
       <c r="Z34" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>18.00104341864008</v>
+        <v>19.924889107199149</v>
       </c>
       <c r="AA34" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>10.90023267477757</v>
+        <v>8.9726489718419771</v>
       </c>
       <c r="AB34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>18.143985344765909</v>
+        <v>18.282596397279498</v>
       </c>
       <c r="AC34" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>26.661585693378196</v>
+        <v>37.098188331548307</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>4.9236333187257619</v>
+        <v>6.7844001018436142</v>
       </c>
       <c r="AE34" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>6.9139185962162877</v>
+        <v>6.9077694991173626</v>
       </c>
       <c r="AF34" s="8">
         <v>23</v>
       </c>
-      <c r="AG34" s="8" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
+      <c r="AG34" s="8">
+        <v>142.49756143952018</v>
       </c>
       <c r="AH34" s="7">
         <v>3.9</v>
@@ -5654,27 +5629,27 @@
       </c>
       <c r="K35" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>53.151489401372515</v>
+        <v>53.962277925261979</v>
       </c>
       <c r="L35" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>53.120691801618385</v>
+        <v>51.857617684816553</v>
       </c>
       <c r="M35" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>55.604909329010525</v>
+        <v>52.899003505269292</v>
       </c>
       <c r="N35" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>30.005512243699446</v>
+        <v>32.18793054836987</v>
       </c>
       <c r="O35" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>56.939960008120458</v>
+        <v>51.467635771267055</v>
       </c>
       <c r="P35" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>56.268105392076414</v>
+        <v>58.451815870200626</v>
       </c>
       <c r="Q35">
         <v>7.8</v>
@@ -5702,27 +5677,27 @@
       </c>
       <c r="Y35" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>31.151489401372515</v>
+        <v>31.962277925261979</v>
       </c>
       <c r="Z35" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>33.120691801618385</v>
+        <v>31.857617684816553</v>
       </c>
       <c r="AA35" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>31.604909329010525</v>
+        <v>28.899003505269292</v>
       </c>
       <c r="AB35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>21.005512243699446</v>
+        <v>23.18793054836987</v>
       </c>
       <c r="AC35" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>43.395734298338397</v>
+        <v>39.264033750725694</v>
       </c>
       <c r="AD35" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>31.29242217625033</v>
+        <v>32.523647564948199</v>
       </c>
       <c r="AE35" s="7">
         <v>4.5</v>
@@ -5730,13 +5705,12 @@
       <c r="AF35" s="8">
         <v>117</v>
       </c>
-      <c r="AG35" s="8" t="e">
+      <c r="AG35" s="8">
+        <v>144.27024257698542</v>
+      </c>
+      <c r="AH35" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH35" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>3.7491189754892642</v>
+        <v>3.6229222264949938</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>263</v>
@@ -5782,27 +5756,27 @@
       </c>
       <c r="K36" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>77.105587414557704</v>
+        <v>78.919670893071384</v>
       </c>
       <c r="L36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>77.41323133328396</v>
+        <v>76.06637722262856</v>
       </c>
       <c r="M36" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>79.316747899311594</v>
+        <v>81.91481015762831</v>
       </c>
       <c r="N36" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>46.60178421655575</v>
+        <v>48.501067048293194</v>
       </c>
       <c r="O36" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>76.571818470239549</v>
+        <v>78.354168969604402</v>
       </c>
       <c r="P36" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.344686650826105</v>
+        <v>84.21879454171561</v>
       </c>
       <c r="Q36">
         <v>6.9</v>
@@ -5830,27 +5804,27 @@
       </c>
       <c r="Y36" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>55.105587414557704</v>
+        <v>56.919670893071384</v>
       </c>
       <c r="Z36" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>57.41323133328396</v>
+        <v>56.06637722262856</v>
       </c>
       <c r="AA36" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>55.316747899311594</v>
+        <v>57.91481015762831</v>
       </c>
       <c r="AB36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>37.60178421655575</v>
+        <v>39.501067048293194</v>
       </c>
       <c r="AC36" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>62.852310233019033</v>
+        <v>70.34798440037369</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>60.331082838855522</v>
+        <v>60.079152572177932</v>
       </c>
       <c r="AE36" s="7">
         <v>4.0999999999999996</v>
@@ -5858,13 +5832,12 @@
       <c r="AF36" s="8">
         <v>381</v>
       </c>
-      <c r="AG36" s="8" t="e">
+      <c r="AG36" s="8">
+        <v>139.16192084458575</v>
+      </c>
+      <c r="AH36" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH36" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.3539964578798029</v>
+        <v>4.2972265410638357</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>265</v>
@@ -5910,27 +5883,27 @@
       </c>
       <c r="K37" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>52.329377698341922</v>
+        <v>54.523795550043609</v>
       </c>
       <c r="L37" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>54.936142723277072</v>
+        <v>50.572208901095465</v>
       </c>
       <c r="M37" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>53.780135043424607</v>
+        <v>53.002260898576814</v>
       </c>
       <c r="N37" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>29.542126603735579</v>
+        <v>31.078682724543196</v>
       </c>
       <c r="O37" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>52.495553286232699</v>
+        <v>54.252428749431424</v>
       </c>
       <c r="P37" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>58.456770729394727</v>
+        <v>59.088264192711399</v>
       </c>
       <c r="Q37">
         <v>8.4</v>
@@ -5958,42 +5931,41 @@
       </c>
       <c r="Y37" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>8.3293776983419221</v>
+        <v>10.523795550043609</v>
       </c>
       <c r="Z37" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>14.936142723277072</v>
+        <v>10.572208901095465</v>
       </c>
       <c r="AA37" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>5.7801350434246075</v>
+        <v>5.0022608985768144</v>
       </c>
       <c r="AB37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>11.542126603735579</v>
+        <v>13.078682724543196</v>
       </c>
       <c r="AC37" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>27.687965887293004</v>
+        <v>29.839211956263874</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>5.977062493995331</v>
+        <v>7.9355736850803211</v>
       </c>
       <c r="AE37" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8.9562138181584814</v>
+        <v>8.5532851842916138</v>
       </c>
       <c r="AF37" s="8">
         <v>284</v>
       </c>
-      <c r="AG37" s="8" t="e">
+      <c r="AG37" s="8">
+        <v>138.04621520699561</v>
+      </c>
+      <c r="AH37" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH37" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.0548308241882545</v>
+        <v>3.9629906363435401</v>
       </c>
       <c r="AI37" s="5" t="s">
         <v>272</v>
@@ -6039,27 +6011,27 @@
       </c>
       <c r="K38" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>78.449598280373138</v>
+        <v>78.334343944331877</v>
       </c>
       <c r="L38" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>77.988616748624764</v>
+        <v>78.95128845932382</v>
       </c>
       <c r="M38" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.22780376133872</v>
+        <v>80.602656416059247</v>
       </c>
       <c r="N38" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>45.658489226565045</v>
+        <v>49.41109661231004</v>
       </c>
       <c r="O38" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>69.5612873186153</v>
+        <v>80.884315071746315</v>
       </c>
       <c r="P38" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.443522378207675</v>
+        <v>86.730737295393553</v>
       </c>
       <c r="Q38">
         <v>6.9</v>
@@ -6087,42 +6059,41 @@
       </c>
       <c r="Y38" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>12.449598280373138</v>
+        <v>12.334343944331877</v>
       </c>
       <c r="Z38" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>17.988616748624764</v>
+        <v>18.95128845932382</v>
       </c>
       <c r="AA38" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>6.2278037613387198</v>
+        <v>8.6026564160592471</v>
       </c>
       <c r="AB38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>18.658489226565045</v>
+        <v>22.41109661231004</v>
       </c>
       <c r="AC38" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>32.200469715310433</v>
+        <v>42.853436653960713</v>
       </c>
       <c r="AD38" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6.1948035746248644</v>
+        <v>6.5660522106478316</v>
       </c>
       <c r="AE38" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>7.4372195157310399</v>
+        <v>7.8625689321293866</v>
       </c>
       <c r="AF38" s="8">
         <v>229</v>
       </c>
-      <c r="AG38" s="8" t="e">
+      <c r="AG38" s="8">
+        <v>140.43032186428425</v>
+      </c>
+      <c r="AH38" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH38" s="7">
-        <f t="shared" ca="1" si="14"/>
-        <v>3.8864900879415503</v>
+        <v>3.9086189034239758</v>
       </c>
       <c r="AI38" s="5" t="s">
         <v>271</v>

--- a/data/messy_uc.xlsx
+++ b/data/messy_uc.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pileggis\Documents\gh-personal\rmedicine-data-cleaning-2023\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crystal\Desktop\Freelance\workshops\rmedicine\rmedicine-data-cleaning-2023\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75B5765-0E28-485D-A2A7-A25A87F55B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE4A3DE-2FB7-4C53-87D8-8C81403E6588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C3B41A98-E045-B641-B5DC-D433CA053FBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{C3B41A98-E045-B641-B5DC-D433CA053FBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Explainer" sheetId="1" r:id="rId1"/>
-    <sheet name="Codebook" sheetId="2" r:id="rId2"/>
+    <sheet name="Data_Dictionary" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="3" r:id="rId3"/>
     <sheet name="Problems" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -1551,10 +1551,10 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1591,13 +1591,13 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="43.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2113,18 +2113,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2E3CCE-D9A6-4043-B4E6-790885873B0A}">
   <dimension ref="A1:AL38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
+    <sheetView topLeftCell="M7" workbookViewId="0">
       <selection activeCell="AD25" sqref="AD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
   <cols>
     <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="26.5" customWidth="1"/>
-    <col min="36" max="36" width="22.1640625" customWidth="1"/>
-    <col min="37" max="37" width="18.1640625" customWidth="1"/>
+    <col min="36" max="36" width="22.125" customWidth="1"/>
+    <col min="37" max="37" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -2286,27 +2286,27 @@
       </c>
       <c r="K8" s="8">
         <f ca="1">J8*25 + 5* RAND()</f>
-        <v>75.455894145522905</v>
+        <v>75.854492664658096</v>
       </c>
       <c r="L8" s="8">
         <f ca="1">J8* 25 + 6* RAND()</f>
-        <v>80.590251835998316</v>
+        <v>76.802628191392969</v>
       </c>
       <c r="M8" s="8">
         <f ca="1" xml:space="preserve"> J8*26 + 5 * RAND()</f>
-        <v>81.454152772734005</v>
+        <v>81.638071979911018</v>
       </c>
       <c r="N8" s="8">
         <f ca="1" xml:space="preserve"> J8 *14 + 10* RAND()</f>
-        <v>50.410903461496162</v>
+        <v>50.759130944063955</v>
       </c>
       <c r="O8" s="8">
         <f ca="1" xml:space="preserve"> J8 *22 + 15* RAND()</f>
-        <v>73.323778110661067</v>
+        <v>79.312595958526188</v>
       </c>
       <c r="P8" s="8">
         <f ca="1">J8 * 28 + 4* RAND()</f>
-        <v>86.889448495510109</v>
+        <v>87.817228159581362</v>
       </c>
       <c r="Q8">
         <v>8.1999999999999993</v>
@@ -2334,31 +2334,31 @@
       </c>
       <c r="Y8" s="8">
         <f ca="1" xml:space="preserve"> K8-22*(J8-X8)</f>
-        <v>9.4558941455229046</v>
+        <v>9.8544926646580961</v>
       </c>
       <c r="Z8" s="8">
         <f ca="1" xml:space="preserve"> L8-20*(J8-X8)</f>
-        <v>20.590251835998316</v>
+        <v>16.802628191392969</v>
       </c>
       <c r="AA8" s="8">
         <f ca="1" xml:space="preserve"> M8-24*(J8-X8)</f>
-        <v>9.4541527727340053</v>
+        <v>9.6380719799110182</v>
       </c>
       <c r="AB8" s="8">
         <f ca="1" xml:space="preserve"> N8-9*(J8-X8)</f>
-        <v>23.410903461496162</v>
+        <v>23.759130944063955</v>
       </c>
       <c r="AC8" s="8">
         <f ca="1" xml:space="preserve"> O8-14*(J8-X8)+ 6*RAND()</f>
-        <v>31.980531232702354</v>
+        <v>39.760954572288782</v>
       </c>
       <c r="AD8" s="8">
         <f ca="1" xml:space="preserve"> P8-27*(J8-X8)+ 3*RAND()</f>
-        <v>6.6605585857717573</v>
+        <v>9.4097102977463347</v>
       </c>
       <c r="AE8" s="7">
         <f ca="1">IF(B8 ="upa", Q8 +1.5* RAND()*0.8, Q8 +1.5* RAND())</f>
-        <v>8.5622083718425337</v>
+        <v>8.5416976916463838</v>
       </c>
       <c r="AF8" s="8">
         <v>201</v>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="AH8" s="7">
         <f ca="1">T8 + 0.3* RAND()</f>
-        <v>3.7412119046958803</v>
+        <v>3.958430451086107</v>
       </c>
       <c r="AI8" s="5" t="s">
         <v>192</v>
@@ -2414,27 +2414,27 @@
       </c>
       <c r="K9" s="8">
         <f t="shared" ref="K9:K38" ca="1" si="0">J9*25 + 5* RAND()</f>
-        <v>53.622387884475472</v>
+        <v>54.655357154065989</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" ref="L9:L38" ca="1" si="1">J9* 25 + 6* RAND()</f>
-        <v>53.644791291156054</v>
+        <v>53.569078797960699</v>
       </c>
       <c r="M9" s="8">
         <f t="shared" ref="M9:M38" ca="1" si="2" xml:space="preserve"> J9*26 + 5 * RAND()</f>
-        <v>52.609113873953852</v>
+        <v>53.3980233956392</v>
       </c>
       <c r="N9" s="8">
         <f t="shared" ref="N9:N38" ca="1" si="3" xml:space="preserve"> J9 *14 + 10* RAND()</f>
-        <v>29.568332150326434</v>
+        <v>28.234646470027705</v>
       </c>
       <c r="O9" s="8">
         <f t="shared" ref="O9:O38" ca="1" si="4" xml:space="preserve"> J9 *22 + 15* RAND()</f>
-        <v>55.72460786366743</v>
+        <v>58.554207418846318</v>
       </c>
       <c r="P9" s="8">
         <f t="shared" ref="P9:P38" ca="1" si="5">J9 * 28 + 4* RAND()</f>
-        <v>56.103707668757281</v>
+        <v>59.878436355017584</v>
       </c>
       <c r="Q9">
         <v>10.1</v>
@@ -2462,31 +2462,31 @@
       </c>
       <c r="Y9" s="8">
         <f t="shared" ref="Y9:Y38" ca="1" si="6" xml:space="preserve"> K9-22*(J9-X9)</f>
-        <v>31.622387884475472</v>
+        <v>32.655357154065989</v>
       </c>
       <c r="Z9" s="8">
         <f t="shared" ref="Z9:Z38" ca="1" si="7" xml:space="preserve"> L9-20*(J9-X9)</f>
-        <v>33.644791291156054</v>
+        <v>33.569078797960699</v>
       </c>
       <c r="AA9" s="8">
         <f t="shared" ref="AA9:AA38" ca="1" si="8" xml:space="preserve"> M9-24*(J9-X9)</f>
-        <v>28.609113873953852</v>
+        <v>29.3980233956392</v>
       </c>
       <c r="AB9" s="8">
         <f t="shared" ref="AB9:AB38" ca="1" si="9" xml:space="preserve"> N9-9*(J9-X9)</f>
-        <v>20.568332150326434</v>
+        <v>19.234646470027705</v>
       </c>
       <c r="AC9" s="8">
         <f t="shared" ref="AC9:AC38" ca="1" si="10" xml:space="preserve"> O9-14*(J9-X9)+ 6*RAND()</f>
-        <v>43.154961592472482</v>
+        <v>49.369281547911214</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" ref="AD9:AD38" ca="1" si="11" xml:space="preserve"> P9-27*(J9-X9)+ 3*RAND()</f>
-        <v>30.539178998046562</v>
+        <v>35.238740598703913</v>
       </c>
       <c r="AE9" s="7">
         <f t="shared" ref="AE9:AE38" ca="1" si="12">IF(B9 ="upa", Q9 +1.5* RAND()*0.8, Q9 +1.5* RAND())</f>
-        <v>11.13546571598736</v>
+        <v>11.076921291862758</v>
       </c>
       <c r="AF9" s="8">
         <v>340</v>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="AH9" s="7">
         <f t="shared" ref="AH9:AH38" ca="1" si="13">T9 + 0.3* RAND()</f>
-        <v>4.1484636693700354</v>
+        <v>4.1749792804691319</v>
       </c>
       <c r="AI9" s="5" t="s">
         <v>195</v>
@@ -2542,27 +2542,27 @@
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>25.525267271525589</v>
+        <v>28.462897182833718</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>26.15548008153133</v>
+        <v>30.826225074480579</v>
       </c>
       <c r="M10" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>27.555231882481134</v>
+        <v>29.508372579307292</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>15.203774333022835</v>
+        <v>20.03400938731054</v>
       </c>
       <c r="O10" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>36.561354375275748</v>
+        <v>32.228119586697915</v>
       </c>
       <c r="P10" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>31.38941655608318</v>
+        <v>28.393207406760286</v>
       </c>
       <c r="Q10">
         <v>5.5</v>
@@ -2590,27 +2590,27 @@
       </c>
       <c r="Y10" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>25.525267271525589</v>
+        <v>28.462897182833718</v>
       </c>
       <c r="Z10" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>26.15548008153133</v>
+        <v>30.826225074480579</v>
       </c>
       <c r="AA10" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>27.555231882481134</v>
+        <v>29.508372579307292</v>
       </c>
       <c r="AB10" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>15.203774333022835</v>
+        <v>20.03400938731054</v>
       </c>
       <c r="AC10" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>36.881123946451076</v>
+        <v>35.901286306780541</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>32.798667784920319</v>
+        <v>30.464847562788684</v>
       </c>
       <c r="AE10" s="7">
         <v>3</v>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="AH10" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.471147082466608</v>
+        <v>4.4335327825550381</v>
       </c>
       <c r="AI10" s="5" t="s">
         <v>198</v>
@@ -2669,27 +2669,27 @@
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.365930507106114</v>
+        <v>77.236469882558737</v>
       </c>
       <c r="L11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>77.949166317817358</v>
+        <v>77.727617941856906</v>
       </c>
       <c r="M11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>79.821804759614764</v>
+        <v>79.078525971399046</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>51.265319671315993</v>
+        <v>45.101982933137094</v>
       </c>
       <c r="O11" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>80.76011968813836</v>
+        <v>75.608973520511796</v>
       </c>
       <c r="P11" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.852371365694893</v>
+        <v>86.11734904439156</v>
       </c>
       <c r="Q11">
         <v>4.7</v>
@@ -2717,31 +2717,31 @@
       </c>
       <c r="Y11" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>35.365930507106114</v>
+        <v>33.236469882558737</v>
       </c>
       <c r="Z11" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>37.949166317817358</v>
+        <v>37.727617941856906</v>
       </c>
       <c r="AA11" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>31.821804759614764</v>
+        <v>31.078525971399046</v>
       </c>
       <c r="AB11" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>33.265319671315993</v>
+        <v>27.101982933137094</v>
       </c>
       <c r="AC11" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>58.670309483569042</v>
+        <v>50.2057532077703</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>33.781373664703942</v>
+        <v>33.438822988139307</v>
       </c>
       <c r="AE11" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>5.6919539851024403</v>
+        <v>4.8581763785531553</v>
       </c>
       <c r="AF11" s="8">
         <v>327</v>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="AH11" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>3.6413415309721993</v>
+        <v>3.5335697031525295</v>
       </c>
       <c r="AI11" s="5" t="s">
         <v>201</v>
@@ -2797,27 +2797,27 @@
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.529640258040175</v>
+        <v>78.812996107020851</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>78.437433649812789</v>
+        <v>78.492240397073786</v>
       </c>
       <c r="M12" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>79.189267801465178</v>
+        <v>82.56201795364781</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43.095412446775903</v>
+        <v>48.144792955071111</v>
       </c>
       <c r="O12" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>72.503752015420218</v>
+        <v>74.345840144374478</v>
       </c>
       <c r="P12" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.283216219307135</v>
+        <v>86.733583608936186</v>
       </c>
       <c r="Q12">
         <v>8.9</v>
@@ -2845,27 +2845,27 @@
       </c>
       <c r="Y12" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>57.529640258040175</v>
+        <v>56.812996107020851</v>
       </c>
       <c r="Z12" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>58.437433649812789</v>
+        <v>58.492240397073786</v>
       </c>
       <c r="AA12" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>55.189267801465178</v>
+        <v>58.56201795364781</v>
       </c>
       <c r="AB12" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>34.095412446775903</v>
+        <v>39.144792955071111</v>
       </c>
       <c r="AC12" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>58.863864661125419</v>
+        <v>64.973437247083666</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>62.726355780964326</v>
+        <v>60.982960818815918</v>
       </c>
       <c r="AE12" s="7">
         <v>4.8</v>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="AH12" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.2098431423848472</v>
+        <v>4.0209517122232992</v>
       </c>
       <c r="AI12" s="5" t="s">
         <v>204</v>
@@ -2924,27 +2924,27 @@
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>54.530888226948569</v>
+        <v>54.357705520213614</v>
       </c>
       <c r="L13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>51.867615114533905</v>
+        <v>54.50637507407199</v>
       </c>
       <c r="M13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>55.05637210427912</v>
+        <v>56.900632872303795</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>37.432416710137488</v>
+        <v>30.757146563858399</v>
       </c>
       <c r="O13" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>48.278872148110651</v>
+        <v>45.264825114598516</v>
       </c>
       <c r="P13" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>58.602605738374059</v>
+        <v>57.736510586932241</v>
       </c>
       <c r="Q13">
         <v>9.3000000000000007</v>
@@ -2972,31 +2972,31 @@
       </c>
       <c r="Y13" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>32.530888226948569</v>
+        <v>32.357705520213614</v>
       </c>
       <c r="Z13" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>31.867615114533905</v>
+        <v>34.50637507407199</v>
       </c>
       <c r="AA13" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>31.05637210427912</v>
+        <v>32.900632872303795</v>
       </c>
       <c r="AB13" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>28.432416710137488</v>
+        <v>21.757146563858399</v>
       </c>
       <c r="AC13" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>34.593046073414015</v>
+        <v>35.965982580017993</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>33.940626847642022</v>
+        <v>32.286444657177732</v>
       </c>
       <c r="AE13" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>10.499928420383316</v>
+        <v>9.5735247479922627</v>
       </c>
       <c r="AF13" s="8">
         <v>348</v>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="AH13" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.6643111494821392</v>
+        <v>4.4737959318098648</v>
       </c>
       <c r="AI13" s="5" t="s">
         <v>207</v>
@@ -3052,27 +3052,27 @@
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>78.979787436782217</v>
+        <v>79.699264497070942</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>75.108485630329639</v>
+        <v>80.15946128034723</v>
       </c>
       <c r="M14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.691858914149222</v>
+        <v>80.34471095665802</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>46.901022903780529</v>
+        <v>45.383202717261284</v>
       </c>
       <c r="O14" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>72.65468618343688</v>
+        <v>66.630086588496155</v>
       </c>
       <c r="P14" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>85.982255274579785</v>
+        <v>84.731535590470855</v>
       </c>
       <c r="Q14">
         <v>5.6</v>
@@ -3100,31 +3100,31 @@
       </c>
       <c r="Y14" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>56.979787436782217</v>
+        <v>57.699264497070942</v>
       </c>
       <c r="Z14" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>55.108485630329639</v>
+        <v>60.15946128034723</v>
       </c>
       <c r="AA14" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>58.691858914149222</v>
+        <v>56.34471095665802</v>
       </c>
       <c r="AB14" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>37.901022903780529</v>
+        <v>36.383202717261284</v>
       </c>
       <c r="AC14" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>63.285059520403976</v>
+        <v>57.76367623799068</v>
       </c>
       <c r="AD14" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>59.339031415965522</v>
+        <v>57.90671765123809</v>
       </c>
       <c r="AE14" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>6.3924165230778884</v>
+        <v>6.2829386192911549</v>
       </c>
       <c r="AF14" s="8">
         <v>181</v>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="AH14" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>3.6155101326841064</v>
+        <v>3.8431409289001315</v>
       </c>
       <c r="AI14" s="5" t="s">
         <v>210</v>
@@ -3180,27 +3180,27 @@
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.021776901475846</v>
+        <v>75.010551432637186</v>
       </c>
       <c r="L15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>78.446268188491644</v>
+        <v>77.776198977936076</v>
       </c>
       <c r="M15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.959659562268982</v>
+        <v>78.104398692427523</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>46.508064452369908</v>
+        <v>46.732164968509771</v>
       </c>
       <c r="O15" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>74.584683575253109</v>
+        <v>74.504555195166617</v>
       </c>
       <c r="P15" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>85.576695924769879</v>
+        <v>84.693282346807294</v>
       </c>
       <c r="Q15">
         <v>9.6999999999999993</v>
@@ -3228,27 +3228,27 @@
       </c>
       <c r="Y15" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>57.021776901475846</v>
+        <v>53.010551432637186</v>
       </c>
       <c r="Z15" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>58.446268188491644</v>
+        <v>57.776198977936076</v>
       </c>
       <c r="AA15" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>57.959659562268982</v>
+        <v>54.104398692427523</v>
       </c>
       <c r="AB15" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>37.508064452369908</v>
+        <v>37.732164968509771</v>
       </c>
       <c r="AC15" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>65.313599031979081</v>
+        <v>61.960515932643503</v>
       </c>
       <c r="AD15" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>60.577663927961304</v>
+        <v>57.923389165108134</v>
       </c>
       <c r="AE15" s="7">
         <v>4.9000000000000004</v>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="AH15" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.6034466384944634</v>
+        <v>4.7547620458805895</v>
       </c>
       <c r="AI15" s="5" t="s">
         <v>213</v>
@@ -3307,27 +3307,27 @@
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>53.05736284539848</v>
+        <v>53.055203255192993</v>
       </c>
       <c r="L16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>55.303217380119577</v>
+        <v>53.984484121925348</v>
       </c>
       <c r="M16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>53.194101578223915</v>
+        <v>52.733822172663572</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>33.622167157990823</v>
+        <v>36.272849897415476</v>
       </c>
       <c r="O16" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>54.180591011117123</v>
+        <v>49.991447436884833</v>
       </c>
       <c r="P16" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>59.341720912200195</v>
+        <v>57.834748163140375</v>
       </c>
       <c r="Q16">
         <v>8.3000000000000007</v>
@@ -3355,31 +3355,31 @@
       </c>
       <c r="Y16" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>9.0573628453984796</v>
+        <v>9.0552032551929926</v>
       </c>
       <c r="Z16" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>15.303217380119577</v>
+        <v>13.984484121925348</v>
       </c>
       <c r="AA16" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>5.1941015782239148</v>
+        <v>4.7338221726635723</v>
       </c>
       <c r="AB16" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>15.622167157990823</v>
+        <v>18.272849897415476</v>
       </c>
       <c r="AC16" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>27.976656095216335</v>
+        <v>27.768279853236116</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6.2130001816285816</v>
+        <v>4.8936688981943242</v>
       </c>
       <c r="AE16" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8.7085883948345799</v>
+        <v>9.2804630008071562</v>
       </c>
       <c r="AF16" s="8">
         <v>135</v>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="AH16" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.3654518958862862</v>
+        <v>4.5162371751852817</v>
       </c>
       <c r="AI16" s="5" t="s">
         <v>215</v>
@@ -3435,27 +3435,27 @@
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>77.36521125012068</v>
+        <v>78.906331560091402</v>
       </c>
       <c r="L17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>75.160562030553564</v>
+        <v>80.861142183082492</v>
       </c>
       <c r="M17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.932940719442897</v>
+        <v>82.110136341668294</v>
       </c>
       <c r="N17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43.930008226643523</v>
+        <v>42.505266237926215</v>
       </c>
       <c r="O17" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>74.355982007158133</v>
+        <v>72.513609347669373</v>
       </c>
       <c r="P17" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.599316649072961</v>
+        <v>86.924072429938832</v>
       </c>
       <c r="Q17">
         <v>7.6</v>
@@ -3483,27 +3483,27 @@
       </c>
       <c r="Y17" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>33.36521125012068</v>
+        <v>34.906331560091402</v>
       </c>
       <c r="Z17" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>35.160562030553564</v>
+        <v>40.861142183082492</v>
       </c>
       <c r="AA17" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>30.932940719442897</v>
+        <v>34.110136341668294</v>
       </c>
       <c r="AB17" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>25.930008226643523</v>
+        <v>24.505266237926215</v>
       </c>
       <c r="AC17" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>46.802992507671597</v>
+        <v>45.948161004250508</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>32.787149652718441</v>
+        <v>34.119553712432953</v>
       </c>
       <c r="AE17" s="7">
         <v>4.4000000000000004</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="AH17" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.0088726883990393</v>
+        <v>3.9833440237933764</v>
       </c>
       <c r="AI17" s="5" t="s">
         <v>218</v>
@@ -3562,27 +3562,27 @@
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.796846321561404</v>
+        <v>77.828174902534514</v>
       </c>
       <c r="L18" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>77.480528069855609</v>
+        <v>77.866036900888133</v>
       </c>
       <c r="M18" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>79.116448261575769</v>
+        <v>80.833402538750107</v>
       </c>
       <c r="N18" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>47.710470155296285</v>
+        <v>50.423185483852691</v>
       </c>
       <c r="O18" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>70.692011481257452</v>
+        <v>77.687465620050062</v>
       </c>
       <c r="P18" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.688915843105036</v>
+        <v>84.524718059054095</v>
       </c>
       <c r="Q18">
         <v>9.1999999999999993</v>
@@ -3610,31 +3610,31 @@
       </c>
       <c r="Y18" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>9.7968463215614037</v>
+        <v>11.828174902534514</v>
       </c>
       <c r="Z18" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>17.480528069855609</v>
+        <v>17.866036900888133</v>
       </c>
       <c r="AA18" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>7.1164482615757692</v>
+        <v>8.8334025387501072</v>
       </c>
       <c r="AB18" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>20.710470155296285</v>
+        <v>23.423185483852691</v>
       </c>
       <c r="AC18" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>33.122563864954309</v>
+        <v>37.34426764708568</v>
       </c>
       <c r="AD18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>9.2609171433892996</v>
+        <v>4.9246725277048693</v>
       </c>
       <c r="AE18" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9.9271006584172632</v>
+        <v>10.114511309968144</v>
       </c>
       <c r="AF18" s="8">
         <v>288</v>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="AH18" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>3.7569711007919917</v>
+        <v>3.760204336943084</v>
       </c>
       <c r="AI18" s="5" t="s">
         <v>221</v>
@@ -3690,27 +3690,27 @@
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.795397004276708</v>
+        <v>78.898945036465463</v>
       </c>
       <c r="L19" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>76.166960906277183</v>
+        <v>79.998133013124942</v>
       </c>
       <c r="M19" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.08761311817203</v>
+        <v>80.347071123752073</v>
       </c>
       <c r="N19" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>47.5493524068997</v>
+        <v>50.500420159498532</v>
       </c>
       <c r="O19" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>75.218083497362898</v>
+        <v>75.983775388848287</v>
       </c>
       <c r="P19" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.658574889528609</v>
+        <v>85.841336872495205</v>
       </c>
       <c r="Q19">
         <v>11.5</v>
@@ -3738,31 +3738,31 @@
       </c>
       <c r="Y19" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>35.795397004276708</v>
+        <v>34.898945036465463</v>
       </c>
       <c r="Z19" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>36.166960906277183</v>
+        <v>39.998133013124942</v>
       </c>
       <c r="AA19" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>32.08761311817203</v>
+        <v>32.347071123752073</v>
       </c>
       <c r="AB19" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>29.5493524068997</v>
+        <v>32.500420159498532</v>
       </c>
       <c r="AC19" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>49.240520034972612</v>
+        <v>51.859745680890889</v>
       </c>
       <c r="AD19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>32.436359130234756</v>
+        <v>32.123601253197265</v>
       </c>
       <c r="AE19" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>11.690727070879523</v>
+        <v>12.179191152670995</v>
       </c>
       <c r="AF19" s="8">
         <v>339</v>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="AH19" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>3.6282158214435691</v>
+        <v>3.6661430423098227</v>
       </c>
       <c r="AI19" s="5" t="s">
         <v>224</v>
@@ -3818,27 +3818,27 @@
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>78.100964390306643</v>
+        <v>76.655732935815593</v>
       </c>
       <c r="L20" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>80.069143110043555</v>
+        <v>79.579240785751708</v>
       </c>
       <c r="M20" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.596231260895422</v>
+        <v>81.971202828800628</v>
       </c>
       <c r="N20" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>49.497543271311784</v>
+        <v>43.358089887778213</v>
       </c>
       <c r="O20" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>71.120370469144987</v>
+        <v>77.479957945109078</v>
       </c>
       <c r="P20" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.838622580908165</v>
+        <v>86.362302910691739</v>
       </c>
       <c r="Q20">
         <v>10.199999999999999</v>
@@ -3866,31 +3866,31 @@
       </c>
       <c r="Y20" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>34.100964390306643</v>
+        <v>32.655732935815593</v>
       </c>
       <c r="Z20" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>40.069143110043555</v>
+        <v>39.579240785751708</v>
       </c>
       <c r="AA20" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>30.596231260895422</v>
+        <v>33.971202828800628</v>
       </c>
       <c r="AB20" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>31.497543271311784</v>
+        <v>25.358089887778213</v>
       </c>
       <c r="AC20" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>47.050604139781761</v>
+        <v>55.055731509083827</v>
       </c>
       <c r="AD20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>32.658515667462773</v>
+        <v>33.837425109957636</v>
       </c>
       <c r="AE20" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>10.8919802242249</v>
+        <v>10.770567239925512</v>
       </c>
       <c r="AF20" s="8">
         <v>321</v>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="AH20" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.189753712707577</v>
+        <v>4.0431878559995207</v>
       </c>
       <c r="AI20" s="5" t="s">
         <v>227</v>
@@ -3946,27 +3946,27 @@
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.290883998286674</v>
+        <v>77.156836334177171</v>
       </c>
       <c r="L21" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>80.257238163803052</v>
+        <v>76.034438953094238</v>
       </c>
       <c r="M21" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.193155458906602</v>
+        <v>81.913763537090773</v>
       </c>
       <c r="N21" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43.205277173703799</v>
+        <v>49.72778830123363</v>
       </c>
       <c r="O21" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>68.359367178421905</v>
+        <v>74.356636247545282</v>
       </c>
       <c r="P21" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.362947641343652</v>
+        <v>86.972431086179142</v>
       </c>
       <c r="Q21">
         <v>106</v>
@@ -3994,27 +3994,27 @@
       </c>
       <c r="Y21" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>54.290883998286674</v>
+        <v>55.156836334177171</v>
       </c>
       <c r="Z21" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>60.257238163803052</v>
+        <v>56.034438953094238</v>
       </c>
       <c r="AA21" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>57.193155458906602</v>
+        <v>57.913763537090773</v>
       </c>
       <c r="AB21" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>34.205277173703799</v>
+        <v>40.72778830123363</v>
       </c>
       <c r="AC21" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>54.487640962873577</v>
+        <v>62.246053520477801</v>
       </c>
       <c r="AD21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>57.924212871804684</v>
+        <v>60.302196184393367</v>
       </c>
       <c r="AE21" s="7">
         <v>5.3</v>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="AH21" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.8977675241725178</v>
+        <v>4.6372722503291453</v>
       </c>
       <c r="AI21" s="5" t="s">
         <v>229</v>
@@ -4073,27 +4073,27 @@
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>54.946646394665962</v>
+        <v>53.770643341016587</v>
       </c>
       <c r="L22" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>52.828958840397867</v>
+        <v>52.459085879704048</v>
       </c>
       <c r="M22" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>53.345682056936788</v>
+        <v>55.710414956110711</v>
       </c>
       <c r="N22" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>36.396682828362408</v>
+        <v>34.969525381801589</v>
       </c>
       <c r="O22" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>51.026148217824399</v>
+        <v>49.456463672877902</v>
       </c>
       <c r="P22" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>57.791954399500838</v>
+        <v>56.447557731130424</v>
       </c>
       <c r="Q22">
         <v>10.1</v>
@@ -4121,19 +4121,19 @@
       </c>
       <c r="Y22" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>10.946646394665962</v>
+        <v>9.7706433410165872</v>
       </c>
       <c r="Z22" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>12.828958840397867</v>
+        <v>12.459085879704048</v>
       </c>
       <c r="AA22" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3456820569367878</v>
+        <v>7.7104149561107107</v>
       </c>
       <c r="AB22" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>18.396682828362408</v>
+        <v>16.969525381801589</v>
       </c>
       <c r="AC22" s="8" t="s">
         <v>311</v>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="AE22" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>11.030852484801217</v>
+        <v>10.84246642798821</v>
       </c>
       <c r="AF22" s="8">
         <v>216</v>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="AH22" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.5720800957292358</v>
+        <v>4.3578205598108664</v>
       </c>
       <c r="AI22" s="5" t="s">
         <v>232</v>
@@ -4226,27 +4226,27 @@
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>75.457180087370801</v>
+        <v>79.292536971709879</v>
       </c>
       <c r="L24" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>76.61260839953475</v>
+        <v>79.259525836331306</v>
       </c>
       <c r="M24" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.267648440062246</v>
+        <v>80.537433733546592</v>
       </c>
       <c r="N24" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>45.206488383126278</v>
+        <v>51.446135087647683</v>
       </c>
       <c r="O24" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>75.834743183727539</v>
+        <v>77.276501499485079</v>
       </c>
       <c r="P24" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.376996881947306</v>
+        <v>85.435731562809096</v>
       </c>
       <c r="Q24">
         <v>7.3</v>
@@ -4274,31 +4274,31 @@
       </c>
       <c r="Y24" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>31.457180087370801</v>
+        <v>35.292536971709879</v>
       </c>
       <c r="Z24" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>36.61260839953475</v>
+        <v>39.259525836331306</v>
       </c>
       <c r="AA24" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>34.267648440062246</v>
+        <v>32.537433733546592</v>
       </c>
       <c r="AB24" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>27.206488383126278</v>
+        <v>33.446135087647683</v>
       </c>
       <c r="AC24" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>49.084529664712441</v>
+        <v>51.794563346733348</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>36.185152063866525</v>
+        <v>32.451746453239558</v>
       </c>
       <c r="AE24" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8.4964133690220063</v>
+        <v>8.7667862217496157</v>
       </c>
       <c r="AF24" s="8">
         <v>102</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="AH24" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.1230332452596192</v>
+        <v>4.1703995266694331</v>
       </c>
       <c r="AI24" s="5" t="s">
         <v>235</v>
@@ -4354,27 +4354,27 @@
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.87190018558438</v>
+        <v>75.389746713194853</v>
       </c>
       <c r="L25" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>80.125505103740764</v>
+        <v>79.405894646653977</v>
       </c>
       <c r="M25" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.952763406451311</v>
+        <v>80.02421023871851</v>
       </c>
       <c r="N25" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>46.201587753662281</v>
+        <v>47.1047347812341</v>
       </c>
       <c r="O25" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>66.773127985504757</v>
+        <v>69.627805150338048</v>
       </c>
       <c r="P25" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.324786098103758</v>
+        <v>86.123277291232355</v>
       </c>
       <c r="Q25">
         <v>8.6</v>
@@ -4402,31 +4402,31 @@
       </c>
       <c r="Y25" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>13.87190018558438</v>
+        <v>9.3897467131948531</v>
       </c>
       <c r="Z25" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>20.125505103740764</v>
+        <v>19.405894646653977</v>
       </c>
       <c r="AA25" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>10.952763406451311</v>
+        <v>8.0242102387185099</v>
       </c>
       <c r="AB25" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>19.201587753662281</v>
+        <v>20.1047347812341</v>
       </c>
       <c r="AC25" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>27.370965295845295</v>
+        <v>28.024233546743879</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>8.2952577814754385</v>
+        <v>6.8825236716730025</v>
       </c>
       <c r="AE25" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8.8294057041681064</v>
+        <v>9.1537768424834454</v>
       </c>
       <c r="AF25" s="8">
         <v>224</v>
@@ -4481,27 +4481,27 @@
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>77.795606814907927</v>
+        <v>76.344767249184372</v>
       </c>
       <c r="L26" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>76.387007496532519</v>
+        <v>75.953611372234178</v>
       </c>
       <c r="M26" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>79.932882294616547</v>
+        <v>81.156444796200688</v>
       </c>
       <c r="N26" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>49.310927116614778</v>
+        <v>44.439840158556109</v>
       </c>
       <c r="O26" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>69.72222328119561</v>
+        <v>71.280685401198411</v>
       </c>
       <c r="P26" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.277183697001234</v>
+        <v>87.169170355012994</v>
       </c>
       <c r="Q26">
         <v>5.7</v>
@@ -4529,27 +4529,27 @@
       </c>
       <c r="Y26" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>55.795606814907927</v>
+        <v>54.344767249184372</v>
       </c>
       <c r="Z26" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>56.387007496532519</v>
+        <v>55.953611372234178</v>
       </c>
       <c r="AA26" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>55.932882294616547</v>
+        <v>57.156444796200688</v>
       </c>
       <c r="AB26" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>40.310927116614778</v>
+        <v>35.439840158556109</v>
       </c>
       <c r="AC26" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>60.432712720552317</v>
+        <v>58.368126398937022</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>59.362380401592716</v>
+        <v>60.47081962082467</v>
       </c>
       <c r="AE26" s="7">
         <v>3.2</v>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="AH26" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.0910536999309164</v>
+        <v>4.0916058743519628</v>
       </c>
       <c r="AI26" s="5" t="s">
         <v>240</v>
@@ -4608,27 +4608,27 @@
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>28.889225996980453</v>
+        <v>28.905304781525508</v>
       </c>
       <c r="L27" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>29.691273768097492</v>
+        <v>28.246681258376125</v>
       </c>
       <c r="M27" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>26.878701271268064</v>
+        <v>28.678167828420666</v>
       </c>
       <c r="N27" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>21.283286488235692</v>
+        <v>18.446437879456496</v>
       </c>
       <c r="O27" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>34.385469674344108</v>
+        <v>22.208957085732546</v>
       </c>
       <c r="P27" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>28.933188097446074</v>
+        <v>29.526329660257687</v>
       </c>
       <c r="Q27">
         <v>9.4</v>
@@ -4656,31 +4656,31 @@
       </c>
       <c r="Y27" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>6.8892259969804535</v>
+        <v>6.9053047815255084</v>
       </c>
       <c r="Z27" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>9.6912737680974921</v>
+        <v>8.2466812583761246</v>
       </c>
       <c r="AA27" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>2.8787012712680635</v>
+        <v>4.6781678284206656</v>
       </c>
       <c r="AB27" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>12.283286488235692</v>
+        <v>9.4464378794564965</v>
       </c>
       <c r="AC27" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>26.162987564588903</v>
+        <v>13.120426912160625</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>4.2444573738904348</v>
+        <v>5.1098382236996152</v>
       </c>
       <c r="AE27" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>10.020987855352077</v>
+        <v>9.5591161312889543</v>
       </c>
       <c r="AF27" s="8">
         <v>325</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="AH27" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.0521638495756322</v>
+        <v>3.9672210195097719</v>
       </c>
       <c r="AI27" s="5" t="s">
         <v>243</v>
@@ -4736,27 +4736,27 @@
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.871405857745415</v>
+        <v>79.109826172725604</v>
       </c>
       <c r="L28" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>77.05092855479846</v>
+        <v>75.364060565844426</v>
       </c>
       <c r="M28" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.065539642510046</v>
+        <v>81.234619277961798</v>
       </c>
       <c r="N28" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>44.202180439712031</v>
+        <v>51.927117708360818</v>
       </c>
       <c r="O28" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>72.781690810386721</v>
+        <v>72.43244221114773</v>
       </c>
       <c r="P28" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>85.593138718083623</v>
+        <v>84.554583805526732</v>
       </c>
       <c r="Q28">
         <v>8.8000000000000007</v>
@@ -4784,31 +4784,31 @@
       </c>
       <c r="Y28" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>35.871405857745415</v>
+        <v>35.109826172725604</v>
       </c>
       <c r="Z28" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>37.05092855479846</v>
+        <v>35.364060565844426</v>
       </c>
       <c r="AA28" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>34.065539642510046</v>
+        <v>33.234619277961798</v>
       </c>
       <c r="AB28" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>26.202180439712031</v>
+        <v>33.927117708360818</v>
       </c>
       <c r="AC28" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>48.329539382030802</v>
+        <v>45.417571554273906</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>33.904502630203488</v>
+        <v>33.12041904275663</v>
       </c>
       <c r="AE28" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9.7765748887178283</v>
+        <v>9.3017451813337573</v>
       </c>
       <c r="AF28" s="8">
         <v>356</v>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="AH28" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>37.033739967371851</v>
+        <v>37.048791722598118</v>
       </c>
       <c r="AI28" s="5" t="s">
         <v>245</v>
@@ -4864,27 +4864,27 @@
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>50.909943049100789</v>
+        <v>52.747409690013427</v>
       </c>
       <c r="L29" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>55.526540179133008</v>
+        <v>52.483969237737597</v>
       </c>
       <c r="M29" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>54.090136540406952</v>
+        <v>56.443318321673189</v>
       </c>
       <c r="N29" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>30.298723208980029</v>
+        <v>31.177867340670161</v>
       </c>
       <c r="O29" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>48.947090815895152</v>
+        <v>52.375598731137984</v>
       </c>
       <c r="P29" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>57.54194286869059</v>
+        <v>56.347241777822504</v>
       </c>
       <c r="Q29">
         <v>5.5</v>
@@ -4912,27 +4912,27 @@
       </c>
       <c r="Y29" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>28.909943049100789</v>
+        <v>30.747409690013427</v>
       </c>
       <c r="Z29" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>35.526540179133008</v>
+        <v>32.483969237737597</v>
       </c>
       <c r="AA29" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>30.090136540406952</v>
+        <v>32.443318321673189</v>
       </c>
       <c r="AB29" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>21.298723208980029</v>
+        <v>22.177867340670161</v>
       </c>
       <c r="AC29" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>40.735196376550661</v>
+        <v>41.388894056374887</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>32.960807359207095</v>
+        <v>31.446635487685171</v>
       </c>
       <c r="AE29" s="7">
         <v>3.3</v>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="AH29" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.183947178459138</v>
+        <v>4.2620247049393765</v>
       </c>
       <c r="AI29" s="5" t="s">
         <v>248</v>
@@ -4991,27 +4991,27 @@
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.615270411923575</v>
+        <v>75.225326331734124</v>
       </c>
       <c r="L30" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>76.604486601445714</v>
+        <v>79.888044562853892</v>
       </c>
       <c r="M30" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.939214090420094</v>
+        <v>78.532060191038553</v>
       </c>
       <c r="N30" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>42.058860848083405</v>
+        <v>47.42309515137233</v>
       </c>
       <c r="O30" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>68.788853250484834</v>
+        <v>66.474306510031496</v>
       </c>
       <c r="P30" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.666586260815095</v>
+        <v>85.457038231003011</v>
       </c>
       <c r="Q30">
         <v>7.6</v>
@@ -5039,31 +5039,31 @@
       </c>
       <c r="Y30" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>13.615270411923575</v>
+        <v>9.2253263317341236</v>
       </c>
       <c r="Z30" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>16.604486601445714</v>
+        <v>19.888044562853892</v>
       </c>
       <c r="AA30" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>9.9392140904200943</v>
+        <v>6.5320601910385534</v>
       </c>
       <c r="AB30" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>15.058860848083405</v>
+        <v>20.42309515137233</v>
       </c>
       <c r="AC30" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>27.000188739872502</v>
+        <v>27.007297504717883</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>7.1531596535855009</v>
+        <v>5.0028042477570018</v>
       </c>
       <c r="AE30" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>7.908994530613974</v>
+        <v>8.6078009940164897</v>
       </c>
       <c r="AF30" s="8">
         <v>254</v>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="AH30" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>3.6240704717336789</v>
+        <v>3.7304466486782819</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>250</v>
@@ -5119,27 +5119,27 @@
       </c>
       <c r="K31" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>77.294234195621939</v>
+        <v>78.397483563167413</v>
       </c>
       <c r="L31" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>79.696445676172971</v>
+        <v>80.760112054516128</v>
       </c>
       <c r="M31" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>78.025265353582157</v>
+        <v>82.294415013431305</v>
       </c>
       <c r="N31" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>46.834462837113279</v>
+        <v>47.503008886483904</v>
       </c>
       <c r="O31" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>69.475786079514478</v>
+        <v>77.041564259060564</v>
       </c>
       <c r="P31" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.566777761006307</v>
+        <v>86.211594732214252</v>
       </c>
       <c r="Q31">
         <v>6.3</v>
@@ -5167,27 +5167,27 @@
       </c>
       <c r="Y31" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>55.294234195621939</v>
+        <v>56.397483563167413</v>
       </c>
       <c r="Z31" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>59.696445676172971</v>
+        <v>60.760112054516128</v>
       </c>
       <c r="AA31" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>54.025265353582157</v>
+        <v>58.294415013431305</v>
       </c>
       <c r="AB31" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>37.834462837113279</v>
+        <v>38.503008886483904</v>
       </c>
       <c r="AC31" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>57.019771433515629</v>
+        <v>64.595741275696824</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>62.779094738266828</v>
+        <v>60.768231284959285</v>
       </c>
       <c r="AE31" s="7">
         <v>3.7</v>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="AH31" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>3.7339844049863116</v>
+        <v>3.6179915928169364</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>252</v>
@@ -5246,27 +5246,27 @@
       </c>
       <c r="K32" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>78.547811821854893</v>
+        <v>76.718826779205529</v>
       </c>
       <c r="L32" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>75.716344073263315</v>
+        <v>79.027236612715015</v>
       </c>
       <c r="M32" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>82.974225547464485</v>
+        <v>80.035445932626729</v>
       </c>
       <c r="N32" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>43.489912379046864</v>
+        <v>44.813627753406664</v>
       </c>
       <c r="O32" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>66.976221582832281</v>
+        <v>75.230353253703072</v>
       </c>
       <c r="P32" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>87.080428798068382</v>
+        <v>86.67442364983971</v>
       </c>
       <c r="Q32">
         <v>8.9</v>
@@ -5294,31 +5294,31 @@
       </c>
       <c r="Y32" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>34.547811821854893</v>
+        <v>32.718826779205529</v>
       </c>
       <c r="Z32" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>35.716344073263315</v>
+        <v>39.027236612715015</v>
       </c>
       <c r="AA32" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>34.974225547464485</v>
+        <v>32.035445932626729</v>
       </c>
       <c r="AB32" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>25.489912379046864</v>
+        <v>26.813627753406664</v>
       </c>
       <c r="AC32" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>39.783229029414606</v>
+        <v>50.243011921919624</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>34.969067946656246</v>
+        <v>32.950630192532145</v>
       </c>
       <c r="AE32" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8.9467965288744864</v>
+        <v>8.9106752137839464</v>
       </c>
       <c r="AF32" s="8">
         <v>48</v>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="AH32" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.6845689546305174</v>
+        <v>4.7779437765526183</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>255</v>
@@ -5374,27 +5374,27 @@
       </c>
       <c r="K33" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>77.889476570027981</v>
+        <v>76.914497529353127</v>
       </c>
       <c r="L33" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>80.675935022937637</v>
+        <v>76.903805226393942</v>
       </c>
       <c r="M33" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.924377438174758</v>
+        <v>82.697084312427847</v>
       </c>
       <c r="N33" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>50.744884628705265</v>
+        <v>47.873426469327548</v>
       </c>
       <c r="O33" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>80.08180057692573</v>
+        <v>76.018135396616472</v>
       </c>
       <c r="P33" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>85.391033612062813</v>
+        <v>86.736142789102004</v>
       </c>
       <c r="Q33">
         <v>5.9</v>
@@ -5422,31 +5422,31 @@
       </c>
       <c r="Y33" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>33.889476570027981</v>
+        <v>32.914497529353127</v>
       </c>
       <c r="Z33" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>40.675935022937637</v>
+        <v>36.903805226393942</v>
       </c>
       <c r="AA33" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>33.924377438174758</v>
+        <v>34.697084312427847</v>
       </c>
       <c r="AB33" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>32.744884628705265</v>
+        <v>29.873426469327548</v>
       </c>
       <c r="AC33" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>52.110256961065794</v>
+        <v>52.659962900705473</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>33.541001596145612</v>
+        <v>35.22207511433983</v>
       </c>
       <c r="AE33" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>6.4526936200102503</v>
+        <v>6.3113361910829493</v>
       </c>
       <c r="AF33" s="8">
         <v>1482</v>
@@ -5456,7 +5456,7 @@
       </c>
       <c r="AH33" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>5.2695545828429271</v>
+        <v>5.2551591011317011</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>258</v>
@@ -5502,27 +5502,27 @@
       </c>
       <c r="K34" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>76.397419833813899</v>
+        <v>76.652072258560679</v>
       </c>
       <c r="L34" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>79.924889107199149</v>
+        <v>75.292962068905467</v>
       </c>
       <c r="M34" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.972648971841977</v>
+        <v>82.184795768636178</v>
       </c>
       <c r="N34" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>45.282596397279498</v>
+        <v>45.535419855420486</v>
       </c>
       <c r="O34" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>73.774593450431311</v>
+        <v>79.664233692242561</v>
       </c>
       <c r="P34" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.190456800394941</v>
+        <v>87.77073966896792</v>
       </c>
       <c r="Q34">
         <v>6.8</v>
@@ -5550,31 +5550,31 @@
       </c>
       <c r="Y34" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>10.397419833813899</v>
+        <v>10.652072258560679</v>
       </c>
       <c r="Z34" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>19.924889107199149</v>
+        <v>15.292962068905467</v>
       </c>
       <c r="AA34" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>8.9726489718419771</v>
+        <v>10.184795768636178</v>
       </c>
       <c r="AB34" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>18.282596397279498</v>
+        <v>18.535419855420486</v>
       </c>
       <c r="AC34" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>37.098188331548307</v>
+        <v>41.581059324621933</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6.7844001018436142</v>
+        <v>7.6412894356576047</v>
       </c>
       <c r="AE34" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>6.9077694991173626</v>
+        <v>7.2253428968846141</v>
       </c>
       <c r="AF34" s="8">
         <v>23</v>
@@ -5629,27 +5629,27 @@
       </c>
       <c r="K35" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>53.962277925261979</v>
+        <v>51.116042784768723</v>
       </c>
       <c r="L35" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>51.857617684816553</v>
+        <v>50.941681253003466</v>
       </c>
       <c r="M35" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>52.899003505269292</v>
+        <v>53.50713968982123</v>
       </c>
       <c r="N35" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>32.18793054836987</v>
+        <v>30.45694908143215</v>
       </c>
       <c r="O35" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>51.467635771267055</v>
+        <v>44.221238491480619</v>
       </c>
       <c r="P35" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>58.451815870200626</v>
+        <v>56.886944996636274</v>
       </c>
       <c r="Q35">
         <v>7.8</v>
@@ -5677,27 +5677,27 @@
       </c>
       <c r="Y35" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>31.962277925261979</v>
+        <v>29.116042784768723</v>
       </c>
       <c r="Z35" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>31.857617684816553</v>
+        <v>30.941681253003466</v>
       </c>
       <c r="AA35" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>28.899003505269292</v>
+        <v>29.50713968982123</v>
       </c>
       <c r="AB35" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>23.18793054836987</v>
+        <v>21.45694908143215</v>
       </c>
       <c r="AC35" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>39.264033750725694</v>
+        <v>33.176949642484104</v>
       </c>
       <c r="AD35" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>32.523647564948199</v>
+        <v>31.576567281259898</v>
       </c>
       <c r="AE35" s="7">
         <v>4.5</v>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="AH35" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>3.6229222264949938</v>
+        <v>3.6886282014087697</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>263</v>
@@ -5756,27 +5756,27 @@
       </c>
       <c r="K36" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>78.919670893071384</v>
+        <v>78.115459660761573</v>
       </c>
       <c r="L36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>76.06637722262856</v>
+        <v>77.92283757619748</v>
       </c>
       <c r="M36" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>81.91481015762831</v>
+        <v>81.266082552638437</v>
       </c>
       <c r="N36" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>48.501067048293194</v>
+        <v>42.070642807870158</v>
       </c>
       <c r="O36" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>78.354168969604402</v>
+        <v>78.460246527488081</v>
       </c>
       <c r="P36" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>84.21879454171561</v>
+        <v>84.525299291192255</v>
       </c>
       <c r="Q36">
         <v>6.9</v>
@@ -5804,27 +5804,27 @@
       </c>
       <c r="Y36" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>56.919670893071384</v>
+        <v>56.115459660761573</v>
       </c>
       <c r="Z36" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>56.06637722262856</v>
+        <v>57.92283757619748</v>
       </c>
       <c r="AA36" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>57.91481015762831</v>
+        <v>57.266082552638437</v>
       </c>
       <c r="AB36" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>39.501067048293194</v>
+        <v>33.070642807870158</v>
       </c>
       <c r="AC36" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>70.34798440037369</v>
+        <v>67.258563644329342</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>60.079152572177932</v>
+        <v>59.277702260314456</v>
       </c>
       <c r="AE36" s="7">
         <v>4.0999999999999996</v>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="AH36" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>4.2972265410638357</v>
+        <v>4.4182659580575523</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>265</v>
@@ -5883,27 +5883,27 @@
       </c>
       <c r="K37" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>54.523795550043609</v>
+        <v>52.414454911186809</v>
       </c>
       <c r="L37" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>50.572208901095465</v>
+        <v>52.929545855487909</v>
       </c>
       <c r="M37" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>53.002260898576814</v>
+        <v>52.595236416810501</v>
       </c>
       <c r="N37" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>31.078682724543196</v>
+        <v>29.029661031050903</v>
       </c>
       <c r="O37" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>54.252428749431424</v>
+        <v>49.384266375424644</v>
       </c>
       <c r="P37" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>59.088264192711399</v>
+        <v>57.376572056284601</v>
       </c>
       <c r="Q37">
         <v>8.4</v>
@@ -5931,31 +5931,31 @@
       </c>
       <c r="Y37" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>10.523795550043609</v>
+        <v>8.4144549111868088</v>
       </c>
       <c r="Z37" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>10.572208901095465</v>
+        <v>12.929545855487909</v>
       </c>
       <c r="AA37" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>5.0022608985768144</v>
+        <v>4.5952364168105007</v>
       </c>
       <c r="AB37" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>13.078682724543196</v>
+        <v>11.029661031050903</v>
       </c>
       <c r="AC37" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>29.839211956263874</v>
+        <v>22.931081374117134</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>7.9355736850803211</v>
+        <v>4.2375049721557598</v>
       </c>
       <c r="AE37" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>8.5532851842916138</v>
+        <v>8.982858620309111</v>
       </c>
       <c r="AF37" s="8">
         <v>284</v>
@@ -5965,7 +5965,7 @@
       </c>
       <c r="AH37" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>3.9629906363435401</v>
+        <v>4.0719697180300365</v>
       </c>
       <c r="AI37" s="5" t="s">
         <v>272</v>
@@ -6011,27 +6011,27 @@
       </c>
       <c r="K38" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>78.334343944331877</v>
+        <v>79.87491695715832</v>
       </c>
       <c r="L38" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>78.95128845932382</v>
+        <v>77.527886736799815</v>
       </c>
       <c r="M38" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80.602656416059247</v>
+        <v>80.357850914509655</v>
       </c>
       <c r="N38" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>49.41109661231004</v>
+        <v>48.912582037822851</v>
       </c>
       <c r="O38" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>80.884315071746315</v>
+        <v>69.242894415865237</v>
       </c>
       <c r="P38" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>86.730737295393553</v>
+        <v>84.353176962117942</v>
       </c>
       <c r="Q38">
         <v>6.9</v>
@@ -6059,31 +6059,31 @@
       </c>
       <c r="Y38" s="8">
         <f t="shared" ca="1" si="6"/>
-        <v>12.334343944331877</v>
+        <v>13.87491695715832</v>
       </c>
       <c r="Z38" s="8">
         <f t="shared" ca="1" si="7"/>
-        <v>18.95128845932382</v>
+        <v>17.527886736799815</v>
       </c>
       <c r="AA38" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>8.6026564160592471</v>
+        <v>8.3578509145096547</v>
       </c>
       <c r="AB38" s="8">
         <f t="shared" ca="1" si="9"/>
-        <v>22.41109661231004</v>
+        <v>21.912582037822851</v>
       </c>
       <c r="AC38" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>42.853436653960713</v>
+        <v>31.118353038978491</v>
       </c>
       <c r="AD38" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6.5660522106478316</v>
+        <v>3.8669573019983075</v>
       </c>
       <c r="AE38" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>7.8625689321293866</v>
+        <v>7.2440830839206454</v>
       </c>
       <c r="AF38" s="8">
         <v>229</v>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="AH38" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>3.9086189034239758</v>
+        <v>4.0636383597867978</v>
       </c>
       <c r="AI38" s="5" t="s">
         <v>271</v>
@@ -6119,11 +6119,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6A7274-5BC3-874F-A9E9-C89FF8C99B8A}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
